--- a/Kitajska.xlsx
+++ b/Kitajska.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jure\Documents\Zuzelko\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E58208-68C0-4176-B3F6-254DE57483BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D564F101-363E-4F37-A142-E150897AC3B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7973F123-3AAD-47CF-BA65-2A019CE80CD0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7973F123-3AAD-47CF-BA65-2A019CE80CD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Glavni načrt" sheetId="1" r:id="rId1"/>
@@ -443,8 +443,8 @@
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="166" formatCode="#,##0\ [$CNY]"/>
     <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_)\ [$CNY]_ ;_ * \(#,##0\)\ [$CNY]_ ;_ * &quot;-&quot;_)\ [$CNY]_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="#,##0.0000\ &quot;€&quot;"/>
+    <numFmt numFmtId="168" formatCode="_ * #,##0_)\ [$CNY]_ ;_ * \(#,##0\)\ [$CNY]_ ;_ * &quot;-&quot;_)\ [$CNY]_ ;_ @_ "/>
+    <numFmt numFmtId="169" formatCode="#,##0.0000\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -1308,7 +1308,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1423,47 +1423,14 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="4" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1479,12 +1446,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1515,7 +1476,6 @@
     <xf numFmtId="16" fontId="4" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="4" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1529,19 +1489,12 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="27" xfId="6"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="16" fillId="3" borderId="27" xfId="6" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="16" fillId="3" borderId="27" xfId="6" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="53" xfId="8" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
@@ -1556,6 +1509,48 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="24" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
@@ -1958,8 +1953,8 @@
   </sheetPr>
   <dimension ref="C3:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1973,16 +1968,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
     </row>
     <row r="4" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
     </row>
     <row r="5" spans="3:19" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C5" s="31" t="s">
@@ -1993,7 +1988,7 @@
       </c>
       <c r="E5" s="55">
         <f ca="1">NOW()</f>
-        <v>45692.078929398151</v>
+        <v>45692.454545023145</v>
       </c>
     </row>
     <row r="6" spans="3:19" x14ac:dyDescent="0.25">
@@ -2003,7 +1998,7 @@
       <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="122" t="s">
+      <c r="D7" s="105" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2013,17 +2008,17 @@
       </c>
       <c r="D8" s="5">
         <f>Stroški!D8</f>
-        <v>1576.8248333333333</v>
+        <v>1636.6915000000001</v>
       </c>
     </row>
     <row r="9" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D9" s="123" t="s">
+      <c r="D9" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="E9" s="124" t="s">
+      <c r="E9" s="107" t="s">
         <v>129</v>
       </c>
       <c r="P9" s="5"/>
@@ -2085,8 +2080,8 @@
   </sheetPr>
   <dimension ref="A2:O14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2102,23 +2097,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I2" s="109" t="s">
+      <c r="I2" s="110" t="s">
         <v>92</v>
       </c>
-      <c r="J2" s="110"/>
-      <c r="K2" s="106" t="s">
+      <c r="J2" s="111"/>
+      <c r="K2" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="L2" s="107" t="s">
+      <c r="L2" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="107" t="s">
+      <c r="M2" s="92" t="s">
         <v>95</v>
       </c>
-      <c r="N2" s="107" t="s">
+      <c r="N2" s="92" t="s">
         <v>111</v>
       </c>
-      <c r="O2" s="108" t="s">
+      <c r="O2" s="93" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2126,13 +2121,13 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="117">
+      <c r="D3" s="100">
         <v>36</v>
       </c>
       <c r="F3" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="111"/>
+      <c r="H3" s="94"/>
       <c r="I3" t="s">
         <v>93</v>
       </c>
@@ -2148,11 +2143,11 @@
       <c r="M3">
         <v>3</v>
       </c>
-      <c r="N3" s="93">
+      <c r="N3" s="79">
         <f>L3/M3/5</f>
         <v>8.7333333333333325</v>
       </c>
-      <c r="O3" s="112" t="s">
+      <c r="O3" s="95" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2160,9 +2155,9 @@
       <c r="C4" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="116">
+      <c r="D4" s="99">
         <f>N12</f>
-        <v>66.333333333333329</v>
+        <v>126.2</v>
       </c>
       <c r="F4" t="s">
         <v>71</v>
@@ -2170,7 +2165,7 @@
       <c r="G4" t="s">
         <v>72</v>
       </c>
-      <c r="H4" s="111"/>
+      <c r="H4" s="94"/>
       <c r="I4" t="s">
         <v>6</v>
       </c>
@@ -2186,21 +2181,21 @@
       <c r="M4">
         <v>4</v>
       </c>
-      <c r="N4" s="93">
-        <f t="shared" ref="N4:N12" si="0">L4/M4/5</f>
+      <c r="N4" s="79">
+        <f t="shared" ref="N4:N11" si="0">L4/M4/5</f>
         <v>0</v>
       </c>
-      <c r="O4" s="111"/>
+      <c r="O4" s="94"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="116">
+      <c r="D5" s="99">
         <f>Prevozi!I29</f>
         <v>1038.4195000000002</v>
       </c>
-      <c r="H5" s="111"/>
+      <c r="H5" s="94"/>
       <c r="I5" t="s">
         <v>102</v>
       </c>
@@ -2216,17 +2211,17 @@
       <c r="M5">
         <v>1</v>
       </c>
-      <c r="N5" s="93">
+      <c r="N5" s="79">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O5" s="111"/>
+      <c r="O5" s="94"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="118">
+      <c r="D6" s="101">
         <f>20*E6</f>
         <v>400</v>
       </c>
@@ -2240,7 +2235,7 @@
       <c r="G6" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="111"/>
+      <c r="H6" s="94"/>
       <c r="I6" t="s">
         <v>57</v>
       </c>
@@ -2256,24 +2251,23 @@
       <c r="M6">
         <v>2</v>
       </c>
-      <c r="N6" s="93">
+      <c r="N6" s="79">
         <f t="shared" si="0"/>
         <v>10.6</v>
       </c>
-      <c r="O6" s="113" t="s">
+      <c r="O6" s="96" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="105" t="s">
+      <c r="C7" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="119">
+      <c r="D7" s="102">
         <f>'Plan za vsako mesto'!E34*B14</f>
         <v>36.071999999999996</v>
       </c>
-      <c r="E7" s="105"/>
-      <c r="H7" s="111"/>
+      <c r="H7" s="94"/>
       <c r="I7" t="s">
         <v>106</v>
       </c>
@@ -2289,24 +2283,23 @@
       <c r="M7">
         <v>1</v>
       </c>
-      <c r="N7" s="93">
+      <c r="N7" s="79">
         <f t="shared" si="0"/>
         <v>15.2</v>
       </c>
-      <c r="O7" s="113" t="s">
+      <c r="O7" s="96" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="94" t="s">
+      <c r="C8" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="95">
+      <c r="D8" s="81">
         <f>SUM(D3:D7)</f>
-        <v>1576.8248333333333</v>
-      </c>
-      <c r="E8" s="105"/>
-      <c r="H8" s="111"/>
+        <v>1636.6915000000001</v>
+      </c>
+      <c r="H8" s="94"/>
       <c r="I8" t="s">
         <v>3</v>
       </c>
@@ -2322,16 +2315,16 @@
       <c r="M8">
         <v>2</v>
       </c>
-      <c r="N8" s="93">
+      <c r="N8" s="79">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="O8" s="114" t="s">
+      <c r="O8" s="97" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H9" s="111"/>
+      <c r="H9" s="94"/>
       <c r="I9" t="s">
         <v>55</v>
       </c>
@@ -2347,23 +2340,23 @@
       <c r="M9">
         <v>2</v>
       </c>
-      <c r="N9" s="93">
+      <c r="N9" s="79">
         <f t="shared" si="0"/>
         <v>11.2</v>
       </c>
-      <c r="O9" s="114" t="s">
+      <c r="O9" s="97" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="120" t="s">
+      <c r="C10" s="103" t="s">
         <v>124</v>
       </c>
-      <c r="D10" s="121">
+      <c r="D10" s="104">
         <f>675</f>
         <v>675</v>
       </c>
-      <c r="H10" s="111"/>
+      <c r="H10" s="94"/>
       <c r="I10" t="s">
         <v>102</v>
       </c>
@@ -2379,14 +2372,14 @@
       <c r="M10">
         <v>1</v>
       </c>
-      <c r="N10" s="93">
+      <c r="N10" s="79">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O10" s="111"/>
+      <c r="O10" s="94"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H11" s="111"/>
+      <c r="H11" s="94"/>
       <c r="I11" t="s">
         <v>1</v>
       </c>
@@ -2402,34 +2395,40 @@
       <c r="M11">
         <v>2</v>
       </c>
-      <c r="N11" s="93">
+      <c r="N11" s="79">
         <f t="shared" si="0"/>
         <v>9.6</v>
       </c>
-      <c r="O11" s="115" t="s">
+      <c r="O11" s="98" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K12" s="94"/>
-      <c r="L12" s="95">
+      <c r="K12" s="80"/>
+      <c r="L12" s="81">
         <f>SUM(L3:L11)</f>
         <v>631</v>
       </c>
-      <c r="M12" s="94">
+      <c r="M12" s="80">
         <f>SUM(M3:M11)</f>
         <v>18</v>
       </c>
-      <c r="N12" s="96">
-        <f>SUM(N3:N11)</f>
-        <v>66.333333333333329</v>
+      <c r="N12" s="82">
+        <f>L12/5</f>
+        <v>126.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N13" s="79">
+        <f>N12/M12</f>
+        <v>7.0111111111111111</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="99" t="s">
+      <c r="A14" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="B14" s="104">
+      <c r="B14" s="90">
         <f>0.1336</f>
         <v>0.1336</v>
       </c>
@@ -2463,7 +2462,7 @@
     <col min="2" max="2" width="9.140625" style="17"/>
     <col min="3" max="3" width="10" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="101" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="87" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.140625" style="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" style="21" bestFit="1" customWidth="1"/>
   </cols>
@@ -2478,7 +2477,7 @@
       <c r="D3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="100" t="s">
+      <c r="E3" s="86" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="23" t="s">
@@ -2498,7 +2497,7 @@
       <c r="D7" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="102">
+      <c r="E7" s="88">
         <v>270</v>
       </c>
       <c r="F7" s="21" t="s">
@@ -2509,19 +2508,19 @@
       </c>
     </row>
     <row r="33" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="2:7" s="94" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="97"/>
-      <c r="C34" s="97"/>
-      <c r="D34" s="98"/>
-      <c r="E34" s="103">
+    <row r="34" spans="2:7" s="80" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="83"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="89">
         <f>SUM(E4:E33)</f>
         <v>270</v>
       </c>
-      <c r="F34" s="98"/>
-      <c r="G34" s="98"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E35" s="101" t="s">
+      <c r="E35" s="87" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2552,8 +2551,8 @@
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" style="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="74" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="64" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="63" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" style="33" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.5703125" style="6" customWidth="1"/>
     <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -2562,29 +2561,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="60" t="s">
+      <c r="B2" s="115"/>
+      <c r="C2" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60" t="s">
+      <c r="D2" s="115"/>
+      <c r="E2" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="59"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="61" t="s">
+      <c r="H2" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="72" t="s">
+      <c r="I2" s="115"/>
+      <c r="J2" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="K2" s="63" t="s">
+      <c r="K2" s="57" t="s">
         <v>42</v>
       </c>
       <c r="L2" s="27" t="s">
@@ -2618,14 +2617,14 @@
         <v>5.902777777777779E-2</v>
       </c>
       <c r="H3" s="26"/>
-      <c r="I3" s="66">
+      <c r="I3" s="118">
         <v>337.1</v>
       </c>
-      <c r="J3" s="76" t="b">
+      <c r="J3" s="120" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="K3" s="68" t="s">
+      <c r="K3" s="112" t="s">
         <v>43</v>
       </c>
       <c r="L3" s="32">
@@ -2660,9 +2659,9 @@
         <v>0.70138888888888884</v>
       </c>
       <c r="H4" s="26"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="69"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="113"/>
       <c r="L4" s="32">
         <v>45857</v>
       </c>
@@ -2701,7 +2700,7 @@
         <f t="shared" ref="I5:I6" si="1">H5*0.13225</f>
         <v>6.4802500000000007</v>
       </c>
-      <c r="J5" s="73" t="b">
+      <c r="J5" s="62" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
@@ -2743,7 +2742,7 @@
         <f t="shared" si="1"/>
         <v>12.299250000000001</v>
       </c>
-      <c r="J6" s="73" t="b">
+      <c r="J6" s="62" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
@@ -2782,11 +2781,11 @@
       <c r="I7" s="35">
         <v>155</v>
       </c>
-      <c r="J7" s="73" t="b">
+      <c r="J7" s="62" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K7" s="64" t="s">
+      <c r="K7" s="33" t="s">
         <v>45</v>
       </c>
       <c r="L7" s="32">
@@ -2827,7 +2826,7 @@
         <f t="shared" ref="I8:I18" si="3">H8*0.13225</f>
         <v>13.88625</v>
       </c>
-      <c r="J8" s="73" t="b">
+      <c r="J8" s="62" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
@@ -2869,7 +2868,7 @@
         <f t="shared" si="3"/>
         <v>14.41525</v>
       </c>
-      <c r="J9" s="73" t="b">
+      <c r="J9" s="62" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
@@ -2911,7 +2910,7 @@
         <f t="shared" si="3"/>
         <v>15.341000000000001</v>
       </c>
-      <c r="J10" s="73" t="b">
+      <c r="J10" s="62" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
@@ -2953,7 +2952,7 @@
         <f t="shared" si="3"/>
         <v>25.127500000000001</v>
       </c>
-      <c r="J11" s="73" t="b">
+      <c r="J11" s="62" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
@@ -2995,11 +2994,11 @@
         <f t="shared" si="3"/>
         <v>33.856000000000002</v>
       </c>
-      <c r="J12" s="73" t="b">
+      <c r="J12" s="62" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K12" s="70" t="s">
+      <c r="K12" s="59" t="s">
         <v>81</v>
       </c>
       <c r="L12" s="32">
@@ -3041,11 +3040,11 @@
         <f t="shared" si="3"/>
         <v>5.0255000000000001</v>
       </c>
-      <c r="J13" s="73" t="b">
+      <c r="J13" s="62" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K13" s="65"/>
+      <c r="K13" s="58"/>
       <c r="L13" s="32">
         <v>45866</v>
       </c>
@@ -3084,11 +3083,11 @@
         <f t="shared" si="3"/>
         <v>3.9675000000000002</v>
       </c>
-      <c r="J14" s="73" t="b">
+      <c r="J14" s="62" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K14" s="64" t="s">
+      <c r="K14" s="33" t="s">
         <v>62</v>
       </c>
       <c r="L14" s="32">
@@ -3129,7 +3128,7 @@
         <f t="shared" si="3"/>
         <v>9.1252500000000012</v>
       </c>
-      <c r="J15" s="73" t="b">
+      <c r="J15" s="62" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
@@ -3171,7 +3170,7 @@
         <f t="shared" si="3"/>
         <v>12.960500000000001</v>
       </c>
-      <c r="J16" s="73" t="b">
+      <c r="J16" s="62" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
@@ -3213,7 +3212,7 @@
         <f t="shared" si="3"/>
         <v>10.447750000000001</v>
       </c>
-      <c r="J17" s="73" t="b">
+      <c r="J17" s="62" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
@@ -3255,11 +3254,11 @@
         <f t="shared" si="3"/>
         <v>46.287500000000001</v>
       </c>
-      <c r="J18" s="73" t="b">
+      <c r="J18" s="62" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K18" s="71" t="s">
+      <c r="K18" s="60" t="s">
         <v>70</v>
       </c>
       <c r="L18" s="32">
@@ -3275,7 +3274,7 @@
       <c r="E19" s="13"/>
       <c r="G19" s="20"/>
       <c r="I19" s="35"/>
-      <c r="J19" s="73"/>
+      <c r="J19" s="62"/>
       <c r="L19" s="32"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -3283,7 +3282,7 @@
       <c r="E20" s="13"/>
       <c r="G20" s="20"/>
       <c r="I20" s="35"/>
-      <c r="J20" s="73"/>
+      <c r="J20" s="62"/>
       <c r="L20" s="32"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -3291,7 +3290,7 @@
       <c r="E21" s="13"/>
       <c r="G21" s="20"/>
       <c r="I21" s="35"/>
-      <c r="J21" s="73"/>
+      <c r="J21" s="62"/>
       <c r="L21" s="32"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -3317,14 +3316,14 @@
         <f t="shared" si="0"/>
         <v>0.18055555555555558</v>
       </c>
-      <c r="I22" s="67">
+      <c r="I22" s="119">
         <v>337.1</v>
       </c>
-      <c r="J22" s="75" t="b">
+      <c r="J22" s="121" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="K22" s="69" t="s">
+      <c r="K22" s="113" t="s">
         <v>43</v>
       </c>
       <c r="L22" s="32">
@@ -3354,9 +3353,9 @@
         <f t="shared" si="0"/>
         <v>3.8194444444444475E-2</v>
       </c>
-      <c r="I23" s="67"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="69"/>
+      <c r="I23" s="119"/>
+      <c r="J23" s="121"/>
+      <c r="K23" s="113"/>
       <c r="L23" s="32">
         <v>45877</v>
       </c>
@@ -3364,34 +3363,33 @@
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="1:13" s="78" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="77"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="80"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="81">
+    <row r="29" spans="1:13" s="65" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="64"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="68">
         <f>SUM(G3:G23)</f>
         <v>3.5</v>
       </c>
-      <c r="H29" s="82" t="s">
+      <c r="H29" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="I29" s="84">
+      <c r="I29" s="71">
         <f>SUM(I3:I28)</f>
         <v>1038.4195000000002</v>
       </c>
-      <c r="J29" s="84">
+      <c r="J29" s="71">
         <f>SUM(IF(J3,0,I3),IF(J5,0,I5),IF(J6,0,I6),IF(J7,0,I7),IF(J8,0,I8),IF(J9,0,I9),IF(J10,0,I10),IF(J11,0,I11),IF(J12,0,I12),IF(J13,0,I13),IF(J14,0,I14),IF(J15,0,I15),IF(J16,0,I16),IF(J17,0,I17),IF(J18,0,I18),IF(J19,0,I19),IF(J20,0,I20),IF(J21,0,I21),IF(J22,0,I22),IF(J23,0,I23),IF(J24,0,I24))</f>
         <v>364.21950000000004</v>
       </c>
-      <c r="K29" s="83"/>
-      <c r="L29" s="77"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="64"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J30" s="73" t="s">
+      <c r="J30" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="K30" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3439,14 +3437,6 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="vredu">
-      <formula>NOT(ISERROR(SEARCH("vredu",M1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="PAZI">
-      <formula>NOT(ISERROR(SEARCH("PAZI",M1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I3:I28">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -3457,6 +3447,14 @@
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
       </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1048576">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="vredu">
+      <formula>NOT(ISERROR(SEARCH("vredu",M1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="PAZI">
+      <formula>NOT(ISERROR(SEARCH("PAZI",M1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3471,7 +3469,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3515,23 +3513,23 @@
       <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="87"/>
-      <c r="B2" s="86">
+      <c r="A2" s="74"/>
+      <c r="B2" s="73">
         <v>45852</v>
       </c>
-      <c r="C2" s="86">
+      <c r="C2" s="73">
         <v>45853</v>
       </c>
-      <c r="D2" s="86">
+      <c r="D2" s="73">
         <v>45854</v>
       </c>
-      <c r="E2" s="86">
+      <c r="E2" s="73">
         <v>45855</v>
       </c>
-      <c r="F2" s="86">
+      <c r="F2" s="73">
         <v>45856</v>
       </c>
-      <c r="G2" s="62">
+      <c r="G2" s="56">
         <v>45857</v>
       </c>
       <c r="H2" s="50">
@@ -3621,7 +3619,7 @@
       <c r="H6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="91"/>
+      <c r="J6" s="77"/>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
@@ -3630,7 +3628,6 @@
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
-      <c r="J7" s="90"/>
     </row>
     <row r="8" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="37"/>
@@ -3687,29 +3684,28 @@
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
-      <c r="K10" s="90"/>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="37"/>
-      <c r="B11" s="89">
+      <c r="B11" s="76">
         <v>45873</v>
       </c>
-      <c r="C11" s="92">
+      <c r="C11" s="78">
         <v>45874</v>
       </c>
       <c r="D11" s="40">
         <v>45875</v>
       </c>
-      <c r="E11" s="89">
+      <c r="E11" s="76">
         <v>45876</v>
       </c>
-      <c r="F11" s="88">
+      <c r="F11" s="75">
         <v>45877</v>
       </c>
-      <c r="G11" s="88">
+      <c r="G11" s="75">
         <v>45878</v>
       </c>
-      <c r="H11" s="85">
+      <c r="H11" s="72">
         <v>45879</v>
       </c>
     </row>

--- a/Kitajska.xlsx
+++ b/Kitajska.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jure\Documents\Zuzelko\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D564F101-363E-4F37-A142-E150897AC3B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F830F89-2F97-46E4-BAAD-60CDA6660841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7973F123-3AAD-47CF-BA65-2A019CE80CD0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7973F123-3AAD-47CF-BA65-2A019CE80CD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Glavni načrt" sheetId="1" r:id="rId1"/>
     <sheet name="Stroški" sheetId="7" r:id="rId2"/>
-    <sheet name="Plan za vsako mesto" sheetId="4" r:id="rId3"/>
+    <sheet name="Zanimivosti" sheetId="8" r:id="rId3"/>
     <sheet name="Prevozi" sheetId="5" r:id="rId4"/>
     <sheet name="Koledar" sheetId="6" r:id="rId5"/>
   </sheets>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="216">
   <si>
     <t>Kitajska 2025</t>
   </si>
@@ -48,15 +48,9 @@
     <t>Beijing</t>
   </si>
   <si>
-    <t>Xi'an</t>
-  </si>
-  <si>
     <t>Chengdu</t>
   </si>
   <si>
-    <t>Čas</t>
-  </si>
-  <si>
     <t>Cena</t>
   </si>
   <si>
@@ -78,9 +72,6 @@
     <t>Hrana</t>
   </si>
   <si>
-    <t>SIM</t>
-  </si>
-  <si>
     <t>Chongqing</t>
   </si>
   <si>
@@ -123,30 +114,9 @@
     <t>NED</t>
   </si>
   <si>
-    <t>Mesto</t>
-  </si>
-  <si>
-    <t>Aktivnost</t>
-  </si>
-  <si>
-    <t>Dostopnost</t>
-  </si>
-  <si>
-    <t>Posebnosti / odpiralni čas</t>
-  </si>
-  <si>
     <t>Terracotta</t>
   </si>
   <si>
-    <t>3-4h + queue</t>
-  </si>
-  <si>
-    <t>8.30 - 17.00 (last entry 15.30)</t>
-  </si>
-  <si>
-    <t>xian train st. BUS 5 (306) 1.5h</t>
-  </si>
-  <si>
     <t>Chengdu East</t>
   </si>
   <si>
@@ -255,27 +225,12 @@
     <t>sleeper train</t>
   </si>
   <si>
-    <t>19 hotel + 4 lan + vlak + 2x letalo</t>
-  </si>
-  <si>
-    <t>26 noči</t>
-  </si>
-  <si>
     <t>Spanje</t>
   </si>
   <si>
-    <t>26 dni</t>
-  </si>
-  <si>
-    <t>2x letalo + 24 dni</t>
-  </si>
-  <si>
     <t>skupaj</t>
   </si>
   <si>
-    <t>30 dni</t>
-  </si>
-  <si>
     <t>Z162</t>
   </si>
   <si>
@@ -430,6 +385,309 @@
   </si>
   <si>
     <t>Poglej z lufthanso</t>
+  </si>
+  <si>
+    <t>SIM 30day</t>
+  </si>
+  <si>
+    <t>Nanjing road</t>
+  </si>
+  <si>
+    <t>8:30-16:30</t>
+  </si>
+  <si>
+    <t>Yu garden &amp; Bazaar</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>Shanghai tower</t>
+  </si>
+  <si>
+    <t>Zhujiajiao</t>
+  </si>
+  <si>
+    <t>Marriage Market</t>
+  </si>
+  <si>
+    <t>sun 11-16</t>
+  </si>
+  <si>
+    <t>Pearl tower</t>
+  </si>
+  <si>
+    <t>9:30-20:00</t>
+  </si>
+  <si>
+    <t>Xihui park &amp; Jichang garden</t>
+  </si>
+  <si>
+    <t>8:30-21:30</t>
+  </si>
+  <si>
+    <t>8:30-17:00</t>
+  </si>
+  <si>
+    <t>Leifeng pagoda</t>
+  </si>
+  <si>
+    <t>Longjing tea plantation</t>
+  </si>
+  <si>
+    <t>Yunqi bamboo forest</t>
+  </si>
+  <si>
+    <t>8-17:30</t>
+  </si>
+  <si>
+    <t>9-17 trgovine</t>
+  </si>
+  <si>
+    <t>8:00-17:00</t>
+  </si>
+  <si>
+    <t>YinYang market - fakes</t>
+  </si>
+  <si>
+    <t>Huangpu 45min cruise</t>
+  </si>
+  <si>
+    <t>10:00-20:00</t>
+  </si>
+  <si>
+    <t>18:00-22:00</t>
+  </si>
+  <si>
+    <t>Yuantong temple</t>
+  </si>
+  <si>
+    <t>8:00-18:00</t>
+  </si>
+  <si>
+    <t>Dianchi lake &amp; Dragon gate</t>
+  </si>
+  <si>
+    <t>Stone forest</t>
+  </si>
+  <si>
+    <t>7:00-18:00</t>
+  </si>
+  <si>
+    <t>Dongchuan Red Land</t>
+  </si>
+  <si>
+    <t>Golden temple</t>
+  </si>
+  <si>
+    <t>Green lake park</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>Erhai lake &amp; bicikeLJ</t>
+  </si>
+  <si>
+    <t>Xizhou ancient village</t>
+  </si>
+  <si>
+    <t>Three pagodas Chongsheng</t>
+  </si>
+  <si>
+    <t>Mestni vlak</t>
+  </si>
+  <si>
+    <t>Black dragon pool</t>
+  </si>
+  <si>
+    <t>7:30-17:00</t>
+  </si>
+  <si>
+    <t>Old town</t>
+  </si>
+  <si>
+    <t>Jade dragon snow mt.+okoli</t>
+  </si>
+  <si>
+    <t>7:00-17:00</t>
+  </si>
+  <si>
+    <t>30-80</t>
+  </si>
+  <si>
+    <t>Heaven gate - 999 stopnic</t>
+  </si>
+  <si>
+    <t>8:00 - 18:00</t>
+  </si>
+  <si>
+    <t>Glass bridge &amp; canyon</t>
+  </si>
+  <si>
+    <t>National forest &amp; golden whip stream</t>
+  </si>
+  <si>
+    <t>7:00 - 18:00</t>
+  </si>
+  <si>
+    <t>Jiefangbei</t>
+  </si>
+  <si>
+    <t>9:00-22:00</t>
+  </si>
+  <si>
+    <t>Hongya cave</t>
+  </si>
+  <si>
+    <t>free / 40</t>
+  </si>
+  <si>
+    <t>Three gorges museum</t>
+  </si>
+  <si>
+    <t>9:00-17:00</t>
+  </si>
+  <si>
+    <t>8:00-22:00</t>
+  </si>
+  <si>
+    <t>Ciqikou ancient town</t>
+  </si>
+  <si>
+    <t>Dazu Rock carvings</t>
+  </si>
+  <si>
+    <t>Gondola nad Yangtze</t>
+  </si>
+  <si>
+    <t>Panda research base</t>
+  </si>
+  <si>
+    <t>7:30-18.00</t>
+  </si>
+  <si>
+    <t>Jinli ancient street</t>
+  </si>
+  <si>
+    <t>En BANGER hotpot</t>
+  </si>
+  <si>
+    <t>kosilo</t>
+  </si>
+  <si>
+    <t>Wulong cave</t>
+  </si>
+  <si>
+    <t>7:30 - 17:30</t>
+  </si>
+  <si>
+    <t>Furong ancient city</t>
+  </si>
+  <si>
+    <t>zvečer</t>
+  </si>
+  <si>
+    <t>Kuanzhai Alley</t>
+  </si>
+  <si>
+    <t>Shunan bamboo forest</t>
+  </si>
+  <si>
+    <t>Huashan</t>
+  </si>
+  <si>
+    <t>8:00-19:00</t>
+  </si>
+  <si>
+    <t>Bell tower</t>
+  </si>
+  <si>
+    <t>8:00-18.00</t>
+  </si>
+  <si>
+    <t>Wild goose Pagoda</t>
+  </si>
+  <si>
+    <t>Qianling mausoleum</t>
+  </si>
+  <si>
+    <t>City walls z bajkom</t>
+  </si>
+  <si>
+    <t>free / 30</t>
+  </si>
+  <si>
+    <t>free / 80</t>
+  </si>
+  <si>
+    <t>Muslim quarter</t>
+  </si>
+  <si>
+    <t>10:00-22:00</t>
+  </si>
+  <si>
+    <t>8:30-18:00</t>
+  </si>
+  <si>
+    <t>Forbidden city</t>
+  </si>
+  <si>
+    <t>8:30-16:00</t>
+  </si>
+  <si>
+    <t>free / 15</t>
+  </si>
+  <si>
+    <t>Summer palace</t>
+  </si>
+  <si>
+    <t>06:00-20:00</t>
+  </si>
+  <si>
+    <t>Temple of Heaven</t>
+  </si>
+  <si>
+    <t>Jinshan park</t>
+  </si>
+  <si>
+    <t>6:00-21:00</t>
+  </si>
+  <si>
+    <t>Great wall of china</t>
+  </si>
+  <si>
+    <t>7:30-18:00</t>
+  </si>
+  <si>
+    <t>Wangfujing street</t>
+  </si>
+  <si>
+    <t>798 art zone</t>
+  </si>
+  <si>
+    <t>10:00-18:00</t>
+  </si>
+  <si>
+    <t>Beijing capital museum</t>
+  </si>
+  <si>
+    <t>Tiananmen sq &amp; mao body</t>
+  </si>
+  <si>
+    <t>Skupaj vsi:</t>
+  </si>
+  <si>
+    <t>brez rumenih</t>
+  </si>
+  <si>
+    <t>*treba dodati prevoze med atrakcijami</t>
+  </si>
+  <si>
+    <t>4€/dan</t>
   </si>
 </sst>
 </file>
@@ -446,7 +704,7 @@
     <numFmt numFmtId="168" formatCode="_ * #,##0_)\ [$CNY]_ ;_ * \(#,##0\)\ [$CNY]_ ;_ * &quot;-&quot;_)\ [$CNY]_ ;_ @_ "/>
     <numFmt numFmtId="169" formatCode="#,##0.0000\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -532,13 +790,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -567,13 +818,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -581,19 +825,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -617,11 +863,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="56">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -657,17 +904,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -681,19 +917,6 @@
         <color theme="1"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color theme="1"/>
@@ -951,21 +1174,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="dashDot">
         <color indexed="64"/>
@@ -996,19 +1204,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1196,30 +1391,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -1296,272 +1467,325 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="5" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="3" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="12" fillId="3" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="14" fillId="5" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="12" fillId="3" borderId="49" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="8" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="6" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="22" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="4" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="4" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="6" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="25" xfId="6" applyFill="1"/>
+    <xf numFmtId="169" fontId="15" fillId="6" borderId="25" xfId="6" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="4" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="4" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="22" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="22" xfId="2" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="22" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="4" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="4" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="4" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="6" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="6" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="6" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="4" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="6" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="47" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="4" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="4" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="27" xfId="6"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="16" fillId="3" borderId="27" xfId="6" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="53" xfId="8" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="2" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="6" fontId="13" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="15" fillId="6" borderId="0" xfId="5" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="14" fillId="5" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="4" borderId="55" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="24" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="21" fontId="0" fillId="6" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="53" xfId="5" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="7">
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
     <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Neutral" xfId="5" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
     <cellStyle name="Output" xfId="6" builtinId="21"/>
-    <cellStyle name="Warning Text" xfId="7" builtinId="11"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -1953,117 +2177,121 @@
   </sheetPr>
   <dimension ref="C3:S22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
-    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="9"/>
+    <col min="3" max="3" width="27.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="9" customWidth="1"/>
+    <col min="7" max="11" width="9.140625" style="9"/>
+    <col min="12" max="12" width="10" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="9.140625" style="9"/>
+    <col min="16" max="16" width="9.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" spans="3:19" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="54">
-        <v>45692</v>
-      </c>
-      <c r="E5" s="55">
+      <c r="C5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="12">
+        <v>45693</v>
+      </c>
+      <c r="E5" s="13">
         <f ca="1">NOW()</f>
-        <v>45692.454545023145</v>
+        <v>45693.079130324077</v>
       </c>
     </row>
     <row r="6" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C6" s="1"/>
+      <c r="C6" s="14"/>
     </row>
     <row r="7" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="105" t="s">
-        <v>125</v>
+      <c r="C7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C8" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D8" s="5">
-        <f>Stroški!D8</f>
-        <v>1636.6915000000001</v>
+      <c r="C8" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="16">
+        <f>Stroški!D9</f>
+        <v>1838.1067000000003</v>
       </c>
     </row>
     <row r="9" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C9" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9" s="106" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9" s="107" t="s">
-        <v>129</v>
-      </c>
-      <c r="P9" s="5"/>
-      <c r="S9" s="5"/>
+      <c r="C9" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="P9" s="16"/>
+      <c r="S9" s="16"/>
     </row>
     <row r="10" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C10" s="3"/>
-      <c r="P10" s="5"/>
+      <c r="C10" s="20"/>
+      <c r="P10" s="16"/>
     </row>
     <row r="11" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C11" s="2"/>
-      <c r="P11" s="5"/>
-      <c r="S11" s="5"/>
+      <c r="C11" s="17"/>
+      <c r="P11" s="16"/>
+      <c r="S11" s="16"/>
     </row>
     <row r="12" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C12" s="2"/>
-      <c r="P12" s="18"/>
+      <c r="C12" s="17"/>
+      <c r="P12" s="21"/>
     </row>
     <row r="13" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C13" s="3"/>
+      <c r="C13" s="20"/>
     </row>
     <row r="14" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C14" s="3"/>
+      <c r="C14" s="20"/>
     </row>
     <row r="15" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C15" s="2"/>
-      <c r="P15" s="5"/>
+      <c r="C15" s="17"/>
+      <c r="P15" s="16"/>
     </row>
     <row r="16" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C16" s="1"/>
+      <c r="C16" s="14"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="2"/>
+      <c r="C17" s="17"/>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="28"/>
+      <c r="C19" s="22"/>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="29"/>
+      <c r="C20" s="23"/>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="30"/>
+      <c r="C21" s="24"/>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="29"/>
+      <c r="C22" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2078,453 +2306,1314 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A2:O14"/>
+  <dimension ref="A2:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="100.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="9"/>
+    <col min="3" max="3" width="11.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="9"/>
+    <col min="8" max="8" width="10.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="100.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="9.140625" style="9"/>
+    <col min="13" max="13" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I2" s="110" t="s">
-        <v>92</v>
-      </c>
-      <c r="J2" s="111"/>
-      <c r="K2" s="91" t="s">
-        <v>52</v>
-      </c>
-      <c r="L2" s="92" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="92" t="s">
-        <v>95</v>
-      </c>
-      <c r="N2" s="92" t="s">
-        <v>111</v>
-      </c>
-      <c r="O2" s="93" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="100">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H2" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="M2" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C3" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="5">
         <v>36</v>
       </c>
-      <c r="F3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H3" s="94"/>
-      <c r="I3" t="s">
-        <v>93</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="K3" t="s">
-        <v>100</v>
-      </c>
-      <c r="L3" s="5">
+      <c r="G3" s="30"/>
+      <c r="H3" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" s="16">
         <v>131</v>
       </c>
-      <c r="M3">
+      <c r="L3" s="9">
         <v>3</v>
       </c>
-      <c r="N3" s="79">
-        <f>L3/M3/5</f>
+      <c r="M3" s="32">
+        <f>K3/L3/5</f>
         <v>8.7333333333333325</v>
       </c>
-      <c r="O3" s="95" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="99">
-        <f>N12</f>
+      <c r="N3" s="116" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="4">
+        <f>M12</f>
         <v>126.2</v>
       </c>
-      <c r="F4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H4" s="94"/>
-      <c r="I4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" t="s">
-        <v>98</v>
-      </c>
-      <c r="K4" t="s">
-        <v>101</v>
-      </c>
-      <c r="L4" s="5">
+      <c r="G4" s="30"/>
+      <c r="H4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4" s="16">
         <v>0</v>
       </c>
-      <c r="M4">
+      <c r="L4" s="9">
         <v>4</v>
       </c>
-      <c r="N4" s="79">
-        <f t="shared" ref="N4:N11" si="0">L4/M4/5</f>
+      <c r="M4" s="32">
+        <f t="shared" ref="M4:M11" si="0">K4/L4/5</f>
         <v>0</v>
       </c>
-      <c r="O4" s="94"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="99">
+      <c r="N4" s="30"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="4">
         <f>Prevozi!I29</f>
         <v>1038.4195000000002</v>
       </c>
-      <c r="H5" s="94"/>
-      <c r="I5" t="s">
-        <v>102</v>
-      </c>
-      <c r="J5" t="s">
-        <v>104</v>
-      </c>
-      <c r="K5" t="s">
-        <v>103</v>
-      </c>
-      <c r="L5" s="5">
+      <c r="E5" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="G5" s="30"/>
+      <c r="H5" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="K5" s="16">
         <v>0</v>
       </c>
-      <c r="M5">
+      <c r="L5" s="9">
         <v>1</v>
       </c>
-      <c r="N5" s="79">
+      <c r="M5" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O5" s="94"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="101">
-        <f>20*E6</f>
-        <v>400</v>
-      </c>
-      <c r="E6">
-        <f>M12+2</f>
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="94"/>
-      <c r="I6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="K6" t="s">
-        <v>97</v>
-      </c>
-      <c r="L6" s="5">
+      <c r="N5" s="30"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6">
+        <f>20*L12</f>
+        <v>360</v>
+      </c>
+      <c r="G6" s="30"/>
+      <c r="H6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" s="16">
         <v>106</v>
       </c>
-      <c r="M6">
+      <c r="L6" s="9">
         <v>2</v>
       </c>
-      <c r="N6" s="79">
+      <c r="M6" s="32">
         <f t="shared" si="0"/>
         <v>10.6</v>
       </c>
-      <c r="O6" s="96" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="102">
-        <f>'Plan za vsako mesto'!E34*B14</f>
-        <v>36.071999999999996</v>
-      </c>
-      <c r="H7" s="94"/>
-      <c r="I7" t="s">
-        <v>106</v>
-      </c>
-      <c r="J7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L7" s="5">
+      <c r="N6" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="6">
+        <f>Zanimivosti!E27*B14</f>
+        <v>277.48719999999997</v>
+      </c>
+      <c r="G7" s="30"/>
+      <c r="H7" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" s="16">
         <v>76</v>
       </c>
-      <c r="M7">
+      <c r="L7" s="9">
         <v>1</v>
       </c>
-      <c r="N7" s="79">
+      <c r="M7" s="32">
         <f t="shared" si="0"/>
         <v>15.2</v>
       </c>
-      <c r="O7" s="96" t="s">
+      <c r="N7" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="6">
+        <v>70</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="G8" s="30"/>
+      <c r="H8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" s="16">
         <v>110</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="80" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="81">
-        <f>SUM(D3:D7)</f>
-        <v>1636.6915000000001</v>
-      </c>
-      <c r="H8" s="94"/>
-      <c r="I8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" t="s">
-        <v>113</v>
-      </c>
-      <c r="K8" t="s">
-        <v>112</v>
-      </c>
-      <c r="L8" s="5">
-        <v>110</v>
-      </c>
-      <c r="M8">
+      <c r="L8" s="9">
         <v>2</v>
       </c>
-      <c r="N8" s="79">
+      <c r="M8" s="32">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="O8" s="97" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H9" s="94"/>
-      <c r="I9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" t="s">
-        <v>116</v>
-      </c>
-      <c r="K9" t="s">
-        <v>115</v>
-      </c>
-      <c r="L9" s="5">
+      <c r="N8" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="34">
+        <f>SUM(D3:D7)</f>
+        <v>1838.1067000000003</v>
+      </c>
+      <c r="G9" s="30"/>
+      <c r="H9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" s="16">
         <v>112</v>
       </c>
-      <c r="M9">
+      <c r="L9" s="9">
         <v>2</v>
       </c>
-      <c r="N9" s="79">
+      <c r="M9" s="32">
         <f t="shared" si="0"/>
         <v>11.2</v>
       </c>
-      <c r="O9" s="97" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="103" t="s">
-        <v>124</v>
-      </c>
-      <c r="D10" s="104">
+      <c r="N9" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="30"/>
+      <c r="H10" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" s="16">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
+        <v>1</v>
+      </c>
+      <c r="M10" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="30"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="7">
         <f>675</f>
         <v>675</v>
       </c>
-      <c r="H10" s="94"/>
-      <c r="I10" t="s">
-        <v>102</v>
-      </c>
-      <c r="J10" t="s">
-        <v>118</v>
-      </c>
-      <c r="K10" t="s">
-        <v>119</v>
-      </c>
-      <c r="L10" s="5">
-        <v>0</v>
-      </c>
-      <c r="M10">
+      <c r="G11" s="30"/>
+      <c r="H11" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="N10" s="79">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="94"/>
-    </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H11" s="94"/>
-      <c r="I11" t="s">
-        <v>1</v>
-      </c>
-      <c r="J11" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="K11" t="s">
-        <v>120</v>
-      </c>
-      <c r="L11" s="5">
+      <c r="I11" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" s="16">
         <v>96</v>
       </c>
-      <c r="M11">
+      <c r="L11" s="9">
         <v>2</v>
       </c>
-      <c r="N11" s="79">
+      <c r="M11" s="32">
         <f t="shared" si="0"/>
         <v>9.6</v>
       </c>
-      <c r="O11" s="98" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K12" s="80"/>
-      <c r="L12" s="81">
+      <c r="N11" s="117" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J12" s="33"/>
+      <c r="K12" s="34">
+        <f>SUM(K3:K11)</f>
+        <v>631</v>
+      </c>
+      <c r="L12" s="33">
         <f>SUM(L3:L11)</f>
-        <v>631</v>
-      </c>
-      <c r="M12" s="80">
-        <f>SUM(M3:M11)</f>
         <v>18</v>
       </c>
-      <c r="N12" s="82">
-        <f>L12/5</f>
+      <c r="M12" s="36">
+        <f>K12/5</f>
         <v>126.2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N13" s="79">
-        <f>N12/M12</f>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M13" s="32">
+        <f>M12/L12</f>
         <v>7.0111111111111111</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="85" t="s">
-        <v>123</v>
-      </c>
-      <c r="B14" s="90">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="38">
         <f>0.1336</f>
         <v>0.1336</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
+  <conditionalFormatting sqref="M3:M11">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="8"/>
+        <cfvo type="num" val="12"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="J6" r:id="rId1" xr:uid="{7BFED6F3-B255-4064-96DD-A36C12149613}"/>
-    <hyperlink ref="J3" r:id="rId2" xr:uid="{1D79D774-64B9-4F55-933E-AB4D4B2A31B7}"/>
-    <hyperlink ref="J11" r:id="rId3" xr:uid="{370BE46D-34E3-4E41-B264-34947293E8DD}"/>
+    <hyperlink ref="I6" r:id="rId1" xr:uid="{7BFED6F3-B255-4064-96DD-A36C12149613}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{1D79D774-64B9-4F55-933E-AB4D4B2A31B7}"/>
+    <hyperlink ref="I11" r:id="rId3" xr:uid="{370BE46D-34E3-4E41-B264-34947293E8DD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AD56E5C-2951-4419-B704-AECECEC81B0C}">
-  <sheetPr codeName="Sheet5">
-    <tabColor theme="7" tint="0.59999389629810485"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CD7C6E-068A-4EA7-9B53-F99EA7099B76}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B3:G35"/>
+  <dimension ref="B3:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="17"/>
-    <col min="3" max="3" width="10" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="87" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="34.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" style="9"/>
+    <col min="15" max="15" width="24.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="23" t="s">
+    <row r="3" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="109" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="119">
+        <f>SUM(E5:E13)</f>
+        <v>615</v>
+      </c>
+      <c r="G4" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="86" t="s">
+      <c r="I4" s="119">
+        <f>SUM(I5:I10)</f>
+        <v>210</v>
+      </c>
+      <c r="K4" s="109" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="119">
+        <f>SUM(M5:M8)</f>
+        <v>771</v>
+      </c>
+      <c r="O4" s="109" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q4" s="119">
+        <f>SUM(Q5:Q11)</f>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="112">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="122">
+        <v>30</v>
+      </c>
+      <c r="F5" s="112">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H5" s="113" t="s">
+        <v>141</v>
+      </c>
+      <c r="I5" s="118">
+        <v>10</v>
+      </c>
+      <c r="J5" s="112">
+        <v>1</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="L5" s="113" t="s">
+        <v>163</v>
+      </c>
+      <c r="M5" s="115">
+        <v>248</v>
+      </c>
+      <c r="N5" s="112">
+        <v>1</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="113" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q5" s="118">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="112">
+        <v>2</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="113" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="118" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" s="112">
+        <v>2</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H6" s="113" t="s">
+        <v>141</v>
+      </c>
+      <c r="I6" s="118">
+        <v>40</v>
+      </c>
+      <c r="J6" s="112">
+        <v>2</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="L6" s="113" t="s">
+        <v>180</v>
+      </c>
+      <c r="M6" s="118">
+        <v>168</v>
+      </c>
+      <c r="N6" s="112">
+        <v>2</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="P6" s="113" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q6" s="118">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="112">
+        <v>3</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="113" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="115">
+        <v>200</v>
+      </c>
+      <c r="F7" s="112">
+        <v>3</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H7" s="113" t="s">
+        <v>144</v>
+      </c>
+      <c r="I7" s="118">
+        <v>130</v>
+      </c>
+      <c r="J7" s="112">
+        <v>3</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L7" s="113" t="s">
+        <v>160</v>
+      </c>
+      <c r="M7" s="118">
+        <v>275</v>
+      </c>
+      <c r="N7" s="112">
+        <v>3</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="P7" s="113" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q7" s="115">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="112">
+        <v>4</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="121" t="s">
+        <v>158</v>
+      </c>
+      <c r="F8" s="112">
+        <v>4</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="H8" s="113" t="s">
+        <v>119</v>
+      </c>
+      <c r="I8" s="115" t="s">
+        <v>120</v>
+      </c>
+      <c r="J8" s="112">
+        <v>4</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="L8" s="113" t="s">
+        <v>182</v>
+      </c>
+      <c r="M8" s="118">
+        <v>80</v>
+      </c>
+      <c r="N8" s="112">
+        <v>4</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="P8" s="113" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q8" s="123" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="112">
         <v>5</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="C9" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="113" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="118" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" s="112">
+        <v>5</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H9" s="113" t="s">
+        <v>141</v>
+      </c>
+      <c r="I9" s="115">
         <v>30</v>
       </c>
-      <c r="G3" s="23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
+      <c r="N9" s="112">
+        <v>5</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="P9" s="113" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q9" s="115">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="112">
+        <v>6</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="113" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="118">
+        <v>70</v>
+      </c>
+      <c r="F10" s="112">
+        <v>6</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H10" s="113" t="s">
+        <v>148</v>
+      </c>
+      <c r="I10" s="118" t="s">
+        <v>120</v>
+      </c>
+      <c r="N10" s="112">
+        <v>6</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="P10" s="113" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q10" s="118">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="112">
+        <v>7</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="113" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="120">
+        <v>180</v>
+      </c>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="K11" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="119">
+        <f>SUM(M12:M18)</f>
+        <v>170</v>
+      </c>
+      <c r="N11" s="112">
+        <v>7</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="P11" s="113" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q11" s="118" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="112">
+        <v>8</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="113" t="s">
+        <v>139</v>
+      </c>
+      <c r="E12" s="115">
+        <v>135</v>
+      </c>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="J12" s="112">
+        <v>1</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="L12" s="113" t="s">
+        <v>148</v>
+      </c>
+      <c r="M12" s="118" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="112">
+        <v>9</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="113" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" s="118" t="s">
+        <v>120</v>
+      </c>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="J13" s="112">
         <v>2</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="88">
-        <v>270</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="21" t="s">
+      <c r="K13" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="L13" s="113" t="s">
+        <v>165</v>
+      </c>
+      <c r="M13" s="123" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G14" s="109" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="119">
+        <f>SUM(I15:I17)</f>
+        <v>105</v>
+      </c>
+      <c r="J14" s="112">
+        <v>3</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="L14" s="113" t="s">
+        <v>169</v>
+      </c>
+      <c r="M14" s="115" t="s">
+        <v>120</v>
+      </c>
+      <c r="O14" s="109" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="119">
+        <f>SUM(Q15:Q23)</f>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="110"/>
+      <c r="C15" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="119">
+        <f>SUM(E16:E18)</f>
+        <v>60</v>
+      </c>
+      <c r="F15" s="112">
+        <v>1</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H15" s="113" t="s">
+        <v>148</v>
+      </c>
+      <c r="I15" s="118">
+        <v>30</v>
+      </c>
+      <c r="J15" s="112">
+        <v>4</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="L15" s="113" t="s">
+        <v>170</v>
+      </c>
+      <c r="M15" s="118" t="s">
+        <v>120</v>
+      </c>
+      <c r="N15" s="112">
+        <v>1</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="P15" s="113" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q15" s="118">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="112">
+        <v>1</v>
+      </c>
+      <c r="C16" s="110" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="113" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="115">
+        <v>50</v>
+      </c>
+      <c r="F16" s="112">
+        <v>2</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H16" s="113" t="s">
+        <v>148</v>
+      </c>
+      <c r="I16" s="118" t="s">
+        <v>120</v>
+      </c>
+      <c r="J16" s="112">
+        <v>5</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="L16" s="113" t="s">
+        <v>135</v>
+      </c>
+      <c r="M16" s="118">
+        <v>70</v>
+      </c>
+      <c r="N16" s="112">
+        <v>2</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="P16" s="113" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q16" s="123" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="112">
+        <v>2</v>
+      </c>
+      <c r="C17" s="110" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="113" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" s="118" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" s="112">
+        <v>3</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H17" s="113" t="s">
+        <v>135</v>
+      </c>
+      <c r="I17" s="118">
+        <v>75</v>
+      </c>
+      <c r="J17" s="112">
+        <v>6</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="L17" s="113" t="s">
+        <v>165</v>
+      </c>
+      <c r="M17" s="118">
+        <v>10</v>
+      </c>
+      <c r="N17" s="112">
+        <v>3</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="P17" s="124" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q17" s="118">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="112">
+        <v>3</v>
+      </c>
+      <c r="C18" s="110" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="114" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="118">
+        <v>10</v>
+      </c>
+      <c r="J18" s="112">
+        <v>7</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="M18" s="118">
+        <v>90</v>
+      </c>
+      <c r="N18" s="112">
+        <v>4</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="P18" s="113" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q18" s="115">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="2:7" s="80" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="83"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="84"/>
-      <c r="E34" s="89">
-        <f>SUM(E4:E33)</f>
-        <v>270</v>
-      </c>
-      <c r="F34" s="84"/>
-      <c r="G34" s="84"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E35" s="87" t="s">
-        <v>76</v>
-      </c>
+    <row r="19" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="110"/>
+      <c r="C19" s="110"/>
+      <c r="N19" s="112">
+        <v>5</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="P19" s="113" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q19" s="118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F20" s="110"/>
+      <c r="G20" s="109" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="119">
+        <f>SUM(I21:I23)</f>
+        <v>250</v>
+      </c>
+      <c r="K20" s="109" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20" s="119">
+        <f>SUM(M21:M25)</f>
+        <v>168</v>
+      </c>
+      <c r="N20" s="112">
+        <v>6</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="P20" s="113" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q20" s="118">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="F21" s="112">
+        <v>1</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="H21" s="113" t="s">
+        <v>154</v>
+      </c>
+      <c r="I21" s="118">
+        <v>50</v>
+      </c>
+      <c r="J21" s="112">
+        <v>1</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="L21" s="113" t="s">
+        <v>175</v>
+      </c>
+      <c r="M21" s="118">
+        <v>58</v>
+      </c>
+      <c r="N21" s="112">
+        <v>7</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="P21" s="113" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q21" s="118" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="F22" s="112">
+        <v>2</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="H22" s="113" t="s">
+        <v>148</v>
+      </c>
+      <c r="I22" s="123" t="s">
+        <v>193</v>
+      </c>
+      <c r="J22" s="112">
+        <v>2</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="L22" s="113" t="s">
+        <v>165</v>
+      </c>
+      <c r="M22" s="115" t="s">
+        <v>120</v>
+      </c>
+      <c r="N22" s="112">
+        <v>8</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="P22" s="113" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q22" s="115" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="F23" s="112">
+        <v>3</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="H23" s="113" t="s">
+        <v>157</v>
+      </c>
+      <c r="I23" s="118">
+        <v>200</v>
+      </c>
+      <c r="J23" s="112">
+        <v>3</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="L23" s="113" t="s">
+        <v>178</v>
+      </c>
+      <c r="M23" s="118">
+        <v>30</v>
+      </c>
+      <c r="N23" s="112">
+        <v>9</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="P23" s="113" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q23" s="118" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J24" s="112">
+        <v>4</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="L24" s="113" t="s">
+        <v>165</v>
+      </c>
+      <c r="M24" s="115" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D25" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="E25" s="120">
+        <f>SUM(E4,E15,I4,I14,I20,M4,M11,M20,Q4,Q14)</f>
+        <v>3005</v>
+      </c>
+      <c r="F25" s="127">
+        <f>E25*D29</f>
+        <v>401.46800000000002</v>
+      </c>
+      <c r="J25" s="112">
+        <v>5</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="L25" s="113" t="s">
+        <v>141</v>
+      </c>
+      <c r="M25" s="118">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="E26" s="9">
+        <f>SUM(E7,E12,E11,E16,I9,M5,Q7,Q9)</f>
+        <v>928</v>
+      </c>
+      <c r="F26" s="127">
+        <f>E26*D29</f>
+        <v>123.9808</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E27" s="126">
+        <f>E25-E26</f>
+        <v>2077</v>
+      </c>
+      <c r="F27" s="128">
+        <f>E27*D29</f>
+        <v>277.48719999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="110"/>
+      <c r="C28" s="110"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29">
+        <f>0.1336</f>
+        <v>0.1336</v>
+      </c>
+      <c r="E29" s="110"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="110"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B30" s="110"/>
+      <c r="C30" s="110"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="110"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B31" s="110"/>
+      <c r="C31" s="110"/>
+      <c r="D31" s="110"/>
+      <c r="E31" s="125"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="110"/>
+      <c r="H31" s="110"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B32" s="110"/>
+      <c r="C32" s="110"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="110"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="110"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="110"/>
+      <c r="H33" s="110"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="110"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="110"/>
+      <c r="E34" s="110"/>
+      <c r="F34" s="110"/>
+      <c r="G34" s="110"/>
+      <c r="H34" s="110"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2537,858 +3626,860 @@
   <dimension ref="A2:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="25" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="63" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="72" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="61" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="61" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" style="73" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="74" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" style="47" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="9"/>
+    <col min="17" max="17" width="12.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="114" t="s">
+    <row r="2" spans="1:14" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="116" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="115"/>
-      <c r="E2" s="116" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="115"/>
-      <c r="G2" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="117" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="115"/>
-      <c r="J2" s="61" t="s">
-        <v>89</v>
-      </c>
-      <c r="K2" s="57" t="s">
+      <c r="D2" s="41"/>
+      <c r="E2" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="41"/>
+      <c r="G2" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="41"/>
+      <c r="J2" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="M2" s="27" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="14">
+      <c r="M2" s="43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="48">
         <v>0.57638888888888884</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="15">
+      <c r="D3" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="50">
         <v>0.63541666666666663</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" s="20">
+      <c r="F3" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="51">
         <f t="shared" ref="G3:G23" si="0">MOD(E3 - C3, 1)</f>
         <v>5.902777777777779E-2</v>
       </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="118">
+      <c r="H3" s="52"/>
+      <c r="I3" s="53">
         <v>337.1</v>
       </c>
-      <c r="J3" s="120" t="b">
+      <c r="J3" s="54" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="K3" s="112" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="32">
+      <c r="K3" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="56">
         <v>45857</v>
       </c>
-      <c r="M3" s="6" t="str">
+      <c r="M3" s="47" t="str">
         <f>IF(MOD(C4-E3,1)&lt;=0.08,"PAZI","vredu je")</f>
         <v>vredu je</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="14">
+    <row r="4" spans="1:14" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="48">
         <v>0.80555555555555558</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" s="15">
+      <c r="D4" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="50">
         <v>0.50694444444444442</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="20">
+      <c r="F4" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="51">
         <f t="shared" si="0"/>
         <v>0.70138888888888884</v>
       </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="113"/>
-      <c r="L4" s="32">
+      <c r="H4" s="52"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="56">
         <v>45857</v>
       </c>
-      <c r="M4" s="6" t="str">
+      <c r="M4" s="47" t="str">
         <f>IF(MOD(C4-E3,1)&lt;=0.08,"PAZI","vredu je")</f>
         <v>vredu je</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="12">
+      <c r="A5" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="60">
         <v>0.42222222222222222</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="13">
+      <c r="D5" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="62">
         <v>0.49375000000000002</v>
       </c>
-      <c r="F5" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="20">
+      <c r="F5" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="51">
         <f>MOD(E5 - C5, 1)</f>
         <v>7.1527777777777801E-2</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="63">
         <v>49</v>
       </c>
-      <c r="I5" s="35">
+      <c r="I5" s="64">
         <f t="shared" ref="I5:I6" si="1">H5*0.13225</f>
         <v>6.4802500000000007</v>
       </c>
-      <c r="J5" s="62" t="b">
+      <c r="J5" s="65" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L5" s="32">
+      <c r="L5" s="56">
         <v>45859</v>
       </c>
-      <c r="M5" s="6" t="str">
+      <c r="M5" s="47" t="str">
         <f t="shared" ref="M5:M18" si="2">IF(MOD(C5-E4,1)&lt;=0.08,"PAZI","vredu je")</f>
         <v>vredu je</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="12">
+      <c r="A6" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="60">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D6" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="13">
+      <c r="D6" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="62">
         <v>0.90208333333333335</v>
       </c>
-      <c r="F6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="20">
+      <c r="F6" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="51">
         <f>MOD(E6 - C6, 1)</f>
         <v>6.8749999999999978E-2</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="63">
         <v>93</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6" s="64">
         <f t="shared" si="1"/>
         <v>12.299250000000001</v>
       </c>
-      <c r="J6" s="62" t="b">
+      <c r="J6" s="65" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L6" s="32">
+      <c r="L6" s="56">
         <v>45859</v>
       </c>
-      <c r="M6" s="6" t="str">
+      <c r="M6" s="47" t="str">
         <f t="shared" si="2"/>
         <v>vredu je</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="12">
+      <c r="A7" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="60">
         <v>0.55902777777777779</v>
       </c>
-      <c r="D7" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="13">
+      <c r="D7" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="62">
         <v>0.76388888888888884</v>
       </c>
-      <c r="F7" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="20">
+      <c r="F7" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="51">
         <f t="shared" si="0"/>
         <v>0.20486111111111105</v>
       </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="35">
+      <c r="H7" s="63"/>
+      <c r="I7" s="64">
         <v>155</v>
       </c>
-      <c r="J7" s="62" t="b">
+      <c r="J7" s="65" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K7" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="32">
+      <c r="K7" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="56">
         <v>45861</v>
       </c>
-      <c r="M7" s="6" t="str">
+      <c r="M7" s="47" t="str">
         <f t="shared" si="2"/>
         <v>vredu je</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="12">
+      <c r="A8" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="60">
         <v>0.32569444444444445</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="62">
+        <v>0.41944444444444445</v>
+      </c>
+      <c r="F8" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="13">
-        <v>0.41944444444444445</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="20">
+      <c r="G8" s="51">
         <f>MOD(E8 - C8, 1)</f>
         <v>9.375E-2</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="63">
         <v>105</v>
       </c>
-      <c r="I8" s="35">
+      <c r="I8" s="64">
         <f t="shared" ref="I8:I18" si="3">H8*0.13225</f>
         <v>13.88625</v>
       </c>
-      <c r="J8" s="62" t="b">
+      <c r="J8" s="65" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L8" s="32">
+      <c r="L8" s="56">
         <v>45863</v>
       </c>
-      <c r="M8" s="6" t="str">
+      <c r="M8" s="47" t="str">
         <f t="shared" si="2"/>
         <v>vredu je</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="12">
+      <c r="A9" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="60">
         <v>0.8125</v>
       </c>
-      <c r="D9" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="13">
+      <c r="D9" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="62">
         <v>0.89513888888888893</v>
       </c>
-      <c r="F9" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="20">
+      <c r="F9" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="51">
         <f>MOD(E9 - C9, 1)</f>
         <v>8.2638888888888928E-2</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="63">
         <v>109</v>
       </c>
-      <c r="I9" s="35">
+      <c r="I9" s="64">
         <f t="shared" si="3"/>
         <v>14.41525</v>
       </c>
-      <c r="J9" s="62" t="b">
+      <c r="J9" s="65" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L9" s="32">
+      <c r="L9" s="56">
         <v>45863</v>
       </c>
-      <c r="M9" s="6" t="str">
+      <c r="M9" s="47" t="str">
         <f t="shared" si="2"/>
         <v>vredu je</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="12">
+      <c r="A10" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="60">
         <v>0.32916666666666666</v>
       </c>
-      <c r="D10" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="13">
+      <c r="D10" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="62">
         <v>0.49930555555555556</v>
       </c>
-      <c r="F10" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="20">
+      <c r="F10" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="51">
         <f>MOD(E10 - C10, 1)</f>
         <v>0.1701388888888889</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="63">
         <v>116</v>
       </c>
-      <c r="I10" s="35">
+      <c r="I10" s="64">
         <f t="shared" si="3"/>
         <v>15.341000000000001</v>
       </c>
-      <c r="J10" s="62" t="b">
+      <c r="J10" s="65" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L10" s="32">
+      <c r="L10" s="56">
         <v>45864</v>
       </c>
-      <c r="M10" s="6" t="str">
+      <c r="M10" s="47" t="str">
         <f t="shared" si="2"/>
         <v>vredu je</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="12">
+      <c r="A11" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="60">
         <v>0.78402777777777777</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="13">
+      <c r="D11" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="62">
         <v>0.91874999999999996</v>
       </c>
-      <c r="F11" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="20">
+      <c r="F11" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="51">
         <f>MOD(E11 - C11, 1)</f>
         <v>0.13472222222222219</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="63">
         <v>190</v>
       </c>
-      <c r="I11" s="35">
+      <c r="I11" s="64">
         <f t="shared" si="3"/>
         <v>25.127500000000001</v>
       </c>
-      <c r="J11" s="62" t="b">
+      <c r="J11" s="65" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L11" s="32">
+      <c r="L11" s="56">
         <v>45864</v>
       </c>
-      <c r="M11" s="6" t="str">
+      <c r="M11" s="47" t="str">
         <f t="shared" si="2"/>
         <v>vredu je</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="12">
+      <c r="A12" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="60">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D12" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="13">
+      <c r="D12" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="62">
         <v>0.37847222222222221</v>
       </c>
-      <c r="F12" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="52">
+      <c r="F12" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="67">
         <f>MOD(E12 - C12, 1)</f>
         <v>0.54513888888888884</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="63">
         <v>256</v>
       </c>
-      <c r="I12" s="35">
+      <c r="I12" s="64">
         <f t="shared" si="3"/>
         <v>33.856000000000002</v>
       </c>
-      <c r="J12" s="62" t="b">
+      <c r="J12" s="65" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K12" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="L12" s="32">
+      <c r="K12" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="L12" s="56">
         <v>45865</v>
       </c>
-      <c r="M12" s="6" t="str">
+      <c r="M12" s="47" t="str">
         <f t="shared" si="2"/>
         <v>vredu je</v>
       </c>
-      <c r="N12" s="53"/>
+      <c r="N12" s="69"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="12">
+      <c r="A13" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="60">
         <v>0.58680555555555558</v>
       </c>
-      <c r="D13" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="13">
+      <c r="D13" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="62">
         <v>0.75416666666666665</v>
       </c>
-      <c r="F13" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="20">
+      <c r="F13" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="51">
         <f t="shared" si="0"/>
         <v>0.16736111111111107</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="63">
         <v>38</v>
       </c>
-      <c r="I13" s="35">
+      <c r="I13" s="64">
         <f t="shared" si="3"/>
         <v>5.0255000000000001</v>
       </c>
-      <c r="J13" s="62" t="b">
+      <c r="J13" s="65" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K13" s="58"/>
-      <c r="L13" s="32">
+      <c r="K13" s="70"/>
+      <c r="L13" s="56">
         <v>45866</v>
       </c>
-      <c r="M13" s="6" t="str">
+      <c r="M13" s="47" t="str">
         <f t="shared" si="2"/>
         <v>vredu je</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="12">
+      <c r="A14" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="60">
         <v>0.77083333333333337</v>
       </c>
-      <c r="D14" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="13">
+      <c r="D14" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="62">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F14" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="20">
+      <c r="F14" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="51">
         <f t="shared" si="0"/>
         <v>2.0833333333333259E-2</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="63">
         <v>30</v>
       </c>
-      <c r="I14" s="35">
+      <c r="I14" s="64">
         <f t="shared" si="3"/>
         <v>3.9675000000000002</v>
       </c>
-      <c r="J14" s="62" t="b">
+      <c r="J14" s="65" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K14" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="L14" s="32">
+      <c r="K14" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14" s="56">
         <v>45866</v>
       </c>
-      <c r="M14" s="6" t="str">
+      <c r="M14" s="47" t="str">
         <f t="shared" si="2"/>
         <v>PAZI</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="12">
+      <c r="A15" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="60">
         <v>0.20694444444444443</v>
       </c>
-      <c r="D15" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="13">
+      <c r="D15" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="62">
         <v>0.45208333333333334</v>
       </c>
-      <c r="F15" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="20">
+      <c r="F15" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="51">
         <f t="shared" si="0"/>
         <v>0.24513888888888891</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="63">
         <v>69</v>
       </c>
-      <c r="I15" s="35">
+      <c r="I15" s="64">
         <f t="shared" si="3"/>
         <v>9.1252500000000012</v>
       </c>
-      <c r="J15" s="62" t="b">
+      <c r="J15" s="65" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L15" s="32">
+      <c r="L15" s="56">
         <v>45868</v>
       </c>
-      <c r="M15" s="6" t="str">
+      <c r="M15" s="47" t="str">
         <f t="shared" si="2"/>
         <v>vredu je</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="12">
+      <c r="A16" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="60">
         <v>0.87916666666666665</v>
       </c>
-      <c r="D16" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="13">
+      <c r="D16" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="62">
         <v>0.96527777777777779</v>
       </c>
-      <c r="F16" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="20">
+      <c r="F16" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="51">
         <f t="shared" si="0"/>
         <v>8.6111111111111138E-2</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="63">
         <v>98</v>
       </c>
-      <c r="I16" s="35">
+      <c r="I16" s="64">
         <f t="shared" si="3"/>
         <v>12.960500000000001</v>
       </c>
-      <c r="J16" s="62" t="b">
+      <c r="J16" s="65" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L16" s="32">
+      <c r="L16" s="56">
         <v>45869</v>
       </c>
-      <c r="M16" s="6" t="str">
+      <c r="M16" s="47" t="str">
         <f t="shared" si="2"/>
         <v>vredu je</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="12">
+      <c r="A17" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="60">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="D17" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="13">
+      <c r="D17" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="62">
         <v>0.15277777777777779</v>
       </c>
-      <c r="F17" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17" s="20">
+      <c r="F17" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="51">
         <f t="shared" si="0"/>
         <v>0.14027777777777778</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="63">
         <v>79</v>
       </c>
-      <c r="I17" s="35">
+      <c r="I17" s="64">
         <f t="shared" si="3"/>
         <v>10.447750000000001</v>
       </c>
-      <c r="J17" s="62" t="b">
+      <c r="J17" s="65" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L17" s="32">
+      <c r="L17" s="56">
         <v>45872</v>
       </c>
-      <c r="M17" s="6" t="str">
+      <c r="M17" s="47" t="str">
         <f t="shared" si="2"/>
         <v>PAZI</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="12">
+      <c r="A18" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="60">
         <v>0.80486111111111114</v>
       </c>
-      <c r="D18" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="13">
+      <c r="D18" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="62">
         <v>0.29444444444444445</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="52">
+      <c r="G18" s="67">
         <f t="shared" si="0"/>
         <v>0.48958333333333326</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="63">
         <v>350</v>
       </c>
-      <c r="I18" s="35">
+      <c r="I18" s="64">
         <f t="shared" si="3"/>
         <v>46.287500000000001</v>
       </c>
-      <c r="J18" s="62" t="b">
+      <c r="J18" s="65" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K18" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="L18" s="32">
+      <c r="K18" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="L18" s="56">
         <v>45873</v>
       </c>
-      <c r="M18" s="6" t="str">
+      <c r="M18" s="47" t="str">
         <f t="shared" si="2"/>
         <v>vredu je</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C19" s="12"/>
-      <c r="E19" s="13"/>
-      <c r="G19" s="20"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="62"/>
-      <c r="L19" s="32"/>
+      <c r="C19" s="60"/>
+      <c r="E19" s="62"/>
+      <c r="G19" s="51"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="65"/>
+      <c r="L19" s="56"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C20" s="12"/>
-      <c r="E20" s="13"/>
-      <c r="G20" s="20"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="62"/>
-      <c r="L20" s="32"/>
+      <c r="C20" s="60"/>
+      <c r="E20" s="62"/>
+      <c r="G20" s="51"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="65"/>
+      <c r="L20" s="56"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C21" s="12"/>
-      <c r="E21" s="13"/>
-      <c r="G21" s="20"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="62"/>
-      <c r="L21" s="32"/>
+      <c r="C21" s="60"/>
+      <c r="E21" s="62"/>
+      <c r="G21" s="51"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="65"/>
+      <c r="L21" s="56"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="12">
+      <c r="A22" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="60">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="62">
         <v>0.2638888888888889</v>
       </c>
-      <c r="F22" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="G22" s="20">
+      <c r="F22" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="51">
         <f t="shared" si="0"/>
         <v>0.18055555555555558</v>
       </c>
-      <c r="I22" s="119">
+      <c r="I22" s="57">
         <v>337.1</v>
       </c>
-      <c r="J22" s="121" t="b">
+      <c r="J22" s="58" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="K22" s="113" t="s">
-        <v>43</v>
-      </c>
-      <c r="L22" s="32">
+      <c r="K22" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" s="56">
         <v>45877</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="12">
+      <c r="A23" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="60">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D23" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="13">
+      <c r="D23" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="62">
         <v>0.37152777777777779</v>
       </c>
-      <c r="F23" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="20">
+      <c r="F23" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="51">
         <f t="shared" si="0"/>
         <v>3.8194444444444475E-2</v>
       </c>
-      <c r="I23" s="119"/>
-      <c r="J23" s="121"/>
-      <c r="K23" s="113"/>
-      <c r="L23" s="32">
+      <c r="I23" s="57"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="56">
         <v>45877</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G28" s="15"/>
-    </row>
-    <row r="29" spans="1:13" s="65" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="64"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="68">
+      <c r="G28" s="50"/>
+    </row>
+    <row r="29" spans="1:13" s="76" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="75"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="79">
         <f>SUM(G3:G23)</f>
         <v>3.5</v>
       </c>
-      <c r="H29" s="69" t="s">
-        <v>91</v>
-      </c>
-      <c r="I29" s="71">
+      <c r="H29" s="80" t="s">
+        <v>76</v>
+      </c>
+      <c r="I29" s="81">
         <f>SUM(I3:I28)</f>
         <v>1038.4195000000002</v>
       </c>
-      <c r="J29" s="71">
+      <c r="J29" s="81">
         <f>SUM(IF(J3,0,I3),IF(J5,0,I5),IF(J6,0,I6),IF(J7,0,I7),IF(J8,0,I8),IF(J9,0,I9),IF(J10,0,I10),IF(J11,0,I11),IF(J12,0,I12),IF(J13,0,I13),IF(J14,0,I14),IF(J15,0,I15),IF(J16,0,I16),IF(J17,0,I17),IF(J18,0,I18),IF(J19,0,I19),IF(J20,0,I20),IF(J21,0,I21),IF(J22,0,I22),IF(J23,0,I23),IF(J24,0,I24))</f>
         <v>364.21950000000004</v>
       </c>
-      <c r="K29" s="70"/>
-      <c r="L29" s="64"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="75"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J30" s="62" t="s">
-        <v>90</v>
+      <c r="J30" s="65" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3469,282 +4560,282 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22" style="8" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.7109375" style="8" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="18.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" style="9" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" style="9" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="1:12" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="F1" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="G1" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="H1" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="8"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="74"/>
-      <c r="B2" s="73">
+      <c r="A2" s="83"/>
+      <c r="B2" s="84">
         <v>45852</v>
       </c>
-      <c r="C2" s="73">
+      <c r="C2" s="84">
         <v>45853</v>
       </c>
-      <c r="D2" s="73">
+      <c r="D2" s="84">
         <v>45854</v>
       </c>
-      <c r="E2" s="73">
+      <c r="E2" s="84">
         <v>45855</v>
       </c>
-      <c r="F2" s="73">
+      <c r="F2" s="84">
         <v>45856</v>
       </c>
-      <c r="G2" s="56">
+      <c r="G2" s="85">
         <v>45857</v>
       </c>
-      <c r="H2" s="50">
+      <c r="H2" s="86">
         <v>45858</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
+      <c r="J2" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
     </row>
     <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="11" t="s">
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="88" t="s">
+        <v>84</v>
+      </c>
+      <c r="L3" s="89" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="87"/>
+      <c r="J4" s="91"/>
+    </row>
+    <row r="5" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="92"/>
+      <c r="B5" s="93">
+        <v>45859</v>
+      </c>
+      <c r="C5" s="93">
+        <v>45860</v>
+      </c>
+      <c r="D5" s="94">
+        <v>45861</v>
+      </c>
+      <c r="E5" s="95">
+        <v>45862</v>
+      </c>
+      <c r="F5" s="95">
+        <v>45863</v>
+      </c>
+      <c r="G5" s="95">
+        <v>45864</v>
+      </c>
+      <c r="H5" s="96">
+        <v>45865</v>
+      </c>
+      <c r="I5" s="92"/>
+      <c r="J5" s="97" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="87" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="98"/>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+    </row>
+    <row r="8" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="92"/>
+      <c r="B8" s="99">
+        <v>45866</v>
+      </c>
+      <c r="C8" s="99">
+        <v>45867</v>
+      </c>
+      <c r="D8" s="99">
+        <v>45868</v>
+      </c>
+      <c r="E8" s="99">
+        <v>45869</v>
+      </c>
+      <c r="F8" s="99">
+        <v>45870</v>
+      </c>
+      <c r="G8" s="99">
+        <v>45871</v>
+      </c>
+      <c r="H8" s="99">
+        <v>45872</v>
+      </c>
+      <c r="I8" s="100"/>
+    </row>
+    <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="L3" s="47" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="11"/>
-      <c r="J4" s="48"/>
-    </row>
-    <row r="5" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="37"/>
-      <c r="B5" s="38">
-        <v>45859</v>
-      </c>
-      <c r="C5" s="38">
-        <v>45860</v>
-      </c>
-      <c r="D5" s="45">
-        <v>45861</v>
-      </c>
-      <c r="E5" s="46">
-        <v>45862</v>
-      </c>
-      <c r="F5" s="46">
-        <v>45863</v>
-      </c>
-      <c r="G5" s="46">
-        <v>45864</v>
-      </c>
-      <c r="H5" s="51">
-        <v>45865</v>
-      </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="41" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="C9" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="77"/>
-    </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="37"/>
-      <c r="B8" s="40">
-        <v>45866</v>
-      </c>
-      <c r="C8" s="40">
-        <v>45867</v>
-      </c>
-      <c r="D8" s="40">
-        <v>45868</v>
-      </c>
-      <c r="E8" s="40">
-        <v>45869</v>
-      </c>
-      <c r="F8" s="40">
-        <v>45870</v>
-      </c>
-      <c r="G8" s="40">
-        <v>45871</v>
-      </c>
-      <c r="H8" s="40">
-        <v>45872</v>
-      </c>
-      <c r="I8" s="42"/>
-    </row>
-    <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>55</v>
+      <c r="D9" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="101" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="37"/>
-      <c r="B11" s="76">
+      <c r="A11" s="92"/>
+      <c r="B11" s="102">
         <v>45873</v>
       </c>
-      <c r="C11" s="78">
+      <c r="C11" s="103">
         <v>45874</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="99">
         <v>45875</v>
       </c>
-      <c r="E11" s="76">
+      <c r="E11" s="102">
         <v>45876</v>
       </c>
-      <c r="F11" s="75">
+      <c r="F11" s="104">
         <v>45877</v>
       </c>
-      <c r="G11" s="75">
+      <c r="G11" s="104">
         <v>45878</v>
       </c>
-      <c r="H11" s="72">
+      <c r="H11" s="105">
         <v>45879</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="10" t="s">
+      <c r="B12" s="101" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="F12" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
     </row>
     <row r="14" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="44"/>
-      <c r="B14" s="43">
+      <c r="A14" s="106"/>
+      <c r="B14" s="107">
         <v>45880</v>
       </c>
-      <c r="C14" s="43">
+      <c r="C14" s="107">
         <v>45881</v>
       </c>
-      <c r="D14" s="39">
+      <c r="D14" s="108">
         <v>45882</v>
       </c>
     </row>

--- a/Kitajska.xlsx
+++ b/Kitajska.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jure\Documents\Zuzelko\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F830F89-2F97-46E4-BAAD-60CDA6660841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFACCCC-2A67-45FF-8CC2-671E7EA0D895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7973F123-3AAD-47CF-BA65-2A019CE80CD0}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="245">
   <si>
     <t>Kitajska 2025</t>
   </si>
@@ -195,24 +195,9 @@
     <t>/</t>
   </si>
   <si>
-    <t>Tongfu Inn</t>
-  </si>
-  <si>
-    <t>taksi do prenočišča</t>
-  </si>
-  <si>
     <t>K688</t>
   </si>
   <si>
-    <t>D5117</t>
-  </si>
-  <si>
-    <t>G4862</t>
-  </si>
-  <si>
-    <t>Xian North</t>
-  </si>
-  <si>
     <t>D20</t>
   </si>
   <si>
@@ -234,9 +219,6 @@
     <t>Z162</t>
   </si>
   <si>
-    <t>K1374</t>
-  </si>
-  <si>
     <t>Huaihua</t>
   </si>
   <si>
@@ -309,12 +291,6 @@
     <t>27-28.7</t>
   </si>
   <si>
-    <t>sleeper kunming -&gt; zhangjiajie</t>
-  </si>
-  <si>
-    <t>30-31.7</t>
-  </si>
-  <si>
     <t>Chongqin</t>
   </si>
   <si>
@@ -333,9 +309,6 @@
     <t>Cena/noč/osebo</t>
   </si>
   <si>
-    <t>31.7-2.8</t>
-  </si>
-  <si>
     <t>https://www.booking.com/hotel/cn/chengdu-lazybones-hostel-templeside-poshpacker.en-gb.html</t>
   </si>
   <si>
@@ -688,13 +661,127 @@
   </si>
   <si>
     <t>4€/dan</t>
+  </si>
+  <si>
+    <t>K4538</t>
+  </si>
+  <si>
+    <t>Chongqing West</t>
+  </si>
+  <si>
+    <t>30-2.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avto </t>
+  </si>
+  <si>
+    <t>K143</t>
+  </si>
+  <si>
+    <t>Chengdu West</t>
+  </si>
+  <si>
+    <t>C3406</t>
+  </si>
+  <si>
+    <t>*zelo izven</t>
+  </si>
+  <si>
+    <t>sleeper kunming -&gt; Huaihua</t>
+  </si>
+  <si>
+    <t>Huaihua South</t>
+  </si>
+  <si>
+    <t>PRESTOP; DRUGA POSTAJA</t>
+  </si>
+  <si>
+    <t>Znani taksiji</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
+    <t>Mesto</t>
+  </si>
+  <si>
+    <t>Znamenitosti</t>
+  </si>
+  <si>
+    <t>Let</t>
+  </si>
+  <si>
+    <t>Shanghai &amp; Kunming</t>
+  </si>
+  <si>
+    <t>Heaven's gate, Furong ancient city</t>
+  </si>
+  <si>
+    <t>National park, Glass bridge</t>
+  </si>
+  <si>
+    <t>Three pagodas, Erhai Lake</t>
+  </si>
+  <si>
+    <t>Tor</t>
+  </si>
+  <si>
+    <t>Pon</t>
+  </si>
+  <si>
+    <t>Ned</t>
+  </si>
+  <si>
+    <t>Sob</t>
+  </si>
+  <si>
+    <t>Sre</t>
+  </si>
+  <si>
+    <t>Čet</t>
+  </si>
+  <si>
+    <t>Pet</t>
+  </si>
+  <si>
+    <t>Thatched cottage museum</t>
+  </si>
+  <si>
+    <t>8:00-18:30</t>
+  </si>
+  <si>
+    <t>Panda research, Thatched cottage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marriage market, </t>
+  </si>
+  <si>
+    <t>Jade dragon mountain, Nightlife z Lanom</t>
+  </si>
+  <si>
+    <t>Longjing Tea, Yunqi bamboo forest</t>
+  </si>
+  <si>
+    <t>Terracotta, citywalls, muslim quarter</t>
+  </si>
+  <si>
+    <t>Mount Hua</t>
+  </si>
+  <si>
+    <t>Intenziteta</t>
+  </si>
+  <si>
+    <t>G6438</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;_);[Red]\(#,##0\ &quot;€&quot;\)"/>
     <numFmt numFmtId="44" formatCode="_ * #,##0.00_)\ &quot;€&quot;_ ;_ * \(#,##0.00\)\ &quot;€&quot;_ ;_ * &quot;-&quot;??_)\ &quot;€&quot;_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="[$]hh:mm;@" x16r2:formatCode16="[$-en-SI,1]hh:mm;@"/>
@@ -703,6 +790,7 @@
     <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="168" formatCode="_ * #,##0_)\ [$CNY]_ ;_ * \(#,##0\)\ [$CNY]_ ;_ * &quot;-&quot;_)\ [$CNY]_ ;_ @_ "/>
     <numFmt numFmtId="169" formatCode="#,##0.0000\ &quot;€&quot;"/>
+    <numFmt numFmtId="170" formatCode="0.00000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -868,7 +956,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="54">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -1509,6 +1597,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1519,7 +1662,7 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1530,13 +1673,7 @@
     <xf numFmtId="6" fontId="12" fillId="3" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="14" fillId="5" borderId="0" xfId="5" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="12" fillId="3" borderId="49" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="8" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="8" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1562,12 +1699,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1585,18 +1716,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1617,23 +1736,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1644,14 +1751,8 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="6" borderId="22" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1750,8 +1851,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="6" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1769,13 +1868,88 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="6" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="53" xfId="5" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2175,128 +2349,426 @@
   <sheetPr codeName="Sheet1">
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="C3:S22"/>
+  <dimension ref="C3:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="9"/>
-    <col min="3" max="3" width="27.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="9" customWidth="1"/>
-    <col min="7" max="11" width="9.140625" style="9"/>
-    <col min="12" max="12" width="10" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="9.140625" style="9"/>
-    <col min="16" max="16" width="9.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="2" width="9.140625" style="8"/>
+    <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="59"/>
+    <col min="8" max="8" width="9.140625" style="8"/>
+    <col min="9" max="9" width="19.5703125" style="47" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.140625" style="119" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" style="56" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="9.140625" style="8"/>
+    <col min="16" max="16" width="9.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
     </row>
     <row r="4" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" spans="3:19" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="11" t="s">
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="H4" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="I4" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="J4" s="120" t="s">
+        <v>222</v>
+      </c>
+      <c r="K4" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="56" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="3:19" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="12">
-        <v>45693</v>
-      </c>
-      <c r="E5" s="13">
+      <c r="D5" s="10">
+        <v>45705</v>
+      </c>
+      <c r="E5" s="11">
         <f ca="1">NOW()</f>
-        <v>45693.079130324077</v>
-      </c>
-    </row>
-    <row r="6" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C6" s="14"/>
-    </row>
-    <row r="7" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C7" s="9" t="s">
+        <v>45716.568900347222</v>
+      </c>
+      <c r="G5" s="121" t="s">
+        <v>231</v>
+      </c>
+      <c r="H5" s="118">
+        <v>45857</v>
+      </c>
+      <c r="I5" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="119" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="L5" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="12"/>
+      <c r="G6" s="121" t="s">
+        <v>230</v>
+      </c>
+      <c r="H6" s="118">
+        <v>45858</v>
+      </c>
+      <c r="I6" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="119" t="s">
+        <v>238</v>
+      </c>
+      <c r="L6" s="56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C8" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" s="16">
+      <c r="D7" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="H7" s="118">
+        <v>45859</v>
+      </c>
+      <c r="I7" s="47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="14">
         <f>Stroški!D9</f>
-        <v>1838.1067000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C9" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="P9" s="16"/>
-      <c r="S9" s="16"/>
-    </row>
-    <row r="10" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C10" s="20"/>
-      <c r="P10" s="16"/>
-    </row>
-    <row r="11" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C11" s="17"/>
-      <c r="P11" s="16"/>
-      <c r="S11" s="16"/>
-    </row>
-    <row r="12" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C12" s="17"/>
-      <c r="P12" s="21"/>
-    </row>
-    <row r="13" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C13" s="20"/>
-    </row>
-    <row r="14" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C14" s="20"/>
-    </row>
-    <row r="15" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C15" s="17"/>
-      <c r="P15" s="16"/>
-    </row>
-    <row r="16" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C16" s="14"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="17"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="22"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="23"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="24"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="23"/>
+        <v>1892.0892000000003</v>
+      </c>
+      <c r="G8" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="H8" s="118">
+        <v>45860</v>
+      </c>
+      <c r="I8" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="119" t="s">
+        <v>240</v>
+      </c>
+      <c r="L8" s="56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="59" t="s">
+        <v>232</v>
+      </c>
+      <c r="H9" s="118">
+        <v>45861</v>
+      </c>
+      <c r="I9" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="P9" s="14"/>
+      <c r="S9" s="14"/>
+    </row>
+    <row r="10" spans="3:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="18"/>
+      <c r="G10" s="59" t="s">
+        <v>233</v>
+      </c>
+      <c r="H10" s="118">
+        <v>45862</v>
+      </c>
+      <c r="I10" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="14"/>
+    </row>
+    <row r="11" spans="3:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="15"/>
+      <c r="G11" s="59" t="s">
+        <v>234</v>
+      </c>
+      <c r="H11" s="118">
+        <v>45863</v>
+      </c>
+      <c r="I11" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="119" t="s">
+        <v>239</v>
+      </c>
+      <c r="L11" s="56">
+        <v>4</v>
+      </c>
+      <c r="P11" s="14"/>
+      <c r="S11" s="14"/>
+    </row>
+    <row r="12" spans="3:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="15"/>
+      <c r="G12" s="121" t="s">
+        <v>231</v>
+      </c>
+      <c r="H12" s="118">
+        <v>45864</v>
+      </c>
+      <c r="I12" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="119" t="s">
+        <v>227</v>
+      </c>
+      <c r="L12" s="56">
+        <v>2</v>
+      </c>
+      <c r="P12" s="19"/>
+    </row>
+    <row r="13" spans="3:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="18"/>
+      <c r="G13" s="121" t="s">
+        <v>230</v>
+      </c>
+      <c r="H13" s="118">
+        <v>45865</v>
+      </c>
+      <c r="I13" s="47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="3:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="18"/>
+      <c r="G14" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="H14" s="118">
+        <v>45866</v>
+      </c>
+      <c r="I14" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="119" t="s">
+        <v>225</v>
+      </c>
+      <c r="L14" s="56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="3:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="15"/>
+      <c r="G15" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="H15" s="118">
+        <v>45867</v>
+      </c>
+      <c r="I15" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" s="119" t="s">
+        <v>226</v>
+      </c>
+      <c r="L15" s="56">
+        <v>4</v>
+      </c>
+      <c r="P15" s="14"/>
+    </row>
+    <row r="16" spans="3:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="12"/>
+      <c r="G16" s="59" t="s">
+        <v>232</v>
+      </c>
+      <c r="H16" s="118">
+        <v>45868</v>
+      </c>
+      <c r="I16" s="47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="15"/>
+      <c r="G17" s="59" t="s">
+        <v>233</v>
+      </c>
+      <c r="H17" s="118">
+        <v>45869</v>
+      </c>
+      <c r="I17" s="47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="59" t="s">
+        <v>234</v>
+      </c>
+      <c r="H18" s="118">
+        <v>45870</v>
+      </c>
+      <c r="I18" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18" s="119" t="s">
+        <v>237</v>
+      </c>
+      <c r="L18" s="56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="20"/>
+      <c r="G19" s="121" t="s">
+        <v>231</v>
+      </c>
+      <c r="H19" s="118">
+        <v>45871</v>
+      </c>
+      <c r="I19" s="47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="21"/>
+      <c r="G20" s="121" t="s">
+        <v>230</v>
+      </c>
+      <c r="H20" s="118">
+        <v>45872</v>
+      </c>
+      <c r="I20" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" s="119" t="s">
+        <v>241</v>
+      </c>
+      <c r="L20" s="56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="22"/>
+      <c r="G21" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="H21" s="118">
+        <v>45873</v>
+      </c>
+      <c r="I21" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" s="119" t="s">
+        <v>242</v>
+      </c>
+      <c r="L21" s="56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="21"/>
+      <c r="G22" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="H22" s="118">
+        <v>45874</v>
+      </c>
+      <c r="I22" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="L22" s="56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="59" t="s">
+        <v>232</v>
+      </c>
+      <c r="H23" s="118">
+        <v>45875</v>
+      </c>
+      <c r="I23" s="47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G24" s="59" t="s">
+        <v>233</v>
+      </c>
+      <c r="H24" s="118">
+        <v>45876</v>
+      </c>
+      <c r="I24" s="47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G25" s="59" t="s">
+        <v>234</v>
+      </c>
+      <c r="H25" s="118">
+        <v>45877</v>
+      </c>
+      <c r="I25" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25" s="56">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C3:E4"/>
   </mergeCells>
+  <conditionalFormatting sqref="L5:L25">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="4Rating">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1" gte="0"/>
+        <cfvo type="num" val="3" gte="0"/>
+        <cfvo type="num" val="5" gte="0"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2309,351 +2781,343 @@
   <dimension ref="A2:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="9"/>
-    <col min="3" max="3" width="11.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="9"/>
-    <col min="8" max="8" width="10.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="100.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="9.140625" style="9"/>
-    <col min="13" max="13" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="12.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="8"/>
+    <col min="3" max="3" width="11.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="8"/>
+    <col min="8" max="8" width="10.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="100.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="9.140625" style="8"/>
+    <col min="13" max="13" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H2" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27" t="s">
+      <c r="H2" s="124" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="125"/>
+      <c r="J2" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="M2" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="N2" s="29" t="s">
-        <v>93</v>
+      <c r="L2" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="N2" s="25" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C3" s="9" t="s">
-        <v>115</v>
+      <c r="C3" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="D3" s="5">
         <v>36</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="I3" s="31" t="s">
+      <c r="G3" s="26"/>
+      <c r="H3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="K3" s="16">
+      <c r="K3" s="14">
         <v>131</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="8">
         <v>3</v>
       </c>
-      <c r="M3" s="32">
+      <c r="M3" s="28">
         <f>K3/L3/5</f>
         <v>8.7333333333333325</v>
       </c>
-      <c r="N3" s="116" t="s">
-        <v>102</v>
+      <c r="N3" s="100" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C4" s="9" t="s">
-        <v>61</v>
+      <c r="C4" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="D4" s="4">
         <f>M12</f>
-        <v>126.2</v>
-      </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="9" t="s">
+        <v>134.19999999999999</v>
+      </c>
+      <c r="G4" s="26"/>
+      <c r="H4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="K4" s="16">
+      <c r="I4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K4" s="14">
         <v>0</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="8">
         <v>4</v>
       </c>
-      <c r="M4" s="32">
+      <c r="M4" s="28">
         <f t="shared" ref="M4:M11" si="0">K4/L4/5</f>
         <v>0</v>
       </c>
-      <c r="N4" s="30"/>
+      <c r="N4" s="26"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D5" s="4">
         <f>Prevozi!I29</f>
-        <v>1038.4195000000002</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="K5" s="16">
+        <v>1088.4100000000003</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="G5" s="26"/>
+      <c r="H5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K5" s="14">
         <v>0</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="8">
         <v>1</v>
       </c>
-      <c r="M5" s="32">
+      <c r="M5" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N5" s="30"/>
+      <c r="N5" s="26"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="6">
         <f>20*L12</f>
         <v>360</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="9" t="s">
+      <c r="G6" s="26"/>
+      <c r="H6" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="K6" s="16">
+      <c r="I6" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" s="14">
         <v>106</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="8">
         <v>2</v>
       </c>
-      <c r="M6" s="32">
+      <c r="M6" s="28">
         <f t="shared" si="0"/>
         <v>10.6</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D7" s="6">
         <f>Zanimivosti!E27*B14</f>
-        <v>277.48719999999997</v>
-      </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="K7" s="16">
-        <v>76</v>
-      </c>
-      <c r="L7" s="9">
-        <v>1</v>
-      </c>
-      <c r="M7" s="32">
+        <v>273.47919999999999</v>
+      </c>
+      <c r="G7" s="26"/>
+      <c r="H7" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="K7" s="14">
+        <v>226</v>
+      </c>
+      <c r="L7" s="8">
+        <v>3</v>
+      </c>
+      <c r="M7" s="28">
         <f t="shared" si="0"/>
-        <v>15.2</v>
+        <v>15.066666666666666</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="9" t="s">
-        <v>152</v>
+      <c r="C8" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="D8" s="6">
         <v>70</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="9" t="s">
+      <c r="E8" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G8" s="26"/>
+      <c r="H8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="K8" s="16">
-        <v>110</v>
-      </c>
-      <c r="L8" s="9">
+      <c r="I8" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" s="14"/>
+      <c r="L8" s="8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="28"/>
+      <c r="N8" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="30">
+        <f>SUM(D3:D7)</f>
+        <v>1892.0892000000003</v>
+      </c>
+      <c r="G9" s="26"/>
+      <c r="H9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" s="14">
+        <v>112</v>
+      </c>
+      <c r="L9" s="8">
         <v>2</v>
       </c>
-      <c r="M8" s="32">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="34">
-        <f>SUM(D3:D7)</f>
-        <v>1838.1067000000003</v>
-      </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="K9" s="16">
-        <v>112</v>
-      </c>
-      <c r="L9" s="9">
-        <v>2</v>
-      </c>
-      <c r="M9" s="32">
+      <c r="M9" s="28">
         <f t="shared" si="0"/>
         <v>11.2</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G10" s="30"/>
-      <c r="H10" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="K10" s="16">
+      <c r="G10" s="26"/>
+      <c r="H10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" s="14">
         <v>0</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="8">
         <v>1</v>
       </c>
-      <c r="M10" s="32">
+      <c r="M10" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N10" s="30"/>
+      <c r="N10" s="26"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="35" t="s">
-        <v>109</v>
+      <c r="C11" s="31" t="s">
+        <v>100</v>
       </c>
       <c r="D11" s="7">
         <f>675</f>
         <v>675</v>
       </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="9" t="s">
+      <c r="G11" s="26"/>
+      <c r="H11" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I11" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="K11" s="16">
+      <c r="I11" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="L11" s="9">
+      <c r="K11" s="14">
+        <v>96</v>
+      </c>
+      <c r="L11" s="8">
         <v>2</v>
       </c>
-      <c r="M11" s="32">
+      <c r="M11" s="28">
         <f t="shared" si="0"/>
         <v>9.6</v>
       </c>
-      <c r="N11" s="117" t="s">
-        <v>107</v>
+      <c r="N11" s="101" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J12" s="33"/>
-      <c r="K12" s="34">
+      <c r="J12" s="29"/>
+      <c r="K12" s="30">
         <f>SUM(K3:K11)</f>
-        <v>631</v>
-      </c>
-      <c r="L12" s="33">
+        <v>671</v>
+      </c>
+      <c r="L12" s="29">
         <f>SUM(L3:L11)</f>
         <v>18</v>
       </c>
-      <c r="M12" s="36">
+      <c r="M12" s="32">
         <f>K12/5</f>
-        <v>126.2</v>
+        <v>134.19999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M13" s="32">
+      <c r="M13" s="28">
         <f>M12/L12</f>
-        <v>7.0111111111111111</v>
+        <v>7.4555555555555548</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="B14" s="38">
+      <c r="A14" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="34">
         <f>0.1336</f>
         <v>0.1336</v>
       </c>
@@ -2678,6 +3142,7 @@
     <hyperlink ref="I6" r:id="rId1" xr:uid="{7BFED6F3-B255-4064-96DD-A36C12149613}"/>
     <hyperlink ref="I3" r:id="rId2" xr:uid="{1D79D774-64B9-4F55-933E-AB4D4B2A31B7}"/>
     <hyperlink ref="I11" r:id="rId3" xr:uid="{370BE46D-34E3-4E41-B264-34947293E8DD}"/>
+    <hyperlink ref="I7" r:id="rId4" xr:uid="{A249CB44-B56B-4C49-B81A-2FBD4AF04AC7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2688,929 +3153,880 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B3:Q34"/>
+  <dimension ref="B3:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="9" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="9" customWidth="1"/>
-    <col min="11" max="11" width="34.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" style="9"/>
-    <col min="15" max="15" width="24.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="6.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="34.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="8"/>
+    <col min="14" max="14" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="109" t="s">
+      <c r="C4" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="119">
+      <c r="E4" s="103">
         <f>SUM(E5:E13)</f>
         <v>615</v>
       </c>
-      <c r="G4" s="109" t="s">
+      <c r="G4" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="119">
+      <c r="I4" s="103">
         <f>SUM(I5:I10)</f>
         <v>210</v>
       </c>
-      <c r="K4" s="109" t="s">
+      <c r="K4" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="119">
+      <c r="M4" s="103">
         <f>SUM(M5:M8)</f>
         <v>771</v>
       </c>
-      <c r="O4" s="109" t="s">
+      <c r="O4" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="Q4" s="119">
+      <c r="Q4" s="103">
         <f>SUM(Q5:Q11)</f>
         <v>455</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="112">
+      <c r="B5" s="96">
         <v>1</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="97" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="106">
+        <v>30</v>
+      </c>
+      <c r="F5" s="96">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" s="97" t="s">
+        <v>132</v>
+      </c>
+      <c r="I5" s="102">
+        <v>10</v>
+      </c>
+      <c r="J5" s="96">
+        <v>1</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="L5" s="97" t="s">
+        <v>154</v>
+      </c>
+      <c r="M5" s="99">
+        <v>248</v>
+      </c>
+      <c r="N5" s="96">
+        <v>1</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="97" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q5" s="102">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="96">
+        <v>2</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="97" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="102" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="96">
+        <v>2</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="H6" s="97" t="s">
+        <v>132</v>
+      </c>
+      <c r="I6" s="102">
+        <v>40</v>
+      </c>
+      <c r="J6" s="96">
+        <v>2</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="L6" s="97" t="s">
+        <v>171</v>
+      </c>
+      <c r="M6" s="102">
+        <v>168</v>
+      </c>
+      <c r="N6" s="96">
+        <v>2</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="P6" s="97" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q6" s="102">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="96">
+        <v>3</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="97" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="99">
+        <v>200</v>
+      </c>
+      <c r="F7" s="96">
+        <v>3</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H7" s="97" t="s">
+        <v>135</v>
+      </c>
+      <c r="I7" s="102">
+        <v>130</v>
+      </c>
+      <c r="J7" s="96">
+        <v>3</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="L7" s="97" t="s">
+        <v>151</v>
+      </c>
+      <c r="M7" s="102">
+        <v>275</v>
+      </c>
+      <c r="N7" s="96">
+        <v>3</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="P7" s="97" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q7" s="99">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="96">
+        <v>4</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="97" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="105" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" s="96">
+        <v>4</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="H8" s="97" t="s">
+        <v>110</v>
+      </c>
+      <c r="I8" s="99" t="s">
+        <v>111</v>
+      </c>
+      <c r="J8" s="96">
+        <v>4</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="L8" s="97" t="s">
+        <v>173</v>
+      </c>
+      <c r="M8" s="102">
+        <v>80</v>
+      </c>
+      <c r="N8" s="96">
+        <v>4</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="P8" s="97" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q8" s="107" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="96">
+        <v>5</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="97" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="102" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="96">
+        <v>5</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H9" s="97" t="s">
+        <v>132</v>
+      </c>
+      <c r="I9" s="99">
+        <v>30</v>
+      </c>
+      <c r="N9" s="96">
+        <v>5</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="P9" s="97" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q9" s="99">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="96">
+        <v>6</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D5" s="113" t="s">
-        <v>117</v>
-      </c>
-      <c r="E5" s="122">
-        <v>30</v>
-      </c>
-      <c r="F5" s="112">
-        <v>1</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="H5" s="113" t="s">
-        <v>141</v>
-      </c>
-      <c r="I5" s="118">
+      <c r="D10" s="97" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="102">
+        <v>70</v>
+      </c>
+      <c r="F10" s="96">
+        <v>6</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10" s="97" t="s">
+        <v>139</v>
+      </c>
+      <c r="I10" s="102" t="s">
+        <v>111</v>
+      </c>
+      <c r="N10" s="96">
+        <v>6</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="P10" s="97" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q10" s="102">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="96">
+        <v>7</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="97" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="104">
+        <v>180</v>
+      </c>
+      <c r="K11" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="112">
-        <v>1</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="L5" s="113" t="s">
-        <v>163</v>
-      </c>
-      <c r="M5" s="115">
-        <v>248</v>
-      </c>
-      <c r="N5" s="112">
-        <v>1</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="113" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q5" s="118">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="112">
-        <v>2</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="113" t="s">
-        <v>119</v>
-      </c>
-      <c r="E6" s="118" t="s">
-        <v>120</v>
-      </c>
-      <c r="F6" s="112">
-        <v>2</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="H6" s="113" t="s">
-        <v>141</v>
-      </c>
-      <c r="I6" s="118">
-        <v>40</v>
-      </c>
-      <c r="J6" s="112">
-        <v>2</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="L6" s="113" t="s">
-        <v>180</v>
-      </c>
-      <c r="M6" s="118">
-        <v>168</v>
-      </c>
-      <c r="N6" s="112">
-        <v>2</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="P6" s="113" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q6" s="118">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="112">
-        <v>3</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D7" s="113" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" s="115">
-        <v>200</v>
-      </c>
-      <c r="F7" s="112">
-        <v>3</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="H7" s="113" t="s">
-        <v>144</v>
-      </c>
-      <c r="I7" s="118">
-        <v>130</v>
-      </c>
-      <c r="J7" s="112">
-        <v>3</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="L7" s="113" t="s">
-        <v>160</v>
-      </c>
-      <c r="M7" s="118">
-        <v>275</v>
-      </c>
-      <c r="N7" s="112">
-        <v>3</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="P7" s="113" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q7" s="115">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="112">
-        <v>4</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="113" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" s="121" t="s">
-        <v>158</v>
-      </c>
-      <c r="F8" s="112">
-        <v>4</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="H8" s="113" t="s">
-        <v>119</v>
-      </c>
-      <c r="I8" s="115" t="s">
-        <v>120</v>
-      </c>
-      <c r="J8" s="112">
-        <v>4</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="L8" s="113" t="s">
-        <v>182</v>
-      </c>
-      <c r="M8" s="118">
-        <v>80</v>
-      </c>
-      <c r="N8" s="112">
-        <v>4</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="P8" s="113" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q8" s="123" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="112">
-        <v>5</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="113" t="s">
-        <v>124</v>
-      </c>
-      <c r="E9" s="118" t="s">
-        <v>120</v>
-      </c>
-      <c r="F9" s="112">
-        <v>5</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="H9" s="113" t="s">
-        <v>141</v>
-      </c>
-      <c r="I9" s="115">
-        <v>30</v>
-      </c>
-      <c r="N9" s="112">
-        <v>5</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="P9" s="113" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q9" s="115">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="112">
-        <v>6</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10" s="113" t="s">
-        <v>129</v>
-      </c>
-      <c r="E10" s="118">
-        <v>70</v>
-      </c>
-      <c r="F10" s="112">
-        <v>6</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="H10" s="113" t="s">
-        <v>148</v>
-      </c>
-      <c r="I10" s="118" t="s">
-        <v>120</v>
-      </c>
-      <c r="N10" s="112">
-        <v>6</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="P10" s="113" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q10" s="118">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="112">
-        <v>7</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" s="113" t="s">
-        <v>128</v>
-      </c>
-      <c r="E11" s="120">
-        <v>180</v>
-      </c>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="K11" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="M11" s="119">
+      <c r="M11" s="103">
         <f>SUM(M12:M18)</f>
         <v>170</v>
       </c>
-      <c r="N11" s="112">
+      <c r="N11" s="96">
         <v>7</v>
       </c>
-      <c r="O11" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="P11" s="113" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q11" s="118" t="s">
-        <v>120</v>
+      <c r="O11" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="P11" s="97" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q11" s="102" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="112">
+      <c r="B12" s="96">
         <v>8</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D12" s="113" t="s">
+      <c r="C12" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="97" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="99">
+        <v>135</v>
+      </c>
+      <c r="J12" s="96">
+        <v>1</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="L12" s="97" t="s">
         <v>139</v>
       </c>
-      <c r="E12" s="115">
-        <v>135</v>
-      </c>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="J12" s="112">
-        <v>1</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="L12" s="113" t="s">
-        <v>148</v>
-      </c>
-      <c r="M12" s="118" t="s">
-        <v>120</v>
+      <c r="M12" s="102" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="112">
+      <c r="B13" s="96">
         <v>9</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D13" s="113" t="s">
-        <v>138</v>
-      </c>
-      <c r="E13" s="118" t="s">
-        <v>120</v>
-      </c>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="J13" s="112">
+      <c r="C13" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="97" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="102" t="s">
+        <v>111</v>
+      </c>
+      <c r="J13" s="96">
         <v>2</v>
       </c>
-      <c r="K13" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="L13" s="113" t="s">
-        <v>165</v>
-      </c>
-      <c r="M13" s="123" t="s">
-        <v>167</v>
+      <c r="K13" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="L13" s="97" t="s">
+        <v>156</v>
+      </c>
+      <c r="M13" s="107" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G14" s="109" t="s">
+      <c r="G14" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="119">
+      <c r="I14" s="103">
         <f>SUM(I15:I17)</f>
         <v>105</v>
       </c>
-      <c r="J14" s="112">
+      <c r="J14" s="96">
         <v>3</v>
       </c>
-      <c r="K14" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="L14" s="113" t="s">
-        <v>169</v>
-      </c>
-      <c r="M14" s="115" t="s">
-        <v>120</v>
-      </c>
-      <c r="O14" s="109" t="s">
+      <c r="K14" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="L14" s="97" t="s">
+        <v>160</v>
+      </c>
+      <c r="M14" s="99" t="s">
+        <v>111</v>
+      </c>
+      <c r="O14" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="Q14" s="119">
+      <c r="Q14" s="103">
         <f>SUM(Q15:Q23)</f>
         <v>201</v>
       </c>
     </row>
     <row r="15" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="110"/>
-      <c r="C15" s="111" t="s">
+      <c r="C15" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="119">
+      <c r="E15" s="103">
         <f>SUM(E16:E18)</f>
         <v>60</v>
       </c>
-      <c r="F15" s="112">
+      <c r="F15" s="96">
         <v>1</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="H15" s="113" t="s">
-        <v>148</v>
-      </c>
-      <c r="I15" s="118">
+      <c r="G15" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="H15" s="97" t="s">
+        <v>139</v>
+      </c>
+      <c r="I15" s="102">
         <v>30</v>
       </c>
-      <c r="J15" s="112">
+      <c r="J15" s="96">
         <v>4</v>
       </c>
-      <c r="K15" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="L15" s="113" t="s">
+      <c r="K15" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="L15" s="97" t="s">
+        <v>161</v>
+      </c>
+      <c r="M15" s="102" t="s">
+        <v>111</v>
+      </c>
+      <c r="N15" s="96">
+        <v>1</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="P15" s="97" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q15" s="102">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="96">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="97" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="99">
+        <v>50</v>
+      </c>
+      <c r="F16" s="96">
+        <v>2</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="H16" s="97" t="s">
+        <v>139</v>
+      </c>
+      <c r="I16" s="102" t="s">
+        <v>111</v>
+      </c>
+      <c r="J16" s="96">
+        <v>5</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="L16" s="97" t="s">
+        <v>126</v>
+      </c>
+      <c r="M16" s="102">
+        <v>70</v>
+      </c>
+      <c r="N16" s="96">
+        <v>2</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="P16" s="97" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q16" s="107" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="96">
+        <v>2</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="102" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="96">
+        <v>3</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="H17" s="97" t="s">
+        <v>126</v>
+      </c>
+      <c r="I17" s="102">
+        <v>75</v>
+      </c>
+      <c r="J17" s="96">
+        <v>6</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="L17" s="97" t="s">
+        <v>156</v>
+      </c>
+      <c r="M17" s="102">
+        <v>10</v>
+      </c>
+      <c r="N17" s="96">
+        <v>3</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="P17" s="108" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q17" s="102">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="96">
+        <v>3</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="98" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" s="102">
+        <v>10</v>
+      </c>
+      <c r="J18" s="96">
+        <v>7</v>
+      </c>
+      <c r="K18" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="M15" s="118" t="s">
-        <v>120</v>
-      </c>
-      <c r="N15" s="112">
-        <v>1</v>
-      </c>
-      <c r="O15" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="P15" s="113" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q15" s="118">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="112">
-        <v>1</v>
-      </c>
-      <c r="C16" s="110" t="s">
-        <v>130</v>
-      </c>
-      <c r="D16" s="113" t="s">
-        <v>133</v>
-      </c>
-      <c r="E16" s="115">
-        <v>50</v>
-      </c>
-      <c r="F16" s="112">
+      <c r="L18" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="M18" s="102">
+        <v>90</v>
+      </c>
+      <c r="N18" s="96">
+        <v>4</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="P18" s="97" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q18" s="99">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N19" s="96">
+        <v>5</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="P19" s="97" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q19" s="102">
         <v>2</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="H16" s="113" t="s">
-        <v>148</v>
-      </c>
-      <c r="I16" s="118" t="s">
-        <v>120</v>
-      </c>
-      <c r="J16" s="112">
+    </row>
+    <row r="20" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G20" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="K16" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="L16" s="113" t="s">
-        <v>135</v>
-      </c>
-      <c r="M16" s="118">
-        <v>70</v>
-      </c>
-      <c r="N16" s="112">
-        <v>2</v>
-      </c>
-      <c r="O16" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="P16" s="113" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q16" s="123" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="112">
-        <v>2</v>
-      </c>
-      <c r="C17" s="110" t="s">
-        <v>131</v>
-      </c>
-      <c r="D17" s="113" t="s">
-        <v>134</v>
-      </c>
-      <c r="E17" s="118" t="s">
-        <v>120</v>
-      </c>
-      <c r="F17" s="112">
-        <v>3</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="H17" s="113" t="s">
-        <v>135</v>
-      </c>
-      <c r="I17" s="118">
-        <v>75</v>
-      </c>
-      <c r="J17" s="112">
-        <v>6</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="L17" s="113" t="s">
-        <v>165</v>
-      </c>
-      <c r="M17" s="118">
-        <v>10</v>
-      </c>
-      <c r="N17" s="112">
-        <v>3</v>
-      </c>
-      <c r="O17" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="P17" s="124" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q17" s="118">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="112">
-        <v>3</v>
-      </c>
-      <c r="C18" s="110" t="s">
-        <v>132</v>
-      </c>
-      <c r="D18" s="114" t="s">
-        <v>135</v>
-      </c>
-      <c r="E18" s="118">
-        <v>10</v>
-      </c>
-      <c r="J18" s="112">
-        <v>7</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="M18" s="118">
-        <v>90</v>
-      </c>
-      <c r="N18" s="112">
-        <v>4</v>
-      </c>
-      <c r="O18" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="P18" s="113" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q18" s="115">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="110"/>
-      <c r="C19" s="110"/>
-      <c r="N19" s="112">
-        <v>5</v>
-      </c>
-      <c r="O19" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="P19" s="113" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q19" s="118">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F20" s="110"/>
-      <c r="G20" s="109" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="119">
+      <c r="I20" s="103">
         <f>SUM(I21:I23)</f>
         <v>250</v>
       </c>
-      <c r="K20" s="109" t="s">
+      <c r="K20" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="M20" s="119">
-        <f>SUM(M21:M25)</f>
+      <c r="M20" s="103">
+        <f>SUM(M21:M26)</f>
+        <v>218</v>
+      </c>
+      <c r="N20" s="96">
+        <v>6</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="P20" s="97" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q20" s="102">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="F21" s="96">
+        <v>1</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="H21" s="97" t="s">
+        <v>145</v>
+      </c>
+      <c r="I21" s="102">
+        <v>50</v>
+      </c>
+      <c r="J21" s="96">
+        <v>1</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="L21" s="97" t="s">
+        <v>166</v>
+      </c>
+      <c r="M21" s="102">
+        <v>58</v>
+      </c>
+      <c r="N21" s="96">
+        <v>7</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="P21" s="97" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q21" s="102" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="F22" s="96">
+        <v>2</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H22" s="97" t="s">
+        <v>139</v>
+      </c>
+      <c r="I22" s="107" t="s">
+        <v>184</v>
+      </c>
+      <c r="J22" s="96">
+        <v>2</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="L22" s="97" t="s">
+        <v>156</v>
+      </c>
+      <c r="M22" s="99" t="s">
+        <v>111</v>
+      </c>
+      <c r="N22" s="96">
+        <v>8</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="P22" s="97" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q22" s="99" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="F23" s="96">
+        <v>3</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="H23" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="I23" s="102">
+        <v>200</v>
+      </c>
+      <c r="J23" s="96">
+        <v>3</v>
+      </c>
+      <c r="K23" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="N20" s="112">
+      <c r="L23" s="97" t="s">
+        <v>169</v>
+      </c>
+      <c r="M23" s="102">
+        <v>30</v>
+      </c>
+      <c r="N23" s="96">
+        <v>9</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="P23" s="97" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q23" s="102" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J24" s="96">
+        <v>4</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="L24" s="97" t="s">
+        <v>156</v>
+      </c>
+      <c r="M24" s="99" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D25" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E25" s="104">
+        <f>SUM(E4,E15,I4,I14,I20,M4,M11,M20,Q4,Q14)</f>
+        <v>3055</v>
+      </c>
+      <c r="F25" s="111">
+        <f>E25*D29</f>
+        <v>408.14799999999997</v>
+      </c>
+      <c r="J25" s="96">
+        <v>5</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="L25" s="97" t="s">
+        <v>132</v>
+      </c>
+      <c r="M25" s="104">
+        <v>80</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E26" s="8">
+        <f>SUM(E7,E12,E11,E16,I9,M5,Q7,Q9,M25)</f>
+        <v>1008</v>
+      </c>
+      <c r="F26" s="111">
+        <f>E26*D29</f>
+        <v>134.6688</v>
+      </c>
+      <c r="J26" s="96">
         <v>6</v>
       </c>
-      <c r="O20" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="P20" s="113" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q20" s="118">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="F21" s="112">
-        <v>1</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="H21" s="113" t="s">
-        <v>154</v>
-      </c>
-      <c r="I21" s="118">
+      <c r="K26" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="L26" s="97" t="s">
+        <v>236</v>
+      </c>
+      <c r="M26" s="102">
         <v>50</v>
       </c>
-      <c r="J21" s="112">
-        <v>1</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="L21" s="113" t="s">
-        <v>175</v>
-      </c>
-      <c r="M21" s="118">
-        <v>58</v>
-      </c>
-      <c r="N21" s="112">
-        <v>7</v>
-      </c>
-      <c r="O21" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="P21" s="113" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q21" s="118" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="F22" s="112">
-        <v>2</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="H22" s="113" t="s">
-        <v>148</v>
-      </c>
-      <c r="I22" s="123" t="s">
-        <v>193</v>
-      </c>
-      <c r="J22" s="112">
-        <v>2</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="L22" s="113" t="s">
-        <v>165</v>
-      </c>
-      <c r="M22" s="115" t="s">
-        <v>120</v>
-      </c>
-      <c r="N22" s="112">
-        <v>8</v>
-      </c>
-      <c r="O22" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="P22" s="113" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q22" s="115" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="F23" s="112">
-        <v>3</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="H23" s="113" t="s">
-        <v>157</v>
-      </c>
-      <c r="I23" s="118">
-        <v>200</v>
-      </c>
-      <c r="J23" s="112">
-        <v>3</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="L23" s="113" t="s">
-        <v>178</v>
-      </c>
-      <c r="M23" s="118">
-        <v>30</v>
-      </c>
-      <c r="N23" s="112">
-        <v>9</v>
-      </c>
-      <c r="O23" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="P23" s="113" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q23" s="118" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J24" s="112">
-        <v>4</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="L24" s="113" t="s">
-        <v>165</v>
-      </c>
-      <c r="M24" s="115" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D25" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="E25" s="120">
-        <f>SUM(E4,E15,I4,I14,I20,M4,M11,M20,Q4,Q14)</f>
-        <v>3005</v>
-      </c>
-      <c r="F25" s="127">
-        <f>E25*D29</f>
-        <v>401.46800000000002</v>
-      </c>
-      <c r="J25" s="112">
-        <v>5</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="L25" s="113" t="s">
-        <v>141</v>
-      </c>
-      <c r="M25" s="118">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="E26" s="9">
-        <f>SUM(E7,E12,E11,E16,I9,M5,Q7,Q9)</f>
-        <v>928</v>
-      </c>
-      <c r="F26" s="127">
-        <f>E26*D29</f>
-        <v>123.9808</v>
-      </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E27" s="126">
+      <c r="E27" s="110">
         <f>E25-E26</f>
-        <v>2077</v>
-      </c>
-      <c r="F27" s="128">
+        <v>2047</v>
+      </c>
+      <c r="F27" s="111">
         <f>E27*D29</f>
-        <v>277.48719999999997</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="110"/>
-      <c r="C28" s="110"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="110"/>
+        <v>273.47919999999999</v>
+      </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D29">
         <f>0.1336</f>
         <v>0.1336</v>
       </c>
-      <c r="E29" s="110"/>
-      <c r="F29" s="110"/>
-      <c r="G29" s="110"/>
-      <c r="H29" s="110"/>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B30" s="110"/>
-      <c r="C30" s="110"/>
-      <c r="D30" s="110"/>
-      <c r="E30" s="110"/>
-      <c r="F30" s="110"/>
-      <c r="G30" s="110"/>
-      <c r="H30" s="110"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="110"/>
-      <c r="C31" s="110"/>
-      <c r="D31" s="110"/>
-      <c r="E31" s="125"/>
-      <c r="F31" s="110"/>
-      <c r="G31" s="110"/>
-      <c r="H31" s="110"/>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B32" s="110"/>
-      <c r="C32" s="110"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="110"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="110"/>
-      <c r="H32" s="110"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="110"/>
-      <c r="C33" s="110"/>
-      <c r="D33" s="110"/>
-      <c r="E33" s="110"/>
-      <c r="F33" s="110"/>
-      <c r="G33" s="110"/>
-      <c r="H33" s="110"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="110"/>
-      <c r="C34" s="110"/>
-      <c r="D34" s="110"/>
-      <c r="E34" s="110"/>
-      <c r="F34" s="110"/>
-      <c r="G34" s="110"/>
-      <c r="H34" s="110"/>
+      <c r="E31" s="109"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -3623,877 +4039,935 @@
   <sheetPr codeName="Sheet6">
     <tabColor theme="8" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A2:N30"/>
+  <dimension ref="A2:N35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="47" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="72" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="61" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="61" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" style="73" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="74" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="66" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" style="47" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="9"/>
-    <col min="17" max="17" width="12.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="11.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="58" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="49" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="49" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" style="59" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="60" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.42578125" style="47" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="8"/>
+    <col min="17" max="17" width="12.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+    <row r="2" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="42" t="s">
+      <c r="B2" s="127"/>
+      <c r="C2" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="42" t="s">
+      <c r="D2" s="127"/>
+      <c r="E2" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="43" t="s">
+      <c r="F2" s="127"/>
+      <c r="G2" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="K2" s="46" t="s">
+      <c r="I2" s="127"/>
+      <c r="J2" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="43" t="s">
+      <c r="L2" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="M2" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="48">
+      <c r="B3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="40">
         <v>0.57638888888888884</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="50">
+      <c r="E3" s="42">
         <v>0.63541666666666663</v>
       </c>
-      <c r="F3" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="51">
+      <c r="F3" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="43">
         <f t="shared" ref="G3:G23" si="0">MOD(E3 - C3, 1)</f>
         <v>5.902777777777779E-2</v>
       </c>
-      <c r="H3" s="52"/>
-      <c r="I3" s="53">
+      <c r="H3" s="44"/>
+      <c r="I3" s="130">
         <v>337.1</v>
       </c>
-      <c r="J3" s="54" t="b">
+      <c r="J3" s="138" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="K3" s="55" t="s">
+      <c r="K3" s="136" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="56">
+      <c r="L3" s="45">
         <v>45857</v>
       </c>
-      <c r="M3" s="47" t="str">
+      <c r="M3" s="39" t="str">
         <f>IF(MOD(C4-E3,1)&lt;=0.08,"PAZI","vredu je")</f>
         <v>vredu je</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+    <row r="4" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="48">
+      <c r="B4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="40">
         <v>0.80555555555555558</v>
       </c>
-      <c r="D4" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="50">
+      <c r="D4" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="42">
         <v>0.50694444444444442</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="51">
+      <c r="G4" s="43">
         <f t="shared" si="0"/>
         <v>0.70138888888888884</v>
       </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="56">
+      <c r="H4" s="44"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="45">
         <v>45857</v>
       </c>
-      <c r="M4" s="47" t="str">
+      <c r="M4" s="39" t="str">
         <f>IF(MOD(C4-E3,1)&lt;=0.08,"PAZI","vredu je")</f>
         <v>vredu je</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="60">
+      <c r="C5" s="48">
         <v>0.42222222222222222</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="D5" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="62">
+      <c r="E5" s="50">
         <v>0.49375000000000002</v>
       </c>
-      <c r="F5" s="61" t="s">
+      <c r="F5" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="51">
+      <c r="G5" s="43">
         <f>MOD(E5 - C5, 1)</f>
         <v>7.1527777777777801E-2</v>
       </c>
-      <c r="H5" s="63">
+      <c r="H5" s="51">
         <v>49</v>
       </c>
-      <c r="I5" s="64">
+      <c r="I5" s="46">
         <f t="shared" ref="I5:I6" si="1">H5*0.13225</f>
         <v>6.4802500000000007</v>
       </c>
-      <c r="J5" s="65" t="b">
+      <c r="J5" s="52" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L5" s="56">
+      <c r="L5" s="45">
         <v>45859</v>
       </c>
-      <c r="M5" s="47" t="str">
-        <f t="shared" ref="M5:M18" si="2">IF(MOD(C5-E4,1)&lt;=0.08,"PAZI","vredu je")</f>
+      <c r="M5" s="39" t="str">
+        <f t="shared" ref="M5:M16" si="2">IF(MOD(C5-E4,1)&lt;=0.08,"PAZI","vredu je")</f>
         <v>vredu je</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="60">
+      <c r="C6" s="48">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="62">
+      <c r="E6" s="50">
         <v>0.90208333333333335</v>
       </c>
-      <c r="F6" s="61" t="s">
+      <c r="F6" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="51">
+      <c r="G6" s="43">
         <f>MOD(E6 - C6, 1)</f>
         <v>6.8749999999999978E-2</v>
       </c>
-      <c r="H6" s="63">
+      <c r="H6" s="51">
         <v>93</v>
       </c>
-      <c r="I6" s="64">
+      <c r="I6" s="46">
         <f t="shared" si="1"/>
         <v>12.299250000000001</v>
       </c>
-      <c r="J6" s="65" t="b">
+      <c r="J6" s="52" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L6" s="56">
+      <c r="L6" s="45">
         <v>45859</v>
       </c>
-      <c r="M6" s="47" t="str">
+      <c r="M6" s="39" t="str">
         <f t="shared" si="2"/>
         <v>vredu je</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="48">
         <v>0.55902777777777779</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="62">
+      <c r="E7" s="50">
         <v>0.76388888888888884</v>
       </c>
-      <c r="F7" s="61" t="s">
+      <c r="F7" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="51">
+      <c r="G7" s="43">
         <f t="shared" si="0"/>
         <v>0.20486111111111105</v>
       </c>
-      <c r="H7" s="63"/>
-      <c r="I7" s="64">
+      <c r="H7" s="51"/>
+      <c r="I7" s="46">
         <v>155</v>
       </c>
-      <c r="J7" s="65" t="b">
+      <c r="J7" s="52" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K7" s="66" t="s">
+      <c r="K7" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="56">
+      <c r="L7" s="45">
         <v>45861</v>
       </c>
-      <c r="M7" s="47" t="str">
+      <c r="M7" s="39" t="str">
         <f t="shared" si="2"/>
         <v>vredu je</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="60">
+      <c r="C8" s="48">
         <v>0.32569444444444445</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="62">
+      <c r="E8" s="50">
         <v>0.41944444444444445</v>
       </c>
-      <c r="F8" s="61" t="s">
+      <c r="F8" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="51">
+      <c r="G8" s="43">
         <f>MOD(E8 - C8, 1)</f>
         <v>9.375E-2</v>
       </c>
-      <c r="H8" s="63">
+      <c r="H8" s="51">
         <v>105</v>
       </c>
-      <c r="I8" s="64">
+      <c r="I8" s="46">
         <f t="shared" ref="I8:I18" si="3">H8*0.13225</f>
         <v>13.88625</v>
       </c>
-      <c r="J8" s="65" t="b">
+      <c r="J8" s="52" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L8" s="56">
+      <c r="L8" s="45">
         <v>45863</v>
       </c>
-      <c r="M8" s="47" t="str">
+      <c r="M8" s="39" t="str">
         <f t="shared" si="2"/>
         <v>vredu je</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="60">
+      <c r="C9" s="48">
         <v>0.8125</v>
       </c>
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="62">
+      <c r="E9" s="50">
         <v>0.89513888888888893</v>
       </c>
-      <c r="F9" s="61" t="s">
+      <c r="F9" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="51">
+      <c r="G9" s="43">
         <f>MOD(E9 - C9, 1)</f>
         <v>8.2638888888888928E-2</v>
       </c>
-      <c r="H9" s="63">
+      <c r="H9" s="51">
         <v>109</v>
       </c>
-      <c r="I9" s="64">
+      <c r="I9" s="46">
         <f t="shared" si="3"/>
         <v>14.41525</v>
       </c>
-      <c r="J9" s="65" t="b">
+      <c r="J9" s="52" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L9" s="56">
+      <c r="L9" s="45">
         <v>45863</v>
       </c>
-      <c r="M9" s="47" t="str">
+      <c r="M9" s="39" t="str">
         <f t="shared" si="2"/>
         <v>vredu je</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="60">
+      <c r="C10" s="48">
         <v>0.32916666666666666</v>
       </c>
-      <c r="D10" s="61" t="s">
+      <c r="D10" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="62">
+      <c r="E10" s="50">
         <v>0.49930555555555556</v>
       </c>
-      <c r="F10" s="61" t="s">
+      <c r="F10" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="51">
+      <c r="G10" s="43">
         <f>MOD(E10 - C10, 1)</f>
         <v>0.1701388888888889</v>
       </c>
-      <c r="H10" s="63">
+      <c r="H10" s="51">
         <v>116</v>
       </c>
-      <c r="I10" s="64">
+      <c r="I10" s="46">
         <f t="shared" si="3"/>
         <v>15.341000000000001</v>
       </c>
-      <c r="J10" s="65" t="b">
+      <c r="J10" s="52" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L10" s="56">
+      <c r="L10" s="45">
         <v>45864</v>
       </c>
-      <c r="M10" s="47" t="str">
+      <c r="M10" s="39" t="str">
         <f t="shared" si="2"/>
         <v>vredu je</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="60">
+      <c r="C11" s="48">
         <v>0.78402777777777777</v>
       </c>
-      <c r="D11" s="61" t="s">
+      <c r="D11" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="62">
+      <c r="E11" s="50">
         <v>0.91874999999999996</v>
       </c>
-      <c r="F11" s="61" t="s">
+      <c r="F11" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="51">
+      <c r="G11" s="43">
         <f>MOD(E11 - C11, 1)</f>
         <v>0.13472222222222219</v>
       </c>
-      <c r="H11" s="63">
+      <c r="H11" s="51">
         <v>190</v>
       </c>
-      <c r="I11" s="64">
+      <c r="I11" s="46">
         <f t="shared" si="3"/>
         <v>25.127500000000001</v>
       </c>
-      <c r="J11" s="65" t="b">
+      <c r="J11" s="52" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L11" s="56">
+      <c r="L11" s="45">
         <v>45864</v>
       </c>
-      <c r="M11" s="47" t="str">
+      <c r="M11" s="39" t="str">
         <f t="shared" si="2"/>
         <v>vredu je</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="60">
+      <c r="B12" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="48">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D12" s="61" t="s">
+      <c r="D12" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="62">
+      <c r="E12" s="50">
         <v>0.37847222222222221</v>
       </c>
-      <c r="F12" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="67">
+      <c r="F12" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="53">
         <f>MOD(E12 - C12, 1)</f>
         <v>0.54513888888888884</v>
       </c>
-      <c r="H12" s="63">
+      <c r="H12" s="51">
         <v>256</v>
       </c>
-      <c r="I12" s="64">
+      <c r="I12" s="46">
         <f t="shared" si="3"/>
         <v>33.856000000000002</v>
       </c>
-      <c r="J12" s="65" t="b">
+      <c r="J12" s="52" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K12" s="68" t="s">
-        <v>66</v>
-      </c>
-      <c r="L12" s="56">
+      <c r="K12" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="L12" s="45">
         <v>45865</v>
       </c>
-      <c r="M12" s="47" t="str">
+      <c r="M12" s="39" t="str">
         <f t="shared" si="2"/>
         <v>vredu je</v>
       </c>
-      <c r="N12" s="69"/>
+      <c r="N12" s="55"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="60">
-        <v>0.58680555555555558</v>
-      </c>
-      <c r="D13" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="62">
-        <v>0.75416666666666665</v>
-      </c>
-      <c r="F13" s="61" t="s">
+      <c r="B13" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C13" s="48">
+        <v>0.44930555555555557</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="E13" s="50">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="F13" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="51">
+      <c r="G13" s="43">
         <f t="shared" si="0"/>
-        <v>0.16736111111111107</v>
-      </c>
-      <c r="H13" s="63">
-        <v>38</v>
-      </c>
-      <c r="I13" s="64">
+        <v>6.9444444444444475E-2</v>
+      </c>
+      <c r="H13" s="51">
+        <v>136</v>
+      </c>
+      <c r="I13" s="46">
         <f t="shared" si="3"/>
-        <v>5.0255000000000001</v>
-      </c>
-      <c r="J13" s="65" t="b">
+        <v>17.986000000000001</v>
+      </c>
+      <c r="J13" s="52" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K13" s="70"/>
-      <c r="L13" s="56">
+      <c r="K13" s="116" t="s">
+        <v>217</v>
+      </c>
+      <c r="L13" s="45">
         <v>45866</v>
       </c>
-      <c r="M13" s="47" t="str">
+      <c r="M13" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>PAZI</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="48">
+        <v>0.20694444444444443</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="50">
+        <v>0.45208333333333334</v>
+      </c>
+      <c r="F14" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="43">
+        <f t="shared" si="0"/>
+        <v>0.24513888888888891</v>
+      </c>
+      <c r="H14" s="51">
+        <v>69</v>
+      </c>
+      <c r="I14" s="46">
+        <f t="shared" si="3"/>
+        <v>9.1252500000000012</v>
+      </c>
+      <c r="J14" s="52" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="45">
+        <v>45868</v>
+      </c>
+      <c r="M14" s="39" t="str">
+        <f>IF(MOD(C14-E13,1)&lt;=0.08,"PAZI","vredu je")</f>
+        <v>vredu je</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C15" s="48">
+        <v>0.37708333333333333</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="E15" s="50">
+        <v>0.51944444444444449</v>
+      </c>
+      <c r="F15" s="49" t="s">
+        <v>212</v>
+      </c>
+      <c r="G15" s="43">
+        <f t="shared" si="0"/>
+        <v>0.14236111111111116</v>
+      </c>
+      <c r="H15" s="51">
+        <v>105</v>
+      </c>
+      <c r="I15" s="46">
+        <f t="shared" si="3"/>
+        <v>13.88625</v>
+      </c>
+      <c r="J15" s="52" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="45">
+        <v>45870</v>
+      </c>
+      <c r="M15" s="39" t="str">
         <f t="shared" si="2"/>
         <v>vredu je</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="60">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="D14" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="62">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="F14" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="51">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" s="48">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="50">
+        <v>0.8</v>
+      </c>
+      <c r="F16" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="43">
         <f t="shared" si="0"/>
-        <v>2.0833333333333259E-2</v>
-      </c>
-      <c r="H14" s="63">
-        <v>30</v>
-      </c>
-      <c r="I14" s="64">
+        <v>8.4722222222222254E-2</v>
+      </c>
+      <c r="H16" s="51">
+        <v>97</v>
+      </c>
+      <c r="I16" s="46">
         <f t="shared" si="3"/>
-        <v>3.9675000000000002</v>
-      </c>
-      <c r="J14" s="65" t="b">
+        <v>12.828250000000001</v>
+      </c>
+      <c r="J16" s="52" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K14" s="66" t="s">
+      <c r="L16" s="45">
+        <v>45870</v>
+      </c>
+      <c r="M16" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>vredu je</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C17" s="48">
+        <v>0.80625000000000002</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="E17" s="50">
+        <v>0.24583333333333332</v>
+      </c>
+      <c r="F17" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="53">
+        <f t="shared" si="0"/>
+        <v>0.43958333333333333</v>
+      </c>
+      <c r="H17" s="51">
+        <v>285</v>
+      </c>
+      <c r="I17" s="46">
+        <f t="shared" si="3"/>
+        <v>37.691250000000004</v>
+      </c>
+      <c r="J17" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17" s="45">
+        <v>45871</v>
+      </c>
+      <c r="M17" s="39" t="str">
+        <f>IF(MOD(C17-E16,1)&lt;=0.08,"PAZI","vredu je")</f>
+        <v>PAZI</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="L14" s="56">
-        <v>45866</v>
-      </c>
-      <c r="M14" s="47" t="str">
-        <f t="shared" si="2"/>
-        <v>PAZI</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="60">
-        <v>0.20694444444444443</v>
-      </c>
-      <c r="D15" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="62">
-        <v>0.45208333333333334</v>
-      </c>
-      <c r="F15" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="51">
+      <c r="C18" s="48">
+        <v>0.80486111111111114</v>
+      </c>
+      <c r="D18" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="50">
+        <v>0.29444444444444445</v>
+      </c>
+      <c r="F18" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="53">
         <f t="shared" si="0"/>
-        <v>0.24513888888888891</v>
-      </c>
-      <c r="H15" s="63">
-        <v>69</v>
-      </c>
-      <c r="I15" s="64">
+        <v>0.48958333333333326</v>
+      </c>
+      <c r="H18" s="51">
+        <v>350</v>
+      </c>
+      <c r="I18" s="46">
         <f t="shared" si="3"/>
-        <v>9.1252500000000012</v>
-      </c>
-      <c r="J15" s="65" t="b">
+        <v>46.287500000000001</v>
+      </c>
+      <c r="J18" s="52" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L15" s="56">
-        <v>45868</v>
-      </c>
-      <c r="M15" s="47" t="str">
-        <f t="shared" si="2"/>
+      <c r="K18" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="L18" s="45">
+        <v>45873</v>
+      </c>
+      <c r="M18" s="39" t="str">
+        <f>IF(MOD(C18-E17,1)&lt;=0.08,"PAZI","vredu je")</f>
         <v>vredu je</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="60">
-        <v>0.87916666666666665</v>
-      </c>
-      <c r="D16" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="62">
-        <v>0.96527777777777779</v>
-      </c>
-      <c r="F16" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="51">
-        <f t="shared" si="0"/>
-        <v>8.6111111111111138E-2</v>
-      </c>
-      <c r="H16" s="63">
-        <v>98</v>
-      </c>
-      <c r="I16" s="64">
-        <f t="shared" si="3"/>
-        <v>12.960500000000001</v>
-      </c>
-      <c r="J16" s="65" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="56">
-        <v>45869</v>
-      </c>
-      <c r="M16" s="47" t="str">
-        <f t="shared" si="2"/>
-        <v>vredu je</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="60">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="D17" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="62">
-        <v>0.15277777777777779</v>
-      </c>
-      <c r="F17" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="51">
-        <f t="shared" si="0"/>
-        <v>0.14027777777777778</v>
-      </c>
-      <c r="H17" s="63">
-        <v>79</v>
-      </c>
-      <c r="I17" s="64">
-        <f t="shared" si="3"/>
-        <v>10.447750000000001</v>
-      </c>
-      <c r="J17" s="65" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="56">
-        <v>45872</v>
-      </c>
-      <c r="M17" s="47" t="str">
-        <f t="shared" si="2"/>
-        <v>PAZI</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="60">
-        <v>0.80486111111111114</v>
-      </c>
-      <c r="D18" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="62">
-        <v>0.29444444444444445</v>
-      </c>
-      <c r="F18" s="61" t="s">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C19" s="48"/>
+      <c r="E19" s="50"/>
+      <c r="G19" s="43"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="52"/>
+      <c r="L19" s="45"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C20" s="48"/>
+      <c r="E20" s="50"/>
+      <c r="G20" s="43"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="52"/>
+      <c r="L20" s="45"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C21" s="48"/>
+      <c r="E21" s="50"/>
+      <c r="G21" s="43"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="52"/>
+      <c r="L21" s="45"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="48">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D22" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="67">
-        <f t="shared" si="0"/>
-        <v>0.48958333333333326</v>
-      </c>
-      <c r="H18" s="63">
-        <v>350</v>
-      </c>
-      <c r="I18" s="64">
-        <f t="shared" si="3"/>
-        <v>46.287500000000001</v>
-      </c>
-      <c r="J18" s="65" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="71" t="s">
-        <v>60</v>
-      </c>
-      <c r="L18" s="56">
-        <v>45873</v>
-      </c>
-      <c r="M18" s="47" t="str">
-        <f t="shared" si="2"/>
-        <v>vredu je</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C19" s="60"/>
-      <c r="E19" s="62"/>
-      <c r="G19" s="51"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="65"/>
-      <c r="L19" s="56"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C20" s="60"/>
-      <c r="E20" s="62"/>
-      <c r="G20" s="51"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="65"/>
-      <c r="L20" s="56"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C21" s="60"/>
-      <c r="E21" s="62"/>
-      <c r="G21" s="51"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="65"/>
-      <c r="L21" s="56"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="60">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D22" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="62">
+      <c r="E22" s="50">
         <v>0.2638888888888889</v>
       </c>
-      <c r="F22" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="G22" s="51">
+      <c r="F22" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="43">
         <f t="shared" si="0"/>
         <v>0.18055555555555558</v>
       </c>
-      <c r="I22" s="57">
+      <c r="I22" s="131">
         <v>337.1</v>
       </c>
-      <c r="J22" s="58" t="b">
+      <c r="J22" s="139" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="K22" s="59" t="s">
+      <c r="K22" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="L22" s="56">
+      <c r="L22" s="45">
         <v>45877</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="60">
+      <c r="B23" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="48">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D23" s="61" t="s">
+      <c r="D23" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="62">
+      <c r="E23" s="50">
         <v>0.37152777777777779</v>
       </c>
-      <c r="F23" s="61" t="s">
+      <c r="F23" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="51">
+      <c r="G23" s="43">
         <f t="shared" si="0"/>
         <v>3.8194444444444475E-2</v>
       </c>
-      <c r="I23" s="57"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="56">
+      <c r="I23" s="131"/>
+      <c r="J23" s="139"/>
+      <c r="K23" s="137"/>
+      <c r="L23" s="45">
         <v>45877</v>
       </c>
     </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="39" t="s">
+        <v>210</v>
+      </c>
+    </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G28" s="50"/>
-    </row>
-    <row r="29" spans="1:13" s="76" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="75"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="79">
-        <f>SUM(G3:G23)</f>
-        <v>3.5</v>
-      </c>
-      <c r="H29" s="80" t="s">
-        <v>76</v>
-      </c>
-      <c r="I29" s="81">
+      <c r="G28" s="42"/>
+    </row>
+    <row r="29" spans="1:13" s="62" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="61"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="I29" s="67">
         <f>SUM(I3:I28)</f>
-        <v>1038.4195000000002</v>
-      </c>
-      <c r="J29" s="81">
-        <f>SUM(IF(J3,0,I3),IF(J5,0,I5),IF(J6,0,I6),IF(J7,0,I7),IF(J8,0,I8),IF(J9,0,I9),IF(J10,0,I10),IF(J11,0,I11),IF(J12,0,I12),IF(J13,0,I13),IF(J14,0,I14),IF(J15,0,I15),IF(J16,0,I16),IF(J17,0,I17),IF(J18,0,I18),IF(J19,0,I19),IF(J20,0,I20),IF(J21,0,I21),IF(J22,0,I22),IF(J23,0,I23),IF(J24,0,I24))</f>
-        <v>364.21950000000004</v>
-      </c>
-      <c r="K29" s="82"/>
-      <c r="L29" s="75"/>
+        <v>1088.4100000000003</v>
+      </c>
+      <c r="J29" s="67">
+        <f>SUM(IF(J3,0,I3),IF(J5,0,I5),IF(J6,0,I6),IF(J7,0,I7),IF(J8,0,I8),IF(J9,0,I9),IF(J10,0,I10),IF(J11,0,I11),IF(J12,0,I12),IF(J13,0,I13),IF(J14,0,I14),IF(J17,0,I17),IF(J18,0,I18),IF(J19,0,I19),IF(J20,0,I20),IF(J21,0,I21),IF(J22,0,I22),IF(J23,0,I23),IF(J24,0,I24))</f>
+        <v>387.49550000000005</v>
+      </c>
+      <c r="K29" s="68"/>
+      <c r="L29" s="61"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J30" s="65" t="s">
-        <v>75</v>
+      <c r="J30" s="52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="132" t="s">
+        <v>218</v>
+      </c>
+      <c r="B33" s="133"/>
+      <c r="C33" s="134" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="133"/>
+      <c r="E33" s="134" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="133"/>
+      <c r="G33" s="113" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="135" t="s">
+        <v>3</v>
+      </c>
+      <c r="I33" s="133"/>
+      <c r="J33" s="114" t="s">
+        <v>219</v>
+      </c>
+      <c r="K33" s="115"/>
+      <c r="L33" s="112"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="48">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="D35" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="50">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F35" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="G35" s="50">
+        <f>MOD(E35 - C35, 1)</f>
+        <v>3.4722222222222265E-2</v>
+      </c>
+      <c r="H35" s="117">
+        <f>G35</f>
+        <v>3.4722222222222265E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="14">
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="H33:I33"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="K22:K23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J22:J23"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J22:J23"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
@@ -4501,7 +4975,7 @@
       <formula>NOT(ISERROR(SEARCH("taxi",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B1048576">
+  <conditionalFormatting sqref="A1:B32 A33 A34:B1048576">
     <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="Avto">
       <formula>NOT(ISERROR(SEARCH("Avto",A1)))</formula>
     </cfRule>
@@ -4512,13 +4986,13 @@
       <formula>NOT(ISERROR(SEARCH("Letalo",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1 D5:D11 D13 D16:D1048576">
+  <conditionalFormatting sqref="D1 D5:D11 D13 D17:D32 D34:D1048576">
     <cfRule type="expression" dxfId="2" priority="7">
       <formula>"AND(B1&lt;&gt;"" "" , B1&lt;TIME(6,0,0))"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G28">
-    <cfRule type="iconSet" priority="28">
+  <conditionalFormatting sqref="G3:G40">
+    <cfRule type="iconSet" priority="59">
       <iconSet iconSet="5Quarters">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0"/>
@@ -4529,7 +5003,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I28">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4560,282 +5034,282 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22" style="9" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.7109375" style="9" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="18.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" style="8" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" style="8" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="66" t="s">
+    <row r="1" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="9"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84">
+      <c r="A2" s="69"/>
+      <c r="B2" s="70">
         <v>45852</v>
       </c>
-      <c r="C2" s="84">
+      <c r="C2" s="70">
         <v>45853</v>
       </c>
-      <c r="D2" s="84">
+      <c r="D2" s="70">
         <v>45854</v>
       </c>
-      <c r="E2" s="84">
+      <c r="E2" s="70">
         <v>45855</v>
       </c>
-      <c r="F2" s="84">
+      <c r="F2" s="70">
         <v>45856</v>
       </c>
-      <c r="G2" s="85">
+      <c r="G2" s="71">
         <v>45857</v>
       </c>
-      <c r="H2" s="86">
+      <c r="H2" s="72">
         <v>45858</v>
       </c>
-      <c r="J2" s="87" t="s">
+      <c r="J2" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
     </row>
     <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87" t="s">
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="87" t="s">
+      <c r="H3" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="88" t="s">
-        <v>84</v>
-      </c>
-      <c r="L3" s="89" t="s">
-        <v>59</v>
+      <c r="J3" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" s="75" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="87"/>
-      <c r="J4" s="91"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="73"/>
+      <c r="J4" s="77"/>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="92"/>
-      <c r="B5" s="93">
+      <c r="A5" s="78"/>
+      <c r="B5" s="79">
         <v>45859</v>
       </c>
-      <c r="C5" s="93">
+      <c r="C5" s="79">
         <v>45860</v>
       </c>
-      <c r="D5" s="94">
+      <c r="D5" s="80">
         <v>45861</v>
       </c>
-      <c r="E5" s="95">
+      <c r="E5" s="81">
         <v>45862</v>
       </c>
-      <c r="F5" s="95">
+      <c r="F5" s="81">
         <v>45863</v>
       </c>
-      <c r="G5" s="95">
+      <c r="G5" s="81">
         <v>45864</v>
       </c>
-      <c r="H5" s="96">
+      <c r="H5" s="82">
         <v>45865</v>
       </c>
-      <c r="I5" s="92"/>
-      <c r="J5" s="97" t="s">
-        <v>58</v>
+      <c r="I5" s="78"/>
+      <c r="J5" s="83" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="87" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="87" t="s">
+      <c r="C6" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="87" t="s">
+      <c r="E6" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="87" t="s">
+      <c r="F6" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="87" t="s">
+      <c r="G6" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="87" t="s">
+      <c r="H6" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="98"/>
+      <c r="J6" s="84"/>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
     </row>
     <row r="8" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="92"/>
-      <c r="B8" s="99">
+      <c r="A8" s="78"/>
+      <c r="B8" s="85">
         <v>45866</v>
       </c>
-      <c r="C8" s="99">
+      <c r="C8" s="85">
         <v>45867</v>
       </c>
-      <c r="D8" s="99">
+      <c r="D8" s="85">
         <v>45868</v>
       </c>
-      <c r="E8" s="99">
+      <c r="E8" s="85">
         <v>45869</v>
       </c>
-      <c r="F8" s="99">
+      <c r="F8" s="85">
         <v>45870</v>
       </c>
-      <c r="G8" s="99">
+      <c r="G8" s="88">
         <v>45871</v>
       </c>
-      <c r="H8" s="99">
+      <c r="H8" s="85">
         <v>45872</v>
       </c>
-      <c r="I8" s="100"/>
+      <c r="I8" s="86"/>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="101" t="s">
+      <c r="D9" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="101" t="s">
+      <c r="E9" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="101" t="s">
+      <c r="F9" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="101" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="101" t="s">
+      <c r="G9" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="87" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="92"/>
-      <c r="B11" s="102">
+      <c r="A11" s="78"/>
+      <c r="B11" s="88">
         <v>45873</v>
       </c>
-      <c r="C11" s="103">
+      <c r="C11" s="89">
         <v>45874</v>
       </c>
-      <c r="D11" s="99">
+      <c r="D11" s="85">
         <v>45875</v>
       </c>
-      <c r="E11" s="102">
+      <c r="E11" s="88">
         <v>45876</v>
       </c>
-      <c r="F11" s="104">
+      <c r="F11" s="90">
         <v>45877</v>
       </c>
-      <c r="G11" s="104">
+      <c r="G11" s="90">
         <v>45878</v>
       </c>
-      <c r="H11" s="105">
+      <c r="H11" s="91">
         <v>45879</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="101" t="s">
+      <c r="B12" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="101" t="s">
+      <c r="C12" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="101" t="s">
+      <c r="D12" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="101" t="s">
+      <c r="E12" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="101" t="s">
+      <c r="F12" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="101"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
     </row>
     <row r="14" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="106"/>
-      <c r="B14" s="107">
+      <c r="A14" s="92"/>
+      <c r="B14" s="93">
         <v>45880</v>
       </c>
-      <c r="C14" s="107">
+      <c r="C14" s="93">
         <v>45881</v>
       </c>
-      <c r="D14" s="108">
+      <c r="D14" s="94">
         <v>45882</v>
       </c>
     </row>

--- a/Kitajska.xlsx
+++ b/Kitajska.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jure\Documents\Zuzelko\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jurci\Documents\Zuzeljko\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFACCCC-2A67-45FF-8CC2-671E7EA0D895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FF4ECC-DA47-4AFC-8376-475D3B6B56A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7973F123-3AAD-47CF-BA65-2A019CE80CD0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7973F123-3AAD-47CF-BA65-2A019CE80CD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Glavni načrt" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="216">
   <si>
     <t>Kitajska 2025</t>
   </si>
@@ -195,9 +195,24 @@
     <t>/</t>
   </si>
   <si>
+    <t>Tongfu Inn</t>
+  </si>
+  <si>
+    <t>taksi do prenočišča</t>
+  </si>
+  <si>
     <t>K688</t>
   </si>
   <si>
+    <t>D5117</t>
+  </si>
+  <si>
+    <t>G4862</t>
+  </si>
+  <si>
+    <t>Xian North</t>
+  </si>
+  <si>
     <t>D20</t>
   </si>
   <si>
@@ -219,6 +234,9 @@
     <t>Z162</t>
   </si>
   <si>
+    <t>K1374</t>
+  </si>
+  <si>
     <t>Huaihua</t>
   </si>
   <si>
@@ -291,6 +309,12 @@
     <t>27-28.7</t>
   </si>
   <si>
+    <t>sleeper kunming -&gt; zhangjiajie</t>
+  </si>
+  <si>
+    <t>30-31.7</t>
+  </si>
+  <si>
     <t>Chongqin</t>
   </si>
   <si>
@@ -309,6 +333,9 @@
     <t>Cena/noč/osebo</t>
   </si>
   <si>
+    <t>31.7-2.8</t>
+  </si>
+  <si>
     <t>https://www.booking.com/hotel/cn/chengdu-lazybones-hostel-templeside-poshpacker.en-gb.html</t>
   </si>
   <si>
@@ -661,127 +688,13 @@
   </si>
   <si>
     <t>4€/dan</t>
-  </si>
-  <si>
-    <t>K4538</t>
-  </si>
-  <si>
-    <t>Chongqing West</t>
-  </si>
-  <si>
-    <t>30-2.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">avto </t>
-  </si>
-  <si>
-    <t>K143</t>
-  </si>
-  <si>
-    <t>Chengdu West</t>
-  </si>
-  <si>
-    <t>C3406</t>
-  </si>
-  <si>
-    <t>*zelo izven</t>
-  </si>
-  <si>
-    <t>sleeper kunming -&gt; Huaihua</t>
-  </si>
-  <si>
-    <t>Huaihua South</t>
-  </si>
-  <si>
-    <t>PRESTOP; DRUGA POSTAJA</t>
-  </si>
-  <si>
-    <t>Znani taksiji</t>
-  </si>
-  <si>
-    <t>Rate</t>
-  </si>
-  <si>
-    <t>Dan</t>
-  </si>
-  <si>
-    <t>Mesto</t>
-  </si>
-  <si>
-    <t>Znamenitosti</t>
-  </si>
-  <si>
-    <t>Let</t>
-  </si>
-  <si>
-    <t>Shanghai &amp; Kunming</t>
-  </si>
-  <si>
-    <t>Heaven's gate, Furong ancient city</t>
-  </si>
-  <si>
-    <t>National park, Glass bridge</t>
-  </si>
-  <si>
-    <t>Three pagodas, Erhai Lake</t>
-  </si>
-  <si>
-    <t>Tor</t>
-  </si>
-  <si>
-    <t>Pon</t>
-  </si>
-  <si>
-    <t>Ned</t>
-  </si>
-  <si>
-    <t>Sob</t>
-  </si>
-  <si>
-    <t>Sre</t>
-  </si>
-  <si>
-    <t>Čet</t>
-  </si>
-  <si>
-    <t>Pet</t>
-  </si>
-  <si>
-    <t>Thatched cottage museum</t>
-  </si>
-  <si>
-    <t>8:00-18:30</t>
-  </si>
-  <si>
-    <t>Panda research, Thatched cottage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage market, </t>
-  </si>
-  <si>
-    <t>Jade dragon mountain, Nightlife z Lanom</t>
-  </si>
-  <si>
-    <t>Longjing Tea, Yunqi bamboo forest</t>
-  </si>
-  <si>
-    <t>Terracotta, citywalls, muslim quarter</t>
-  </si>
-  <si>
-    <t>Mount Hua</t>
-  </si>
-  <si>
-    <t>Intenziteta</t>
-  </si>
-  <si>
-    <t>G6438</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="9">
+  <numFmts count="8">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;_);[Red]\(#,##0\ &quot;€&quot;\)"/>
     <numFmt numFmtId="44" formatCode="_ * #,##0.00_)\ &quot;€&quot;_ ;_ * \(#,##0.00\)\ &quot;€&quot;_ ;_ * &quot;-&quot;??_)\ &quot;€&quot;_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="[$]hh:mm;@" x16r2:formatCode16="[$-en-SI,1]hh:mm;@"/>
@@ -790,7 +703,6 @@
     <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="168" formatCode="_ * #,##0_)\ [$CNY]_ ;_ * \(#,##0\)\ [$CNY]_ ;_ * &quot;-&quot;_)\ [$CNY]_ ;_ @_ "/>
     <numFmt numFmtId="169" formatCode="#,##0.0000\ &quot;€&quot;"/>
-    <numFmt numFmtId="170" formatCode="0.00000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -956,7 +868,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="59">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -1597,61 +1509,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1662,7 +1519,7 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1873,30 +1730,6 @@
     <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1909,6 +1742,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1926,24 +1765,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2349,426 +2170,128 @@
   <sheetPr codeName="Sheet1">
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="C3:S25"/>
+  <dimension ref="C3:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="8"/>
-    <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="59"/>
-    <col min="8" max="8" width="9.140625" style="8"/>
-    <col min="9" max="9" width="19.5703125" style="47" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.140625" style="119" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" style="56" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="9.140625" style="8"/>
-    <col min="16" max="16" width="9.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="2" width="9.109375" style="8"/>
+    <col min="3" max="3" width="27.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" style="8" customWidth="1"/>
+    <col min="7" max="11" width="9.109375" style="8"/>
+    <col min="12" max="12" width="10" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="9.109375" style="8"/>
+    <col min="16" max="16" width="9.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="122" t="s">
+    <row r="3" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-    </row>
-    <row r="4" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="H4" s="39" t="s">
-        <v>220</v>
-      </c>
-      <c r="I4" s="47" t="s">
-        <v>221</v>
-      </c>
-      <c r="J4" s="120" t="s">
-        <v>222</v>
-      </c>
-      <c r="K4" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="56" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="5" spans="3:19" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+    </row>
+    <row r="4" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+    </row>
+    <row r="5" spans="3:19" ht="21.6" thickTop="1" x14ac:dyDescent="0.4">
       <c r="C5" s="9" t="s">
         <v>36</v>
       </c>
       <c r="D5" s="10">
-        <v>45705</v>
+        <v>45693</v>
       </c>
       <c r="E5" s="11">
         <f ca="1">NOW()</f>
-        <v>45716.568900347222</v>
-      </c>
-      <c r="G5" s="121" t="s">
-        <v>231</v>
-      </c>
-      <c r="H5" s="118">
-        <v>45857</v>
-      </c>
-      <c r="I5" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="119" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="L5" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="3:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45707.529053009261</v>
+      </c>
+    </row>
+    <row r="6" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C6" s="12"/>
-      <c r="G6" s="121" t="s">
-        <v>230</v>
-      </c>
-      <c r="H6" s="118">
-        <v>45858</v>
-      </c>
-      <c r="I6" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="119" t="s">
-        <v>238</v>
-      </c>
-      <c r="L6" s="56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="3:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C7" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="G7" s="59" t="s">
-        <v>229</v>
-      </c>
-      <c r="H7" s="118">
-        <v>45859</v>
-      </c>
-      <c r="I7" s="47" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="3:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C8" s="12" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D8" s="14">
         <f>Stroški!D9</f>
-        <v>1892.0892000000003</v>
-      </c>
-      <c r="G8" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="H8" s="118">
-        <v>45860</v>
-      </c>
-      <c r="I8" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="119" t="s">
-        <v>240</v>
-      </c>
-      <c r="L8" s="56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="3:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1838.1067000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C9" s="15" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="G9" s="59" t="s">
-        <v>232</v>
-      </c>
-      <c r="H9" s="118">
-        <v>45861</v>
-      </c>
-      <c r="I9" s="47" t="s">
-        <v>224</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>223</v>
+        <v>114</v>
       </c>
       <c r="P9" s="14"/>
       <c r="S9" s="14"/>
     </row>
-    <row r="10" spans="3:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C10" s="18"/>
-      <c r="G10" s="59" t="s">
-        <v>233</v>
-      </c>
-      <c r="H10" s="118">
-        <v>45862</v>
-      </c>
-      <c r="I10" s="47" t="s">
-        <v>4</v>
-      </c>
       <c r="P10" s="14"/>
     </row>
-    <row r="11" spans="3:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C11" s="15"/>
-      <c r="G11" s="59" t="s">
-        <v>234</v>
-      </c>
-      <c r="H11" s="118">
-        <v>45863</v>
-      </c>
-      <c r="I11" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11" s="119" t="s">
-        <v>239</v>
-      </c>
-      <c r="L11" s="56">
-        <v>4</v>
-      </c>
       <c r="P11" s="14"/>
       <c r="S11" s="14"/>
     </row>
-    <row r="12" spans="3:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C12" s="15"/>
-      <c r="G12" s="121" t="s">
-        <v>231</v>
-      </c>
-      <c r="H12" s="118">
-        <v>45864</v>
-      </c>
-      <c r="I12" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" s="119" t="s">
-        <v>227</v>
-      </c>
-      <c r="L12" s="56">
-        <v>2</v>
-      </c>
       <c r="P12" s="19"/>
     </row>
-    <row r="13" spans="3:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C13" s="18"/>
-      <c r="G13" s="121" t="s">
-        <v>230</v>
-      </c>
-      <c r="H13" s="118">
-        <v>45865</v>
-      </c>
-      <c r="I13" s="47" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="3:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C14" s="18"/>
-      <c r="G14" s="59" t="s">
-        <v>229</v>
-      </c>
-      <c r="H14" s="118">
-        <v>45866</v>
-      </c>
-      <c r="I14" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="J14" s="119" t="s">
-        <v>225</v>
-      </c>
-      <c r="L14" s="56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="3:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C15" s="15"/>
-      <c r="G15" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="H15" s="118">
-        <v>45867</v>
-      </c>
-      <c r="I15" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="J15" s="119" t="s">
-        <v>226</v>
-      </c>
-      <c r="L15" s="56">
-        <v>4</v>
-      </c>
       <c r="P15" s="14"/>
     </row>
-    <row r="16" spans="3:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C16" s="12"/>
-      <c r="G16" s="59" t="s">
-        <v>232</v>
-      </c>
-      <c r="H16" s="118">
-        <v>45868</v>
-      </c>
-      <c r="I16" s="47" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="3:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" s="15"/>
-      <c r="G17" s="59" t="s">
-        <v>233</v>
-      </c>
-      <c r="H17" s="118">
-        <v>45869</v>
-      </c>
-      <c r="I17" s="47" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G18" s="59" t="s">
-        <v>234</v>
-      </c>
-      <c r="H18" s="118">
-        <v>45870</v>
-      </c>
-      <c r="I18" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="J18" s="119" t="s">
-        <v>237</v>
-      </c>
-      <c r="L18" s="56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19" s="20"/>
-      <c r="G19" s="121" t="s">
-        <v>231</v>
-      </c>
-      <c r="H19" s="118">
-        <v>45871</v>
-      </c>
-      <c r="I19" s="47" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="3:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20" s="21"/>
-      <c r="G20" s="121" t="s">
-        <v>230</v>
-      </c>
-      <c r="H20" s="118">
-        <v>45872</v>
-      </c>
-      <c r="I20" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="J20" s="119" t="s">
-        <v>241</v>
-      </c>
-      <c r="L20" s="56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C21" s="22"/>
-      <c r="G21" s="59" t="s">
-        <v>229</v>
-      </c>
-      <c r="H21" s="118">
-        <v>45873</v>
-      </c>
-      <c r="I21" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="J21" s="119" t="s">
-        <v>242</v>
-      </c>
-      <c r="L21" s="56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C22" s="21"/>
-      <c r="G22" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="H22" s="118">
-        <v>45874</v>
-      </c>
-      <c r="I22" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="L22" s="56">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G23" s="59" t="s">
-        <v>232</v>
-      </c>
-      <c r="H23" s="118">
-        <v>45875</v>
-      </c>
-      <c r="I23" s="47" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G24" s="59" t="s">
-        <v>233</v>
-      </c>
-      <c r="H24" s="118">
-        <v>45876</v>
-      </c>
-      <c r="I24" s="47" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G25" s="59" t="s">
-        <v>234</v>
-      </c>
-      <c r="H25" s="118">
-        <v>45877</v>
-      </c>
-      <c r="I25" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="L25" s="56">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C3:E4"/>
   </mergeCells>
-  <conditionalFormatting sqref="L5:L25">
-    <cfRule type="iconSet" priority="1">
-      <iconSet iconSet="4Rating">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="1" gte="0"/>
-        <cfvo type="num" val="3" gte="0"/>
-        <cfvo type="num" val="5" gte="0"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2781,30 +2304,30 @@
   <dimension ref="A2:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="8"/>
-    <col min="3" max="3" width="11.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="8"/>
-    <col min="8" max="8" width="10.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="100.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="9.140625" style="8"/>
-    <col min="13" max="13" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="12.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="8"/>
+    <col min="3" max="3" width="11.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.109375" style="8"/>
+    <col min="8" max="8" width="10.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="100.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="9.109375" style="8"/>
+    <col min="13" max="13" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H2" s="124" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" s="125"/>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H2" s="114" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="115"/>
       <c r="J2" s="23" t="s">
         <v>42</v>
       </c>
@@ -2812,31 +2335,31 @@
         <v>3</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="M2" s="24" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="N2" s="25" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C3" s="8" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="D3" s="5">
         <v>36</v>
       </c>
       <c r="G3" s="26"/>
       <c r="H3" s="8" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K3" s="14">
         <v>131</v>
@@ -2849,26 +2372,26 @@
         <v>8.7333333333333325</v>
       </c>
       <c r="N3" s="100" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C4" s="8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D4" s="4">
         <f>M12</f>
-        <v>134.19999999999999</v>
+        <v>126.2</v>
       </c>
       <c r="G4" s="26"/>
       <c r="H4" s="8" t="s">
         <v>4</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K4" s="14">
         <v>0</v>
@@ -2882,26 +2405,26 @@
       </c>
       <c r="N4" s="26"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C5" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D5" s="4">
         <f>Prevozi!I29</f>
-        <v>1088.4100000000003</v>
+        <v>1038.4195000000002</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="G5" s="26"/>
       <c r="H5" s="8" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>215</v>
+        <v>89</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K5" s="14">
         <v>0</v>
@@ -2915,7 +2438,7 @@
       </c>
       <c r="N5" s="26"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
@@ -2928,10 +2451,10 @@
         <v>47</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K6" s="14">
         <v>106</v>
@@ -2944,84 +2467,92 @@
         <v>10.6</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C7" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D7" s="6">
         <f>Zanimivosti!E27*B14</f>
-        <v>273.47919999999999</v>
+        <v>277.48719999999997</v>
       </c>
       <c r="G7" s="26"/>
       <c r="H7" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>84</v>
+        <v>91</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>209</v>
+        <v>90</v>
       </c>
       <c r="K7" s="14">
-        <v>226</v>
+        <v>76</v>
       </c>
       <c r="L7" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M7" s="28">
         <f t="shared" si="0"/>
-        <v>15.066666666666666</v>
+        <v>15.2</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="8" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D8" s="6">
         <v>70</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="G8" s="26"/>
       <c r="H8" s="8" t="s">
         <v>2</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="K8" s="14"/>
+        <v>98</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" s="14">
+        <v>110</v>
+      </c>
       <c r="L8" s="8">
-        <v>0</v>
-      </c>
-      <c r="M8" s="28"/>
+        <v>2</v>
+      </c>
+      <c r="M8" s="28">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="N8" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C9" s="29" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D9" s="30">
         <f>SUM(D3:D7)</f>
-        <v>1892.0892000000003</v>
+        <v>1838.1067000000003</v>
       </c>
       <c r="G9" s="26"/>
       <c r="H9" s="8" t="s">
         <v>45</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K9" s="14">
         <v>112</v>
@@ -3034,19 +2565,19 @@
         <v>11.2</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G10" s="26"/>
       <c r="H10" s="8" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="K10" s="14">
         <v>0</v>
@@ -3060,9 +2591,9 @@
       </c>
       <c r="N10" s="26"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C11" s="31" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D11" s="7">
         <f>675</f>
@@ -3073,10 +2604,10 @@
         <v>1</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K11" s="14">
         <v>96</v>
@@ -3089,14 +2620,14 @@
         <v>9.6</v>
       </c>
       <c r="N11" s="101" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J12" s="29"/>
       <c r="K12" s="30">
         <f>SUM(K3:K11)</f>
-        <v>671</v>
+        <v>631</v>
       </c>
       <c r="L12" s="29">
         <f>SUM(L3:L11)</f>
@@ -3104,18 +2635,18 @@
       </c>
       <c r="M12" s="32">
         <f>K12/5</f>
-        <v>134.19999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>126.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M13" s="28">
         <f>M12/L12</f>
-        <v>7.4555555555555548</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>7.0111111111111111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B14" s="34">
         <f>0.1336</f>
@@ -3142,7 +2673,6 @@
     <hyperlink ref="I6" r:id="rId1" xr:uid="{7BFED6F3-B255-4064-96DD-A36C12149613}"/>
     <hyperlink ref="I3" r:id="rId2" xr:uid="{1D79D774-64B9-4F55-933E-AB4D4B2A31B7}"/>
     <hyperlink ref="I11" r:id="rId3" xr:uid="{370BE46D-34E3-4E41-B264-34947293E8DD}"/>
-    <hyperlink ref="I7" r:id="rId4" xr:uid="{A249CB44-B56B-4C49-B81A-2FBD4AF04AC7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3156,32 +2686,31 @@
   <dimension ref="B3:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="5.44140625" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="34.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="8"/>
-    <col min="14" max="14" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="8"/>
+    <col min="6" max="6" width="20.109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" style="8" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" style="8" customWidth="1"/>
+    <col min="11" max="11" width="34.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.109375" style="8"/>
+    <col min="15" max="15" width="24.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C4" s="95" t="s">
         <v>7</v>
       </c>
@@ -3211,15 +2740,15 @@
         <v>455</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" s="96">
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D5" s="97" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="E5" s="106">
         <v>30</v>
@@ -3228,10 +2757,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H5" s="97" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="I5" s="102">
         <v>10</v>
@@ -3240,10 +2769,10 @@
         <v>1</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="L5" s="97" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="M5" s="99">
         <v>248</v>
@@ -3255,33 +2784,33 @@
         <v>24</v>
       </c>
       <c r="P5" s="97" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="Q5" s="102">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" s="96">
         <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="D6" s="97" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E6" s="102" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F6" s="96">
         <v>2</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="H6" s="97" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="I6" s="102">
         <v>40</v>
@@ -3290,10 +2819,10 @@
         <v>2</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L6" s="97" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="M6" s="102">
         <v>168</v>
@@ -3302,24 +2831,24 @@
         <v>2</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="P6" s="97" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="Q6" s="102">
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="96">
         <v>3</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D7" s="97" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="E7" s="99">
         <v>200</v>
@@ -3328,10 +2857,10 @@
         <v>3</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="H7" s="97" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="I7" s="102">
         <v>130</v>
@@ -3340,10 +2869,10 @@
         <v>3</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="L7" s="97" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="M7" s="102">
         <v>275</v>
@@ -3352,48 +2881,48 @@
         <v>3</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="P7" s="97" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="99">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="96">
         <v>4</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="D8" s="97" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="E8" s="105" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="F8" s="96">
         <v>4</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="H8" s="97" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="I8" s="99" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="J8" s="96">
         <v>4</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="L8" s="97" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="M8" s="102">
         <v>80</v>
@@ -3402,36 +2931,36 @@
         <v>4</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="P8" s="97" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="Q8" s="107" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="96">
         <v>5</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="D9" s="97" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E9" s="102" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F9" s="96">
         <v>5</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="H9" s="97" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="I9" s="99">
         <v>30</v>
@@ -3440,24 +2969,24 @@
         <v>5</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="P9" s="97" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="Q9" s="99">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="96">
         <v>6</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D10" s="97" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="E10" s="102">
         <v>70</v>
@@ -3466,36 +2995,36 @@
         <v>6</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="H10" s="97" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="I10" s="102" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="N10" s="96">
         <v>6</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="P10" s="97" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="Q10" s="102">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="96">
         <v>7</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D11" s="97" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E11" s="104">
         <v>180</v>
@@ -3511,24 +3040,24 @@
         <v>7</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="P11" s="97" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="Q11" s="102" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" s="96">
         <v>8</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D12" s="97" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E12" s="99">
         <v>135</v>
@@ -3537,42 +3066,42 @@
         <v>1</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="L12" s="97" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="M12" s="102" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="96">
         <v>9</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D13" s="97" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E13" s="102" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="J13" s="96">
         <v>2</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="L13" s="97" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="M13" s="107" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G14" s="95" t="s">
         <v>6</v>
       </c>
@@ -3584,13 +3113,13 @@
         <v>3</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L14" s="97" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="M14" s="99" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="O14" s="95" t="s">
         <v>1</v>
@@ -3600,7 +3129,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C15" s="95" t="s">
         <v>8</v>
       </c>
@@ -3612,10 +3141,10 @@
         <v>1</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="H15" s="97" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="I15" s="102">
         <v>30</v>
@@ -3624,36 +3153,36 @@
         <v>4</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="L15" s="97" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="M15" s="102" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="N15" s="96">
         <v>1</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="P15" s="97" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="Q15" s="102">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16" s="96">
         <v>1</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="D16" s="97" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="E16" s="99">
         <v>50</v>
@@ -3662,22 +3191,22 @@
         <v>2</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="H16" s="97" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="I16" s="102" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="J16" s="96">
         <v>5</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="L16" s="97" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="M16" s="102">
         <v>70</v>
@@ -3686,36 +3215,36 @@
         <v>2</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="P16" s="97" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="Q16" s="107" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" s="96">
         <v>2</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D17" s="97" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E17" s="102" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F17" s="96">
         <v>3</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="H17" s="97" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="I17" s="102">
         <v>75</v>
@@ -3724,10 +3253,10 @@
         <v>6</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="L17" s="97" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="M17" s="102">
         <v>10</v>
@@ -3736,24 +3265,24 @@
         <v>3</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="P17" s="108" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="Q17" s="102">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" s="96">
         <v>3</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="D18" s="98" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="E18" s="102">
         <v>10</v>
@@ -3762,10 +3291,10 @@
         <v>7</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="M18" s="102">
         <v>90</v>
@@ -3774,30 +3303,30 @@
         <v>4</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="P18" s="97" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="Q18" s="99">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N19" s="96">
         <v>5</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="P19" s="97" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="Q19" s="102">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G20" s="95" t="s">
         <v>5</v>
       </c>
@@ -3809,31 +3338,31 @@
         <v>2</v>
       </c>
       <c r="M20" s="103">
-        <f>SUM(M21:M26)</f>
-        <v>218</v>
+        <f>SUM(M21:M25)</f>
+        <v>168</v>
       </c>
       <c r="N20" s="96">
         <v>6</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="P20" s="97" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="Q20" s="102">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F21" s="96">
         <v>1</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="H21" s="97" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="I21" s="102">
         <v>50</v>
@@ -3842,10 +3371,10 @@
         <v>1</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="L21" s="97" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="M21" s="102">
         <v>58</v>
@@ -3854,62 +3383,62 @@
         <v>7</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="P21" s="97" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="Q21" s="102" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F22" s="96">
         <v>2</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="H22" s="97" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="I22" s="107" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="J22" s="96">
         <v>2</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="L22" s="97" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="M22" s="99" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="N22" s="96">
         <v>8</v>
       </c>
       <c r="O22" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="P22" s="97" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q22" s="99" t="s">
         <v>199</v>
       </c>
-      <c r="P22" s="97" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q22" s="99" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F23" s="96">
         <v>3</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="H23" s="97" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="I23" s="102">
         <v>200</v>
@@ -3918,10 +3447,10 @@
         <v>3</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="L23" s="97" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="M23" s="102">
         <v>30</v>
@@ -3930,102 +3459,87 @@
         <v>9</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="P23" s="97" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="Q23" s="102" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="J24" s="96">
         <v>4</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="L24" s="97" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="M24" s="99" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D25" s="8" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="E25" s="104">
         <f>SUM(E4,E15,I4,I14,I20,M4,M11,M20,Q4,Q14)</f>
-        <v>3055</v>
+        <v>3005</v>
       </c>
       <c r="F25" s="111">
         <f>E25*D29</f>
-        <v>408.14799999999997</v>
+        <v>401.46800000000002</v>
       </c>
       <c r="J25" s="96">
         <v>5</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="L25" s="97" t="s">
-        <v>132</v>
-      </c>
-      <c r="M25" s="104">
+        <v>141</v>
+      </c>
+      <c r="M25" s="102">
         <v>80</v>
       </c>
-      <c r="N25" s="8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D26" s="8" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="E26" s="8">
-        <f>SUM(E7,E12,E11,E16,I9,M5,Q7,Q9,M25)</f>
-        <v>1008</v>
+        <f>SUM(E7,E12,E11,E16,I9,M5,Q7,Q9)</f>
+        <v>928</v>
       </c>
       <c r="F26" s="111">
         <f>E26*D29</f>
-        <v>134.6688</v>
-      </c>
-      <c r="J26" s="96">
-        <v>6</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="L26" s="97" t="s">
-        <v>236</v>
-      </c>
-      <c r="M26" s="102">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+        <v>123.9808</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="E27" s="110">
         <f>E25-E26</f>
-        <v>2047</v>
+        <v>2077</v>
       </c>
       <c r="F27" s="111">
         <f>E27*D29</f>
-        <v>273.47919999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+        <v>277.48719999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D29">
         <f>0.1336</f>
         <v>0.1336</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
       <c r="E31" s="109"/>
     </row>
   </sheetData>
@@ -4039,56 +3553,56 @@
   <sheetPr codeName="Sheet6">
     <tabColor theme="8" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A2:N35"/>
+  <dimension ref="A2:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="58" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="49" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="58" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="49" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="49" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" style="59" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="60" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.42578125" style="47" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" style="39" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="8"/>
-    <col min="17" max="17" width="12.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="8"/>
+    <col min="8" max="8" width="10.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" style="59" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" style="60" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" style="47" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5546875" style="39" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.109375" style="8"/>
+    <col min="17" max="17" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="126" t="s">
+    <row r="2" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="128" t="s">
+      <c r="B2" s="119"/>
+      <c r="C2" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="127"/>
-      <c r="E2" s="128" t="s">
+      <c r="D2" s="119"/>
+      <c r="E2" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="127"/>
+      <c r="F2" s="119"/>
       <c r="G2" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="127"/>
+      <c r="I2" s="119"/>
       <c r="J2" s="37" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K2" s="38" t="s">
         <v>32</v>
@@ -4097,15 +3611,15 @@
         <v>42</v>
       </c>
       <c r="M2" s="36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C3" s="40">
         <v>0.57638888888888884</v>
@@ -4117,21 +3631,21 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G3" s="43">
         <f t="shared" ref="G3:G23" si="0">MOD(E3 - C3, 1)</f>
         <v>5.902777777777779E-2</v>
       </c>
       <c r="H3" s="44"/>
-      <c r="I3" s="130">
+      <c r="I3" s="122">
         <v>337.1</v>
       </c>
-      <c r="J3" s="138" t="b">
+      <c r="J3" s="124" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="K3" s="136" t="s">
+      <c r="K3" s="116" t="s">
         <v>33</v>
       </c>
       <c r="L3" s="45">
@@ -4142,18 +3656,18 @@
         <v>vredu je</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C4" s="40">
         <v>0.80555555555555558</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E4" s="42">
         <v>0.50694444444444442</v>
@@ -4166,9 +3680,9 @@
         <v>0.70138888888888884</v>
       </c>
       <c r="H4" s="44"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="137"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="117"/>
       <c r="L4" s="45">
         <v>45857</v>
       </c>
@@ -4177,7 +3691,7 @@
         <v>vredu je</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
         <v>12</v>
       </c>
@@ -4215,11 +3729,11 @@
         <v>45859</v>
       </c>
       <c r="M5" s="39" t="str">
-        <f t="shared" ref="M5:M16" si="2">IF(MOD(C5-E4,1)&lt;=0.08,"PAZI","vredu je")</f>
+        <f t="shared" ref="M5:M18" si="2">IF(MOD(C5-E4,1)&lt;=0.08,"PAZI","vredu je")</f>
         <v>vredu je</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
         <v>12</v>
       </c>
@@ -4261,7 +3775,7 @@
         <v>vredu je</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
         <v>13</v>
       </c>
@@ -4303,7 +3817,7 @@
         <v>vredu je</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
         <v>12</v>
       </c>
@@ -4345,7 +3859,7 @@
         <v>vredu je</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
         <v>12</v>
       </c>
@@ -4387,7 +3901,7 @@
         <v>vredu je</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
         <v>12</v>
       </c>
@@ -4429,7 +3943,7 @@
         <v>vredu je</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
         <v>12</v>
       </c>
@@ -4471,12 +3985,12 @@
         <v>vredu je</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="39" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C12" s="48">
         <v>0.83333333333333337</v>
@@ -4488,7 +4002,7 @@
         <v>0.37847222222222221</v>
       </c>
       <c r="F12" s="49" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G12" s="53">
         <f>MOD(E12 - C12, 1)</f>
@@ -4506,7 +4020,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="54" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="L12" s="45">
         <v>45865</v>
@@ -4517,227 +4031,226 @@
       </c>
       <c r="N12" s="55"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="39" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>244</v>
+        <v>64</v>
       </c>
       <c r="C13" s="48">
-        <v>0.44930555555555557</v>
+        <v>0.58680555555555558</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>216</v>
+        <v>65</v>
       </c>
       <c r="E13" s="50">
-        <v>0.51875000000000004</v>
+        <v>0.75416666666666665</v>
       </c>
       <c r="F13" s="49" t="s">
         <v>47</v>
       </c>
       <c r="G13" s="43">
         <f t="shared" si="0"/>
-        <v>6.9444444444444475E-2</v>
+        <v>0.16736111111111107</v>
       </c>
       <c r="H13" s="51">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="I13" s="46">
         <f t="shared" si="3"/>
-        <v>17.986000000000001</v>
+        <v>5.0255000000000001</v>
       </c>
       <c r="J13" s="52" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K13" s="116" t="s">
-        <v>217</v>
-      </c>
+      <c r="K13" s="56"/>
       <c r="L13" s="45">
         <v>45866</v>
       </c>
       <c r="M13" s="39" t="str">
         <f t="shared" si="2"/>
-        <v>PAZI</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>vredu je</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="48">
-        <v>0.20694444444444443</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="D14" s="49" t="s">
         <v>48</v>
       </c>
       <c r="E14" s="50">
-        <v>0.45208333333333334</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="F14" s="49" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G14" s="43">
         <f t="shared" si="0"/>
-        <v>0.24513888888888891</v>
+        <v>2.0833333333333259E-2</v>
       </c>
       <c r="H14" s="51">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="I14" s="46">
         <f t="shared" si="3"/>
-        <v>9.1252500000000012</v>
+        <v>3.9675000000000002</v>
       </c>
       <c r="J14" s="52" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
+      <c r="K14" s="47" t="s">
+        <v>52</v>
+      </c>
       <c r="L14" s="45">
-        <v>45868</v>
+        <v>45866</v>
       </c>
       <c r="M14" s="39" t="str">
-        <f>IF(MOD(C14-E13,1)&lt;=0.08,"PAZI","vredu je")</f>
-        <v>vredu je</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>PAZI</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="39" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>211</v>
+        <v>53</v>
       </c>
       <c r="C15" s="48">
-        <v>0.37708333333333333</v>
+        <v>0.20694444444444443</v>
       </c>
       <c r="D15" s="49" t="s">
-        <v>208</v>
+        <v>48</v>
       </c>
       <c r="E15" s="50">
-        <v>0.51944444444444449</v>
+        <v>0.45208333333333334</v>
       </c>
       <c r="F15" s="49" t="s">
-        <v>212</v>
+        <v>46</v>
       </c>
       <c r="G15" s="43">
         <f t="shared" si="0"/>
-        <v>0.14236111111111116</v>
+        <v>0.24513888888888891</v>
       </c>
       <c r="H15" s="51">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="I15" s="46">
         <f t="shared" si="3"/>
-        <v>13.88625</v>
+        <v>9.1252500000000012</v>
       </c>
       <c r="J15" s="52" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="L15" s="45">
-        <v>45870</v>
+        <v>45868</v>
       </c>
       <c r="M15" s="39" t="str">
         <f t="shared" si="2"/>
         <v>vredu je</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="39" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>213</v>
+        <v>54</v>
       </c>
       <c r="C16" s="48">
-        <v>0.71527777777777779</v>
+        <v>0.87916666666666665</v>
       </c>
       <c r="D16" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="50">
+        <v>0.96527777777777779</v>
+      </c>
+      <c r="F16" s="49" t="s">
         <v>25</v>
-      </c>
-      <c r="E16" s="50">
-        <v>0.8</v>
-      </c>
-      <c r="F16" s="49" t="s">
-        <v>46</v>
       </c>
       <c r="G16" s="43">
         <f t="shared" si="0"/>
-        <v>8.4722222222222254E-2</v>
+        <v>8.6111111111111138E-2</v>
       </c>
       <c r="H16" s="51">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I16" s="46">
         <f t="shared" si="3"/>
-        <v>12.828250000000001</v>
+        <v>12.960500000000001</v>
       </c>
       <c r="J16" s="52" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="L16" s="45">
-        <v>45870</v>
+        <v>45869</v>
       </c>
       <c r="M16" s="39" t="str">
         <f t="shared" si="2"/>
         <v>vredu je</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="39" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>207</v>
+        <v>55</v>
       </c>
       <c r="C17" s="48">
-        <v>0.80625000000000002</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="D17" s="49" t="s">
-        <v>208</v>
+        <v>25</v>
       </c>
       <c r="E17" s="50">
-        <v>0.24583333333333332</v>
+        <v>0.15277777777777779</v>
       </c>
       <c r="F17" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="53">
+        <v>56</v>
+      </c>
+      <c r="G17" s="43">
         <f t="shared" si="0"/>
-        <v>0.43958333333333333</v>
+        <v>0.14027777777777778</v>
       </c>
       <c r="H17" s="51">
-        <v>285</v>
+        <v>79</v>
       </c>
       <c r="I17" s="46">
         <f t="shared" si="3"/>
-        <v>37.691250000000004</v>
+        <v>10.447750000000001</v>
       </c>
       <c r="J17" s="52" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K17" s="57" t="s">
-        <v>55</v>
-      </c>
       <c r="L17" s="45">
-        <v>45871</v>
+        <v>45872</v>
       </c>
       <c r="M17" s="39" t="str">
-        <f>IF(MOD(C17-E16,1)&lt;=0.08,"PAZI","vredu je")</f>
+        <f t="shared" si="2"/>
         <v>PAZI</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="39" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C18" s="48">
         <v>0.80486111111111114</v>
@@ -4767,17 +4280,17 @@
         <v>0</v>
       </c>
       <c r="K18" s="57" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L18" s="45">
         <v>45873</v>
       </c>
       <c r="M18" s="39" t="str">
-        <f>IF(MOD(C18-E17,1)&lt;=0.08,"PAZI","vredu je")</f>
+        <f t="shared" si="2"/>
         <v>vredu je</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C19" s="48"/>
       <c r="E19" s="50"/>
       <c r="G19" s="43"/>
@@ -4785,7 +4298,7 @@
       <c r="J19" s="52"/>
       <c r="L19" s="45"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C20" s="48"/>
       <c r="E20" s="50"/>
       <c r="G20" s="43"/>
@@ -4793,7 +4306,7 @@
       <c r="J20" s="52"/>
       <c r="L20" s="45"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C21" s="48"/>
       <c r="E21" s="50"/>
       <c r="G21" s="43"/>
@@ -4801,12 +4314,12 @@
       <c r="J21" s="52"/>
       <c r="L21" s="45"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="39" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C22" s="48">
         <v>8.3333333333333329E-2</v>
@@ -4818,32 +4331,32 @@
         <v>0.2638888888888889</v>
       </c>
       <c r="F22" s="49" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G22" s="43">
         <f t="shared" si="0"/>
         <v>0.18055555555555558</v>
       </c>
-      <c r="I22" s="131">
+      <c r="I22" s="123">
         <v>337.1</v>
       </c>
-      <c r="J22" s="139" t="b">
+      <c r="J22" s="125" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="K22" s="137" t="s">
+      <c r="K22" s="117" t="s">
         <v>33</v>
       </c>
       <c r="L22" s="45">
         <v>45877</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="39" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C23" s="48">
         <v>0.33333333333333331</v>
@@ -4861,113 +4374,56 @@
         <f t="shared" si="0"/>
         <v>3.8194444444444475E-2</v>
       </c>
-      <c r="I23" s="131"/>
-      <c r="J23" s="139"/>
-      <c r="K23" s="137"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="125"/>
+      <c r="K23" s="117"/>
       <c r="L23" s="45">
         <v>45877</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="39" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G28" s="42"/>
     </row>
-    <row r="29" spans="1:13" s="62" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" s="62" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="61"/>
       <c r="C29" s="63"/>
       <c r="D29" s="64"/>
       <c r="F29" s="64"/>
-      <c r="G29" s="65"/>
+      <c r="G29" s="65">
+        <f>SUM(G3:G23)</f>
+        <v>3.5</v>
+      </c>
       <c r="H29" s="66" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I29" s="67">
         <f>SUM(I3:I28)</f>
-        <v>1088.4100000000003</v>
+        <v>1038.4195000000002</v>
       </c>
       <c r="J29" s="67">
-        <f>SUM(IF(J3,0,I3),IF(J5,0,I5),IF(J6,0,I6),IF(J7,0,I7),IF(J8,0,I8),IF(J9,0,I9),IF(J10,0,I10),IF(J11,0,I11),IF(J12,0,I12),IF(J13,0,I13),IF(J14,0,I14),IF(J17,0,I17),IF(J18,0,I18),IF(J19,0,I19),IF(J20,0,I20),IF(J21,0,I21),IF(J22,0,I22),IF(J23,0,I23),IF(J24,0,I24))</f>
-        <v>387.49550000000005</v>
+        <f>SUM(IF(J3,0,I3),IF(J5,0,I5),IF(J6,0,I6),IF(J7,0,I7),IF(J8,0,I8),IF(J9,0,I9),IF(J10,0,I10),IF(J11,0,I11),IF(J12,0,I12),IF(J13,0,I13),IF(J14,0,I14),IF(J15,0,I15),IF(J16,0,I16),IF(J17,0,I17),IF(J18,0,I18),IF(J19,0,I19),IF(J20,0,I20),IF(J21,0,I21),IF(J22,0,I22),IF(J23,0,I23),IF(J24,0,I24))</f>
+        <v>364.21950000000004</v>
       </c>
       <c r="K29" s="68"/>
       <c r="L29" s="61"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J30" s="52" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="132" t="s">
-        <v>218</v>
-      </c>
-      <c r="B33" s="133"/>
-      <c r="C33" s="134" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="133"/>
-      <c r="E33" s="134" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="133"/>
-      <c r="G33" s="113" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" s="135" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="133"/>
-      <c r="J33" s="114" t="s">
-        <v>219</v>
-      </c>
-      <c r="K33" s="115"/>
-      <c r="L33" s="112"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="48">
-        <v>0.38194444444444442</v>
-      </c>
-      <c r="D35" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="E35" s="50">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="F35" s="49" t="s">
-        <v>216</v>
-      </c>
-      <c r="G35" s="50">
-        <f>MOD(E35 - C35, 1)</f>
-        <v>3.4722222222222265E-2</v>
-      </c>
-      <c r="H35" s="117">
-        <f>G35</f>
-        <v>3.4722222222222265E-2</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="H33:I33"/>
+  <mergeCells count="10">
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="K22:K23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J22:J23"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J22:J23"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
@@ -4975,7 +4431,7 @@
       <formula>NOT(ISERROR(SEARCH("taxi",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B32 A33 A34:B1048576">
+  <conditionalFormatting sqref="A1:B1048576">
     <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="Avto">
       <formula>NOT(ISERROR(SEARCH("Avto",A1)))</formula>
     </cfRule>
@@ -4986,13 +4442,13 @@
       <formula>NOT(ISERROR(SEARCH("Letalo",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1 D5:D11 D13 D17:D32 D34:D1048576">
+  <conditionalFormatting sqref="D1 D5:D11 D13 D16:D1048576">
     <cfRule type="expression" dxfId="2" priority="7">
       <formula>"AND(B1&lt;&gt;"" "" , B1&lt;TIME(6,0,0))"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G40">
-    <cfRule type="iconSet" priority="59">
+  <conditionalFormatting sqref="G3:G28">
+    <cfRule type="iconSet" priority="28">
       <iconSet iconSet="5Quarters">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0"/>
@@ -5003,7 +4459,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I28">
-    <cfRule type="colorScale" priority="61">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5034,26 +4490,26 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="8" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.7109375" style="8" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="8"/>
+    <col min="7" max="7" width="21.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.6640625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="47" t="s">
         <v>17</v>
       </c>
@@ -5077,7 +4533,7 @@
       </c>
       <c r="J1" s="8"/>
     </row>
-    <row r="2" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="69"/>
       <c r="B2" s="70">
         <v>45852</v>
@@ -5106,7 +4562,7 @@
       <c r="K2" s="73"/>
       <c r="L2" s="73"/>
     </row>
-    <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="73"/>
       <c r="C3" s="73"/>
       <c r="D3" s="73"/>
@@ -5119,13 +4575,13 @@
         <v>37</v>
       </c>
       <c r="J3" s="74" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L3" s="75" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="76"/>
       <c r="C4" s="76"/>
       <c r="D4" s="76"/>
@@ -5134,7 +4590,7 @@
       <c r="G4" s="73"/>
       <c r="J4" s="77"/>
     </row>
-    <row r="5" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="78"/>
       <c r="B5" s="79">
         <v>45859</v>
@@ -5159,15 +4615,15 @@
       </c>
       <c r="I5" s="78"/>
       <c r="J5" s="83" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B6" s="73" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="73" t="s">
         <v>37</v>
@@ -5186,7 +4642,7 @@
       </c>
       <c r="J6" s="84"/>
     </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="73"/>
       <c r="C7" s="73"/>
       <c r="D7" s="73"/>
@@ -5194,7 +4650,7 @@
       <c r="F7" s="73"/>
       <c r="G7" s="73"/>
     </row>
-    <row r="8" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="78"/>
       <c r="B8" s="85">
         <v>45866</v>
@@ -5211,7 +4667,7 @@
       <c r="F8" s="85">
         <v>45870</v>
       </c>
-      <c r="G8" s="88">
+      <c r="G8" s="85">
         <v>45871</v>
       </c>
       <c r="H8" s="85">
@@ -5219,7 +4675,7 @@
       </c>
       <c r="I8" s="86"/>
     </row>
-    <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="87" t="s">
         <v>47</v>
       </c>
@@ -5236,13 +4692,13 @@
         <v>2</v>
       </c>
       <c r="G9" s="87" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H9" s="87" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="87"/>
       <c r="C10" s="87"/>
       <c r="D10" s="87"/>
@@ -5250,7 +4706,7 @@
       <c r="F10" s="87"/>
       <c r="G10" s="87"/>
     </row>
-    <row r="11" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="78"/>
       <c r="B11" s="88">
         <v>45873</v>
@@ -5274,7 +4730,7 @@
         <v>45879</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="87" t="s">
         <v>45</v>
       </c>
@@ -5293,7 +4749,7 @@
       <c r="G12" s="87"/>
       <c r="H12" s="87"/>
     </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="87"/>
       <c r="C13" s="87"/>
       <c r="D13" s="87"/>
@@ -5301,7 +4757,7 @@
       <c r="F13" s="87"/>
       <c r="G13" s="87"/>
     </row>
-    <row r="14" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="92"/>
       <c r="B14" s="93">
         <v>45880</v>
@@ -5313,7 +4769,7 @@
         <v>45882</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Kitajska.xlsx
+++ b/Kitajska.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jurci\Documents\Zuzeljko\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jurci\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FF4ECC-DA47-4AFC-8376-475D3B6B56A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4173ED-76F4-4AB1-AB83-8336E310DD1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7973F123-3AAD-47CF-BA65-2A019CE80CD0}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="257">
   <si>
     <t>Kitajska 2025</t>
   </si>
@@ -195,24 +195,9 @@
     <t>/</t>
   </si>
   <si>
-    <t>Tongfu Inn</t>
-  </si>
-  <si>
-    <t>taksi do prenočišča</t>
-  </si>
-  <si>
     <t>K688</t>
   </si>
   <si>
-    <t>D5117</t>
-  </si>
-  <si>
-    <t>G4862</t>
-  </si>
-  <si>
-    <t>Xian North</t>
-  </si>
-  <si>
     <t>D20</t>
   </si>
   <si>
@@ -234,9 +219,6 @@
     <t>Z162</t>
   </si>
   <si>
-    <t>K1374</t>
-  </si>
-  <si>
     <t>Huaihua</t>
   </si>
   <si>
@@ -309,12 +291,6 @@
     <t>27-28.7</t>
   </si>
   <si>
-    <t>sleeper kunming -&gt; zhangjiajie</t>
-  </si>
-  <si>
-    <t>30-31.7</t>
-  </si>
-  <si>
     <t>Chongqin</t>
   </si>
   <si>
@@ -333,9 +309,6 @@
     <t>Cena/noč/osebo</t>
   </si>
   <si>
-    <t>31.7-2.8</t>
-  </si>
-  <si>
     <t>https://www.booking.com/hotel/cn/chengdu-lazybones-hostel-templeside-poshpacker.en-gb.html</t>
   </si>
   <si>
@@ -688,13 +661,163 @@
   </si>
   <si>
     <t>4€/dan</t>
+  </si>
+  <si>
+    <t>K4538</t>
+  </si>
+  <si>
+    <t>Chongqing West</t>
+  </si>
+  <si>
+    <t>30-2.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avto </t>
+  </si>
+  <si>
+    <t>K143</t>
+  </si>
+  <si>
+    <t>Chengdu West</t>
+  </si>
+  <si>
+    <t>C3406</t>
+  </si>
+  <si>
+    <t>sleeper kunming -&gt; Huaihua</t>
+  </si>
+  <si>
+    <t>Huaihua South</t>
+  </si>
+  <si>
+    <t>PRESTOP; DRUGA POSTAJA</t>
+  </si>
+  <si>
+    <t>Znani taksiji</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
+    <t>Mesto</t>
+  </si>
+  <si>
+    <t>Znamenitosti</t>
+  </si>
+  <si>
+    <t>Let</t>
+  </si>
+  <si>
+    <t>Shanghai &amp; Kunming</t>
+  </si>
+  <si>
+    <t>Heaven's gate, Furong ancient city</t>
+  </si>
+  <si>
+    <t>National park, Glass bridge</t>
+  </si>
+  <si>
+    <t>Tor</t>
+  </si>
+  <si>
+    <t>Pon</t>
+  </si>
+  <si>
+    <t>Ned</t>
+  </si>
+  <si>
+    <t>Sob</t>
+  </si>
+  <si>
+    <t>Sre</t>
+  </si>
+  <si>
+    <t>Čet</t>
+  </si>
+  <si>
+    <t>Pet</t>
+  </si>
+  <si>
+    <t>Thatched cottage museum</t>
+  </si>
+  <si>
+    <t>8:00-18:30</t>
+  </si>
+  <si>
+    <t>Panda research, Thatched cottage</t>
+  </si>
+  <si>
+    <t>Jade dragon mountain, Nightlife z Lanom</t>
+  </si>
+  <si>
+    <t>Longjing Tea, Yunqi bamboo forest</t>
+  </si>
+  <si>
+    <t>Terracotta, citywalls, muslim quarter</t>
+  </si>
+  <si>
+    <t>Intenziteta</t>
+  </si>
+  <si>
+    <t>G6438</t>
+  </si>
+  <si>
+    <t>Gondola -&gt; MountHua</t>
+  </si>
+  <si>
+    <t>Three pagodas, Erhai Lake,zvečer klub kunming</t>
+  </si>
+  <si>
+    <t>Kunming z lanom</t>
+  </si>
+  <si>
+    <t>Yu garden &amp; bazaar || Kunming zvečer</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Xihui park &amp; Jichang garden, Yinyang market</t>
+  </si>
+  <si>
+    <t>Hongya, three gorges museum</t>
+  </si>
+  <si>
+    <t>Marriage market, Huangpu, Rooftop bar</t>
+  </si>
+  <si>
+    <t>free*</t>
+  </si>
+  <si>
+    <t>17:00-24:00</t>
+  </si>
+  <si>
+    <t>Sir Elly's terrace</t>
+  </si>
+  <si>
+    <t>Wulong cave + ?</t>
+  </si>
+  <si>
+    <t>vlak x2</t>
+  </si>
+  <si>
+    <t>798 art zone, summer palace</t>
+  </si>
+  <si>
+    <t>center (forbidden, tiananmen, wangfujing)</t>
+  </si>
+  <si>
+    <t>Great Wall, capital museum, večer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;_);[Red]\(#,##0\ &quot;€&quot;\)"/>
     <numFmt numFmtId="44" formatCode="_ * #,##0.00_)\ &quot;€&quot;_ ;_ * \(#,##0.00\)\ &quot;€&quot;_ ;_ * &quot;-&quot;??_)\ &quot;€&quot;_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="[$]hh:mm;@" x16r2:formatCode16="[$-en-SI,1]hh:mm;@"/>
@@ -703,6 +826,7 @@
     <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="168" formatCode="_ * #,##0_)\ [$CNY]_ ;_ * \(#,##0\)\ [$CNY]_ ;_ * &quot;-&quot;_)\ [$CNY]_ ;_ @_ "/>
     <numFmt numFmtId="169" formatCode="#,##0.0000\ &quot;€&quot;"/>
+    <numFmt numFmtId="170" formatCode="0.00000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -868,7 +992,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="54">
+  <borders count="60">
     <border>
       <left/>
       <right/>
@@ -1509,6 +1633,70 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1519,7 +1707,7 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1531,32 +1719,7 @@
     <xf numFmtId="165" fontId="14" fillId="5" borderId="0" xfId="5" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="12" fillId="3" borderId="49" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="8" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="8" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="6" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="22" xfId="4" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1717,9 +1880,6 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1730,6 +1890,26 @@
     <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1742,12 +1922,33 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1763,15 +1964,56 @@
     <xf numFmtId="165" fontId="0" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="22" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="5" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="59" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="4" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
@@ -2170,10 +2412,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="C3:S22"/>
+  <dimension ref="C3:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="97" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2183,115 +2425,491 @@
     <col min="4" max="4" width="17.44140625" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5546875" style="8" customWidth="1"/>
-    <col min="7" max="11" width="9.109375" style="8"/>
-    <col min="12" max="12" width="10" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="46"/>
+    <col min="8" max="8" width="9.109375" style="8"/>
+    <col min="9" max="9" width="19.5546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.33203125" style="104" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" style="43" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="9.109375" style="8"/>
     <col min="16" max="16" width="9.5546875" style="8" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="112" t="s">
+      <c r="C3" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-    </row>
-    <row r="4" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-    </row>
-    <row r="5" spans="3:19" ht="21.6" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="9" t="s">
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+    </row>
+    <row r="4" spans="3:19" s="34" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="H4" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="K4" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="34" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="3:19" s="34" customFormat="1" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="10">
-        <v>45693</v>
-      </c>
-      <c r="E5" s="11">
+      <c r="D5" s="125">
+        <v>45734</v>
+      </c>
+      <c r="E5" s="126">
         <f ca="1">NOW()</f>
-        <v>45707.529053009261</v>
-      </c>
-    </row>
-    <row r="6" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C6" s="12"/>
-    </row>
-    <row r="7" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C7" s="8" t="s">
+        <v>45734.556155902777</v>
+      </c>
+      <c r="G5" s="127" t="s">
+        <v>229</v>
+      </c>
+      <c r="H5" s="128">
+        <v>45857</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="L5" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:19" s="34" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="129"/>
+      <c r="G6" s="127" t="s">
+        <v>228</v>
+      </c>
+      <c r="H6" s="128">
+        <v>45858</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="L6" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" s="34" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C8" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" s="14">
+      <c r="D7" s="130" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="H7" s="128">
+        <v>45859</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="L7" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19" s="34" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="129" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="131">
         <f>Stroški!D9</f>
-        <v>1838.1067000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C9" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="P9" s="14"/>
-      <c r="S9" s="14"/>
-    </row>
-    <row r="10" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C10" s="18"/>
-      <c r="P10" s="14"/>
-    </row>
-    <row r="11" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C11" s="15"/>
-      <c r="P11" s="14"/>
-      <c r="S11" s="14"/>
-    </row>
-    <row r="12" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C12" s="15"/>
-      <c r="P12" s="19"/>
-    </row>
-    <row r="13" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C13" s="18"/>
-    </row>
-    <row r="14" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C14" s="18"/>
-    </row>
-    <row r="15" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C15" s="15"/>
-      <c r="P15" s="14"/>
-    </row>
-    <row r="16" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C16" s="12"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" s="15"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C19" s="20"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C20" s="21"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C21" s="22"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C22" s="21"/>
+        <v>1892.0892000000003</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="H8" s="128">
+        <v>45860</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="L8" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19" s="34" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="132" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="133" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="134" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="H9" s="128">
+        <v>45861</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="J9" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="K9" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="L9" s="34">
+        <v>2</v>
+      </c>
+      <c r="P9" s="131"/>
+      <c r="S9" s="131"/>
+    </row>
+    <row r="10" spans="3:19" s="34" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="129"/>
+      <c r="G10" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="H10" s="128">
+        <v>45862</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="K10" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="L10" s="34">
+        <v>5</v>
+      </c>
+      <c r="P10" s="131"/>
+    </row>
+    <row r="11" spans="3:19" s="34" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="132"/>
+      <c r="G11" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="H11" s="128">
+        <v>45863</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="K11" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="L11" s="34">
+        <v>3</v>
+      </c>
+      <c r="P11" s="131"/>
+      <c r="S11" s="131"/>
+    </row>
+    <row r="12" spans="3:19" s="34" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="132"/>
+      <c r="G12" s="127" t="s">
+        <v>229</v>
+      </c>
+      <c r="H12" s="128">
+        <v>45864</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="L12" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="P12" s="135"/>
+    </row>
+    <row r="13" spans="3:19" s="34" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="129"/>
+      <c r="G13" s="127" t="s">
+        <v>228</v>
+      </c>
+      <c r="H13" s="128">
+        <v>45865</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="L13" s="34" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="3:19" s="34" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="129"/>
+      <c r="G14" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="H14" s="128">
+        <v>45866</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="L14" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="3:19" s="34" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="132"/>
+      <c r="G15" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="H15" s="128">
+        <v>45867</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="L15" s="34">
+        <v>4</v>
+      </c>
+      <c r="P15" s="131"/>
+    </row>
+    <row r="16" spans="3:19" s="34" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="129"/>
+      <c r="G16" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="H16" s="128">
+        <v>45868</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="L16" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" s="34" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="132"/>
+      <c r="G17" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="H17" s="128">
+        <v>45869</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="L17" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" s="34" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="H18" s="128">
+        <v>45870</v>
+      </c>
+      <c r="I18" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="K18" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="L18" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" s="34" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="136"/>
+      <c r="G19" s="127" t="s">
+        <v>229</v>
+      </c>
+      <c r="H19" s="128">
+        <v>45871</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="L19" s="34" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" s="34" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="136"/>
+      <c r="G20" s="127" t="s">
+        <v>228</v>
+      </c>
+      <c r="H20" s="128">
+        <v>45872</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="L20" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" s="34" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="137"/>
+      <c r="G21" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="H21" s="128">
+        <v>45873</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="L21" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" s="34" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="136"/>
+      <c r="G22" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="H22" s="128">
+        <v>45874</v>
+      </c>
+      <c r="I22" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="L22" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" s="34" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G23" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="H23" s="128">
+        <v>45875</v>
+      </c>
+      <c r="I23" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="K23" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="L23" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" s="34" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G24" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="H24" s="128">
+        <v>45876</v>
+      </c>
+      <c r="I24" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="L24" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" s="34" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G25" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="H25" s="128">
+        <v>45877</v>
+      </c>
+      <c r="I25" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="K25" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="L25" s="34">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C3:E4"/>
   </mergeCells>
+  <conditionalFormatting sqref="L5:L25">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="4Rating">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1" gte="0"/>
+        <cfvo type="num" val="3" gte="0"/>
+        <cfvo type="num" val="4" gte="0"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2303,8 +2921,8 @@
   </sheetPr>
   <dimension ref="A2:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2324,86 +2942,86 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="H2" s="114" t="s">
-        <v>77</v>
-      </c>
-      <c r="I2" s="115"/>
-      <c r="J2" s="23" t="s">
+      <c r="H2" s="108" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="109"/>
+      <c r="J2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="M2" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="N2" s="25" t="s">
-        <v>93</v>
+      <c r="L2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C3" s="8" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D3" s="5">
         <v>36</v>
       </c>
-      <c r="G3" s="26"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="I3" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="K3" s="14">
+      <c r="K3" s="9">
         <v>131</v>
       </c>
       <c r="L3" s="8">
         <v>3</v>
       </c>
-      <c r="M3" s="28">
+      <c r="M3" s="15">
         <f>K3/L3/5</f>
         <v>8.7333333333333325</v>
       </c>
-      <c r="N3" s="100" t="s">
-        <v>102</v>
+      <c r="N3" s="87" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C4" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D4" s="4">
         <f>M12</f>
-        <v>126.2</v>
-      </c>
-      <c r="G4" s="26"/>
+        <v>134.19999999999999</v>
+      </c>
+      <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
         <v>4</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="K4" s="14">
+        <v>80</v>
+      </c>
+      <c r="K4" s="9">
         <v>0</v>
       </c>
       <c r="L4" s="8">
         <v>4</v>
       </c>
-      <c r="M4" s="28">
+      <c r="M4" s="15">
         <f t="shared" ref="M4:M11" si="0">K4/L4/5</f>
         <v>0</v>
       </c>
-      <c r="N4" s="26"/>
+      <c r="N4" s="13"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C5" s="8" t="s">
@@ -2411,32 +3029,32 @@
       </c>
       <c r="D5" s="4">
         <f>Prevozi!I29</f>
-        <v>1038.4195000000002</v>
+        <v>1088.4100000000003</v>
       </c>
       <c r="E5" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>89</v>
-      </c>
       <c r="J5" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="K5" s="14">
+        <v>82</v>
+      </c>
+      <c r="K5" s="9">
         <v>0</v>
       </c>
       <c r="L5" s="8">
         <v>1</v>
       </c>
-      <c r="M5" s="28">
+      <c r="M5" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N5" s="26"/>
+      <c r="N5" s="13"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C6" s="8" t="s">
@@ -2446,28 +3064,28 @@
         <f>20*L12</f>
         <v>360</v>
       </c>
-      <c r="G6" s="26"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="27" t="s">
-        <v>81</v>
+      <c r="I6" s="14" t="s">
+        <v>75</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="K6" s="14">
+        <v>76</v>
+      </c>
+      <c r="K6" s="9">
         <v>106</v>
       </c>
       <c r="L6" s="8">
         <v>2</v>
       </c>
-      <c r="M6" s="28">
+      <c r="M6" s="15">
         <f t="shared" si="0"/>
         <v>10.6</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -2475,180 +3093,172 @@
         <v>44</v>
       </c>
       <c r="D7" s="6">
-        <f>Zanimivosti!E27*B14</f>
-        <v>277.48719999999997</v>
-      </c>
-      <c r="G7" s="26"/>
+        <f>Zanimivosti!D27*B14</f>
+        <v>273.47919999999999</v>
+      </c>
+      <c r="G7" s="13"/>
       <c r="H7" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>92</v>
+        <v>83</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>84</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="K7" s="14">
-        <v>76</v>
+        <v>209</v>
+      </c>
+      <c r="K7" s="9">
+        <v>226</v>
       </c>
       <c r="L7" s="8">
-        <v>1</v>
-      </c>
-      <c r="M7" s="28">
+        <v>3</v>
+      </c>
+      <c r="M7" s="15">
         <f t="shared" si="0"/>
-        <v>15.2</v>
+        <v>15.066666666666666</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="8" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D8" s="6">
         <v>70</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="G8" s="26"/>
+        <v>206</v>
+      </c>
+      <c r="G8" s="13"/>
       <c r="H8" s="8" t="s">
         <v>2</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="K8" s="14">
-        <v>110</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="K8" s="9"/>
       <c r="L8" s="8">
-        <v>2</v>
-      </c>
-      <c r="M8" s="28">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M8" s="15"/>
       <c r="N8" s="3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="30">
+      <c r="C9" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="17">
         <f>SUM(D3:D7)</f>
-        <v>1838.1067000000003</v>
-      </c>
-      <c r="G9" s="26"/>
+        <v>1892.0892000000003</v>
+      </c>
+      <c r="G9" s="13"/>
       <c r="H9" s="8" t="s">
         <v>45</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="K9" s="14">
+        <v>91</v>
+      </c>
+      <c r="K9" s="9">
         <v>112</v>
       </c>
       <c r="L9" s="8">
         <v>2</v>
       </c>
-      <c r="M9" s="28">
+      <c r="M9" s="15">
         <f t="shared" si="0"/>
         <v>11.2</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G10" s="26"/>
+      <c r="G10" s="13"/>
       <c r="H10" s="8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="K10" s="14">
+        <v>95</v>
+      </c>
+      <c r="K10" s="9">
         <v>0</v>
       </c>
       <c r="L10" s="8">
         <v>1</v>
       </c>
-      <c r="M10" s="28">
+      <c r="M10" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N10" s="26"/>
+      <c r="N10" s="13"/>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="31" t="s">
-        <v>109</v>
+      <c r="C11" s="18" t="s">
+        <v>100</v>
       </c>
       <c r="D11" s="7">
         <f>675</f>
         <v>675</v>
       </c>
-      <c r="G11" s="26"/>
+      <c r="G11" s="13"/>
       <c r="H11" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I11" s="27" t="s">
-        <v>106</v>
+      <c r="I11" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="K11" s="14">
+        <v>96</v>
+      </c>
+      <c r="K11" s="9">
         <v>96</v>
       </c>
       <c r="L11" s="8">
         <v>2</v>
       </c>
-      <c r="M11" s="28">
+      <c r="M11" s="15">
         <f t="shared" si="0"/>
         <v>9.6</v>
       </c>
-      <c r="N11" s="101" t="s">
-        <v>107</v>
+      <c r="N11" s="88" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J12" s="29"/>
-      <c r="K12" s="30">
+      <c r="J12" s="16"/>
+      <c r="K12" s="17">
         <f>SUM(K3:K11)</f>
-        <v>631</v>
-      </c>
-      <c r="L12" s="29">
+        <v>671</v>
+      </c>
+      <c r="L12" s="16">
         <f>SUM(L3:L11)</f>
         <v>18</v>
       </c>
-      <c r="M12" s="32">
+      <c r="M12" s="19">
         <f>K12/5</f>
-        <v>126.2</v>
+        <v>134.19999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M13" s="28">
+      <c r="M13" s="15">
         <f>M12/L12</f>
-        <v>7.0111111111111111</v>
+        <v>7.4555555555555548</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="B14" s="34">
+      <c r="A14" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="21">
         <f>0.1336</f>
         <v>0.1336</v>
       </c>
@@ -2673,6 +3283,7 @@
     <hyperlink ref="I6" r:id="rId1" xr:uid="{7BFED6F3-B255-4064-96DD-A36C12149613}"/>
     <hyperlink ref="I3" r:id="rId2" xr:uid="{1D79D774-64B9-4F55-933E-AB4D4B2A31B7}"/>
     <hyperlink ref="I11" r:id="rId3" xr:uid="{370BE46D-34E3-4E41-B264-34947293E8DD}"/>
+    <hyperlink ref="I7" r:id="rId4" xr:uid="{A249CB44-B56B-4C49-B81A-2FBD4AF04AC7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2683,10 +3294,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B3:Q31"/>
+  <dimension ref="B3:T31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView topLeftCell="I3" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2696,851 +3307,912 @@
     <col min="3" max="3" width="26" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.109375" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="26.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" style="8" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" style="8" customWidth="1"/>
-    <col min="11" max="11" width="34.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.109375" style="8"/>
-    <col min="15" max="15" width="24.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.109375" style="8"/>
+    <col min="6" max="6" width="10" style="8" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.5546875" style="8" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="34.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.109375" style="8"/>
+    <col min="17" max="17" width="5.6640625" style="8" customWidth="1"/>
+    <col min="18" max="18" width="24.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="95" t="s">
+    <row r="3" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="103">
+      <c r="E4" s="90">
         <f>SUM(E5:E13)</f>
         <v>615</v>
       </c>
-      <c r="G4" s="95" t="s">
+      <c r="H4" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="103">
-        <f>SUM(I5:I10)</f>
+      <c r="J4" s="90">
+        <f>SUM(J5:J10)</f>
         <v>210</v>
       </c>
-      <c r="K4" s="95" t="s">
+      <c r="K4" s="138"/>
+      <c r="M4" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="103">
-        <f>SUM(M5:M8)</f>
+      <c r="O4" s="90">
+        <f>SUM(O5:O8)</f>
         <v>771</v>
       </c>
-      <c r="O4" s="95" t="s">
+      <c r="P4" s="138"/>
+      <c r="R4" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="Q4" s="103">
-        <f>SUM(Q5:Q11)</f>
+      <c r="T4" s="90">
+        <f>SUM(T5:T11)</f>
         <v>455</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="96">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B5" s="83">
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="92">
+        <v>30</v>
+      </c>
+      <c r="G5" s="83">
+        <v>1</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="I5" s="84" t="s">
+        <v>132</v>
+      </c>
+      <c r="J5" s="89">
+        <v>10</v>
+      </c>
+      <c r="K5" s="139"/>
+      <c r="L5" s="83">
+        <v>1</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="N5" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="O5" s="86">
+        <v>248</v>
+      </c>
+      <c r="P5" s="140"/>
+      <c r="Q5" s="83">
+        <v>1</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="S5" s="84" t="s">
+        <v>120</v>
+      </c>
+      <c r="T5" s="89">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B6" s="83">
+        <v>2</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="89" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6" s="83">
+        <v>2</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="I6" s="84" t="s">
+        <v>132</v>
+      </c>
+      <c r="J6" s="89">
+        <v>40</v>
+      </c>
+      <c r="K6" s="139"/>
+      <c r="L6" s="83">
+        <v>2</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="N6" s="84" t="s">
+        <v>171</v>
+      </c>
+      <c r="O6" s="89">
+        <v>168</v>
+      </c>
+      <c r="P6" s="139"/>
+      <c r="Q6" s="83">
+        <v>2</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="S6" s="84" t="s">
+        <v>177</v>
+      </c>
+      <c r="T6" s="89">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B7" s="83">
+        <v>3</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="84" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="91">
+        <v>200</v>
+      </c>
+      <c r="G7" s="83">
+        <v>3</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="I7" s="84" t="s">
+        <v>135</v>
+      </c>
+      <c r="J7" s="89">
+        <v>130</v>
+      </c>
+      <c r="K7" s="139"/>
+      <c r="L7" s="83">
+        <v>3</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="N7" s="84" t="s">
+        <v>151</v>
+      </c>
+      <c r="O7" s="89">
+        <v>275</v>
+      </c>
+      <c r="P7" s="139"/>
+      <c r="Q7" s="83">
+        <v>3</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="S7" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="T7" s="86">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B8" s="83">
+        <v>4</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="105" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" s="83">
+        <v>4</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I8" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="K8" s="140"/>
+      <c r="L8" s="83">
+        <v>4</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="N8" s="84" t="s">
+        <v>173</v>
+      </c>
+      <c r="O8" s="89">
+        <v>80</v>
+      </c>
+      <c r="P8" s="139"/>
+      <c r="Q8" s="83">
+        <v>4</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="S8" s="84" t="s">
+        <v>139</v>
+      </c>
+      <c r="T8" s="93" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B9" s="83">
+        <v>5</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="84" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="89" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" s="83">
+        <v>5</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="I9" s="84" t="s">
+        <v>132</v>
+      </c>
+      <c r="J9" s="86">
+        <v>30</v>
+      </c>
+      <c r="K9" s="140"/>
+      <c r="Q9" s="83">
+        <v>5</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="S9" s="84" t="s">
+        <v>160</v>
+      </c>
+      <c r="T9" s="86">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="83">
+        <v>6</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D5" s="97" t="s">
-        <v>117</v>
-      </c>
-      <c r="E5" s="106">
+      <c r="D10" s="84" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="89">
+        <v>70</v>
+      </c>
+      <c r="G10" s="83">
+        <v>6</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I10" s="84" t="s">
+        <v>139</v>
+      </c>
+      <c r="J10" s="89" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" s="139"/>
+      <c r="Q10" s="83">
+        <v>6</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="S10" s="84" t="s">
+        <v>187</v>
+      </c>
+      <c r="T10" s="89">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="83">
+        <v>7</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="84" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="91">
+        <v>180</v>
+      </c>
+      <c r="M11" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="90">
+        <f>SUM(O12:O18)</f>
+        <v>170</v>
+      </c>
+      <c r="P11" s="142"/>
+      <c r="Q11" s="83">
+        <v>7</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="S11" s="84" t="s">
+        <v>186</v>
+      </c>
+      <c r="T11" s="89" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B12" s="83">
+        <v>8</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="84" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="89">
+        <v>135</v>
+      </c>
+      <c r="L12" s="83">
+        <v>1</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="N12" s="84" t="s">
+        <v>139</v>
+      </c>
+      <c r="O12" s="89" t="s">
+        <v>111</v>
+      </c>
+      <c r="P12" s="139"/>
+    </row>
+    <row r="13" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="83">
+        <v>9</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="84" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="89" t="s">
+        <v>111</v>
+      </c>
+      <c r="L13" s="83">
+        <v>2</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="N13" s="84" t="s">
+        <v>156</v>
+      </c>
+      <c r="O13" s="93" t="s">
+        <v>158</v>
+      </c>
+      <c r="P13" s="141"/>
+    </row>
+    <row r="14" spans="2:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="83">
+        <v>10</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D14" s="84" t="s">
+        <v>250</v>
+      </c>
+      <c r="E14" s="89" t="s">
+        <v>249</v>
+      </c>
+      <c r="H14" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="90">
+        <f>SUM(J15:J17)</f>
+        <v>105</v>
+      </c>
+      <c r="K14" s="142"/>
+      <c r="L14" s="83">
+        <v>3</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="N14" s="84" t="s">
+        <v>160</v>
+      </c>
+      <c r="O14" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="P14" s="140"/>
+      <c r="R14" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="T14" s="90">
+        <f>SUM(T15:T23)</f>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G15" s="83">
+        <v>1</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="I15" s="84" t="s">
+        <v>139</v>
+      </c>
+      <c r="J15" s="89">
         <v>30</v>
       </c>
-      <c r="F5" s="96">
+      <c r="K15" s="139"/>
+      <c r="L15" s="83">
+        <v>4</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="N15" s="84" t="s">
+        <v>161</v>
+      </c>
+      <c r="O15" s="89" t="s">
+        <v>111</v>
+      </c>
+      <c r="P15" s="139"/>
+      <c r="Q15" s="83">
         <v>1</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="H5" s="97" t="s">
+      <c r="R15" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="S15" s="84" t="s">
+        <v>189</v>
+      </c>
+      <c r="T15" s="89">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="83">
+        <v>1</v>
+      </c>
+      <c r="C16" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="90">
+        <f>SUM(E17:E19)</f>
+        <v>60</v>
+      </c>
+      <c r="G16" s="83">
+        <v>2</v>
+      </c>
+      <c r="H16" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="I5" s="102">
+      <c r="I16" s="84" t="s">
+        <v>139</v>
+      </c>
+      <c r="J16" s="89" t="s">
+        <v>111</v>
+      </c>
+      <c r="K16" s="139"/>
+      <c r="L16" s="83">
+        <v>5</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="N16" s="84" t="s">
+        <v>126</v>
+      </c>
+      <c r="O16" s="89">
+        <v>70</v>
+      </c>
+      <c r="P16" s="139"/>
+      <c r="Q16" s="83">
+        <v>2</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="S16" s="84" t="s">
+        <v>139</v>
+      </c>
+      <c r="T16" s="93" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B17" s="83">
+        <v>2</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="84" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" s="86">
+        <v>50</v>
+      </c>
+      <c r="G17" s="83">
+        <v>3</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="I17" s="84" t="s">
+        <v>126</v>
+      </c>
+      <c r="J17" s="89">
+        <v>75</v>
+      </c>
+      <c r="K17" s="139"/>
+      <c r="L17" s="83">
+        <v>6</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="N17" s="84" t="s">
+        <v>156</v>
+      </c>
+      <c r="O17" s="89">
         <v>10</v>
       </c>
-      <c r="J5" s="96">
+      <c r="P17" s="139"/>
+      <c r="Q17" s="83">
+        <v>3</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="S17" s="94" t="s">
+        <v>192</v>
+      </c>
+      <c r="T17" s="89">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B18" s="83">
+        <v>3</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="84" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" s="89" t="s">
+        <v>111</v>
+      </c>
+      <c r="L18" s="83">
+        <v>7</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="O18" s="89">
+        <v>90</v>
+      </c>
+      <c r="P18" s="139"/>
+      <c r="Q18" s="83">
+        <v>4</v>
+      </c>
+      <c r="R18" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="S18" s="84" t="s">
+        <v>126</v>
+      </c>
+      <c r="T18" s="86">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="85" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="89">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="83">
+        <v>5</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="S19" s="84" t="s">
+        <v>195</v>
+      </c>
+      <c r="T19" s="89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H20" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="90">
+        <f>SUM(J21:J23)</f>
+        <v>250</v>
+      </c>
+      <c r="K20" s="138"/>
+      <c r="M20" s="82" t="s">
+        <v>2</v>
+      </c>
+      <c r="O20" s="90">
+        <f>SUM(O21:O26)</f>
+        <v>218</v>
+      </c>
+      <c r="P20" s="142"/>
+      <c r="Q20" s="83">
+        <v>6</v>
+      </c>
+      <c r="R20" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="S20" s="84" t="s">
+        <v>197</v>
+      </c>
+      <c r="T20" s="89">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="G21" s="83">
         <v>1</v>
       </c>
-      <c r="K5" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="L5" s="97" t="s">
-        <v>163</v>
-      </c>
-      <c r="M5" s="99">
-        <v>248</v>
-      </c>
-      <c r="N5" s="96">
+      <c r="H21" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="I21" s="84" t="s">
+        <v>145</v>
+      </c>
+      <c r="J21" s="86">
+        <v>50</v>
+      </c>
+      <c r="K21" s="139"/>
+      <c r="L21" s="83">
         <v>1</v>
       </c>
-      <c r="O5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="97" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q5" s="102">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B6" s="96">
+      <c r="M21" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="N21" s="84" t="s">
+        <v>166</v>
+      </c>
+      <c r="O21" s="89">
+        <v>58</v>
+      </c>
+      <c r="P21" s="139"/>
+      <c r="Q21" s="83">
+        <v>7</v>
+      </c>
+      <c r="R21" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="S21" s="84" t="s">
+        <v>186</v>
+      </c>
+      <c r="T21" s="89" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="G22" s="83">
         <v>2</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="97" t="s">
-        <v>119</v>
-      </c>
-      <c r="E6" s="102" t="s">
-        <v>120</v>
-      </c>
-      <c r="F6" s="96">
+      <c r="H22" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I22" s="84" t="s">
+        <v>139</v>
+      </c>
+      <c r="J22" s="93" t="s">
+        <v>184</v>
+      </c>
+      <c r="K22" s="141"/>
+      <c r="L22" s="83">
         <v>2</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="H6" s="97" t="s">
-        <v>141</v>
-      </c>
-      <c r="I6" s="102">
-        <v>40</v>
-      </c>
-      <c r="J6" s="96">
-        <v>2</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="L6" s="97" t="s">
-        <v>180</v>
-      </c>
-      <c r="M6" s="102">
+      <c r="M22" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="N22" s="84" t="s">
+        <v>156</v>
+      </c>
+      <c r="O22" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="P22" s="140"/>
+      <c r="Q22" s="83">
+        <v>8</v>
+      </c>
+      <c r="R22" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="S22" s="84" t="s">
+        <v>200</v>
+      </c>
+      <c r="T22" s="86" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="G23" s="83">
+        <v>3</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="I23" s="84" t="s">
+        <v>148</v>
+      </c>
+      <c r="J23" s="89">
+        <v>200</v>
+      </c>
+      <c r="K23" s="139"/>
+      <c r="L23" s="83">
+        <v>3</v>
+      </c>
+      <c r="M23" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="N6" s="96">
-        <v>2</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="P6" s="97" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q6" s="102">
+      <c r="N23" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="O23" s="89">
+        <v>30</v>
+      </c>
+      <c r="P23" s="139"/>
+      <c r="Q23" s="83">
+        <v>9</v>
+      </c>
+      <c r="R23" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="S23" s="84" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B7" s="96">
-        <v>3</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D7" s="97" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" s="99">
-        <v>200</v>
-      </c>
-      <c r="F7" s="96">
-        <v>3</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="H7" s="97" t="s">
-        <v>144</v>
-      </c>
-      <c r="I7" s="102">
-        <v>130</v>
-      </c>
-      <c r="J7" s="96">
-        <v>3</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="L7" s="97" t="s">
-        <v>160</v>
-      </c>
-      <c r="M7" s="102">
-        <v>275</v>
-      </c>
-      <c r="N7" s="96">
-        <v>3</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="P7" s="97" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q7" s="99">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="96">
+      <c r="T23" s="89" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="L24" s="83">
         <v>4</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="97" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" s="105" t="s">
-        <v>158</v>
-      </c>
-      <c r="F8" s="96">
-        <v>4</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="H8" s="97" t="s">
-        <v>119</v>
-      </c>
-      <c r="I8" s="99" t="s">
-        <v>120</v>
-      </c>
-      <c r="J8" s="96">
-        <v>4</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="L8" s="97" t="s">
-        <v>182</v>
-      </c>
-      <c r="M8" s="102">
+      <c r="M24" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="N24" s="84" t="s">
+        <v>156</v>
+      </c>
+      <c r="O24" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="P24" s="140"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C25" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D25" s="91">
+        <f>SUM(E4,E16,J4,J14,J20,O4,O11,O20,T4,T14)</f>
+        <v>3055</v>
+      </c>
+      <c r="E25" s="97">
+        <f>D25*D29</f>
+        <v>408.14799999999997</v>
+      </c>
+      <c r="L25" s="83">
+        <v>5</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="N25" s="84" t="s">
+        <v>132</v>
+      </c>
+      <c r="O25" s="91">
         <v>80</v>
       </c>
-      <c r="N8" s="96">
-        <v>4</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="P8" s="97" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q8" s="107" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="96">
-        <v>5</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="97" t="s">
-        <v>124</v>
-      </c>
-      <c r="E9" s="102" t="s">
-        <v>120</v>
-      </c>
-      <c r="F9" s="96">
-        <v>5</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="H9" s="97" t="s">
-        <v>141</v>
-      </c>
-      <c r="I9" s="99">
-        <v>30</v>
-      </c>
-      <c r="N9" s="96">
-        <v>5</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="P9" s="97" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q9" s="99">
+      <c r="P25" s="143"/>
+    </row>
+    <row r="26" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D26" s="8">
+        <f>SUM(E7,E12,E11,E17,J9,O5,T7,T9,O25)</f>
+        <v>1008</v>
+      </c>
+      <c r="E26" s="97">
+        <f>D26*D29</f>
+        <v>134.6688</v>
+      </c>
+      <c r="L26" s="83">
+        <v>6</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="N26" s="84" t="s">
+        <v>234</v>
+      </c>
+      <c r="O26" s="89">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="96">
-        <v>6</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10" s="97" t="s">
-        <v>129</v>
-      </c>
-      <c r="E10" s="102">
-        <v>70</v>
-      </c>
-      <c r="F10" s="96">
-        <v>6</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="H10" s="97" t="s">
-        <v>148</v>
-      </c>
-      <c r="I10" s="102" t="s">
-        <v>120</v>
-      </c>
-      <c r="N10" s="96">
-        <v>6</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="P10" s="97" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q10" s="102">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="96">
-        <v>7</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" s="97" t="s">
-        <v>128</v>
-      </c>
-      <c r="E11" s="104">
-        <v>180</v>
-      </c>
-      <c r="K11" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="M11" s="103">
-        <f>SUM(M12:M18)</f>
-        <v>170</v>
-      </c>
-      <c r="N11" s="96">
-        <v>7</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="P11" s="97" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q11" s="102" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="96">
-        <v>8</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D12" s="97" t="s">
-        <v>139</v>
-      </c>
-      <c r="E12" s="99">
-        <v>135</v>
-      </c>
-      <c r="J12" s="96">
-        <v>1</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="L12" s="97" t="s">
-        <v>148</v>
-      </c>
-      <c r="M12" s="102" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="96">
-        <v>9</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D13" s="97" t="s">
-        <v>138</v>
-      </c>
-      <c r="E13" s="102" t="s">
-        <v>120</v>
-      </c>
-      <c r="J13" s="96">
-        <v>2</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="L13" s="97" t="s">
-        <v>165</v>
-      </c>
-      <c r="M13" s="107" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G14" s="95" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="103">
-        <f>SUM(I15:I17)</f>
-        <v>105</v>
-      </c>
-      <c r="J14" s="96">
-        <v>3</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="L14" s="97" t="s">
-        <v>169</v>
-      </c>
-      <c r="M14" s="99" t="s">
-        <v>120</v>
-      </c>
-      <c r="O14" s="95" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="103">
-        <f>SUM(Q15:Q23)</f>
-        <v>201</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="95" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="103">
-        <f>SUM(E16:E18)</f>
-        <v>60</v>
-      </c>
-      <c r="F15" s="96">
-        <v>1</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="H15" s="97" t="s">
-        <v>148</v>
-      </c>
-      <c r="I15" s="102">
-        <v>30</v>
-      </c>
-      <c r="J15" s="96">
-        <v>4</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="L15" s="97" t="s">
-        <v>170</v>
-      </c>
-      <c r="M15" s="102" t="s">
-        <v>120</v>
-      </c>
-      <c r="N15" s="96">
-        <v>1</v>
-      </c>
-      <c r="O15" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="P15" s="97" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q15" s="102">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B16" s="96">
-        <v>1</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D16" s="97" t="s">
-        <v>133</v>
-      </c>
-      <c r="E16" s="99">
-        <v>50</v>
-      </c>
-      <c r="F16" s="96">
-        <v>2</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="H16" s="97" t="s">
-        <v>148</v>
-      </c>
-      <c r="I16" s="102" t="s">
-        <v>120</v>
-      </c>
-      <c r="J16" s="96">
-        <v>5</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="L16" s="97" t="s">
-        <v>135</v>
-      </c>
-      <c r="M16" s="102">
-        <v>70</v>
-      </c>
-      <c r="N16" s="96">
-        <v>2</v>
-      </c>
-      <c r="O16" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="P16" s="97" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q16" s="107" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B17" s="96">
-        <v>2</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D17" s="97" t="s">
-        <v>134</v>
-      </c>
-      <c r="E17" s="102" t="s">
-        <v>120</v>
-      </c>
-      <c r="F17" s="96">
-        <v>3</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H17" s="97" t="s">
-        <v>135</v>
-      </c>
-      <c r="I17" s="102">
-        <v>75</v>
-      </c>
-      <c r="J17" s="96">
-        <v>6</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="L17" s="97" t="s">
-        <v>165</v>
-      </c>
-      <c r="M17" s="102">
-        <v>10</v>
-      </c>
-      <c r="N17" s="96">
-        <v>3</v>
-      </c>
-      <c r="O17" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="P17" s="108" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q17" s="102">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B18" s="96">
-        <v>3</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D18" s="98" t="s">
-        <v>135</v>
-      </c>
-      <c r="E18" s="102">
-        <v>10</v>
-      </c>
-      <c r="J18" s="96">
-        <v>7</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="M18" s="102">
-        <v>90</v>
-      </c>
-      <c r="N18" s="96">
-        <v>4</v>
-      </c>
-      <c r="O18" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="P18" s="97" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q18" s="99">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N19" s="96">
-        <v>5</v>
-      </c>
-      <c r="O19" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="P19" s="97" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q19" s="102">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G20" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="103">
-        <f>SUM(I21:I23)</f>
-        <v>250</v>
-      </c>
-      <c r="K20" s="95" t="s">
-        <v>2</v>
-      </c>
-      <c r="M20" s="103">
-        <f>SUM(M21:M25)</f>
-        <v>168</v>
-      </c>
-      <c r="N20" s="96">
-        <v>6</v>
-      </c>
-      <c r="O20" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="P20" s="97" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q20" s="102">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="F21" s="96">
-        <v>1</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="H21" s="97" t="s">
-        <v>154</v>
-      </c>
-      <c r="I21" s="102">
-        <v>50</v>
-      </c>
-      <c r="J21" s="96">
-        <v>1</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="L21" s="97" t="s">
-        <v>175</v>
-      </c>
-      <c r="M21" s="102">
-        <v>58</v>
-      </c>
-      <c r="N21" s="96">
-        <v>7</v>
-      </c>
-      <c r="O21" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="P21" s="97" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q21" s="102" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="F22" s="96">
-        <v>2</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="H22" s="97" t="s">
-        <v>148</v>
-      </c>
-      <c r="I22" s="107" t="s">
-        <v>193</v>
-      </c>
-      <c r="J22" s="96">
-        <v>2</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="L22" s="97" t="s">
-        <v>165</v>
-      </c>
-      <c r="M22" s="99" t="s">
-        <v>120</v>
-      </c>
-      <c r="N22" s="96">
-        <v>8</v>
-      </c>
-      <c r="O22" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="P22" s="97" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q22" s="99" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="F23" s="96">
-        <v>3</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H23" s="97" t="s">
-        <v>157</v>
-      </c>
-      <c r="I23" s="102">
-        <v>200</v>
-      </c>
-      <c r="J23" s="96">
-        <v>3</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="L23" s="97" t="s">
-        <v>178</v>
-      </c>
-      <c r="M23" s="102">
-        <v>30</v>
-      </c>
-      <c r="N23" s="96">
-        <v>9</v>
-      </c>
-      <c r="O23" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="P23" s="97" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q23" s="102" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="J24" s="96">
-        <v>4</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="L24" s="97" t="s">
-        <v>165</v>
-      </c>
-      <c r="M24" s="99" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="D25" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="E25" s="104">
-        <f>SUM(E4,E15,I4,I14,I20,M4,M11,M20,Q4,Q14)</f>
-        <v>3005</v>
-      </c>
-      <c r="F25" s="111">
-        <f>E25*D29</f>
-        <v>401.46800000000002</v>
-      </c>
-      <c r="J25" s="96">
-        <v>5</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="L25" s="97" t="s">
-        <v>141</v>
-      </c>
-      <c r="M25" s="102">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D26" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="E26" s="8">
-        <f>SUM(E7,E12,E11,E16,I9,M5,Q7,Q9)</f>
-        <v>928</v>
-      </c>
-      <c r="F26" s="111">
-        <f>E26*D29</f>
-        <v>123.9808</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="E27" s="110">
-        <f>E25-E26</f>
-        <v>2077</v>
-      </c>
-      <c r="F27" s="111">
-        <f>E27*D29</f>
-        <v>277.48719999999997</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P26" s="139"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="D27" s="96">
+        <f>D25-D26</f>
+        <v>2047</v>
+      </c>
+      <c r="E27" s="97">
+        <f>D27*D29</f>
+        <v>273.47919999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D29">
         <f>0.1336</f>
         <v>0.1336</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="E31" s="109"/>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="E31" s="95"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -3553,26 +4225,26 @@
   <sheetPr codeName="Sheet6">
     <tabColor theme="8" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A2:N30"/>
+  <dimension ref="A2:N35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" style="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="58" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="49" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="45" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="36" customWidth="1"/>
     <col min="5" max="5" width="8.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="49" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="36" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" style="59" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" style="60" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" style="47" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5546875" style="39" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.44140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5546875" style="26" customWidth="1"/>
     <col min="13" max="13" width="9.44140625" style="8" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.6640625" style="8" bestFit="1" customWidth="1"/>
@@ -3581,846 +4253,904 @@
     <col min="18" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="118" t="s">
+    <row r="2" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="120" t="s">
+      <c r="B2" s="120"/>
+      <c r="C2" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="119"/>
-      <c r="E2" s="120" t="s">
+      <c r="D2" s="120"/>
+      <c r="E2" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="119"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="120"/>
+      <c r="G2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="121" t="s">
+      <c r="H2" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="119"/>
-      <c r="J2" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="K2" s="38" t="s">
+      <c r="I2" s="120"/>
+      <c r="J2" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="36" t="s">
+      <c r="L2" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="36" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
+      <c r="M2" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="40">
+        <v>62</v>
+      </c>
+      <c r="C3" s="27">
         <v>0.57638888888888884</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="29">
         <v>0.63541666666666663</v>
       </c>
-      <c r="F3" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="43">
+      <c r="F3" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="30">
         <f t="shared" ref="G3:G23" si="0">MOD(E3 - C3, 1)</f>
         <v>5.902777777777779E-2</v>
       </c>
-      <c r="H3" s="44"/>
-      <c r="I3" s="122">
+      <c r="H3" s="31"/>
+      <c r="I3" s="123">
         <v>337.1</v>
       </c>
-      <c r="J3" s="124" t="b">
+      <c r="J3" s="117" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="K3" s="116" t="s">
+      <c r="K3" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="45">
+      <c r="L3" s="32">
         <v>45857</v>
       </c>
-      <c r="M3" s="39" t="str">
+      <c r="M3" s="26" t="str">
         <f>IF(MOD(C4-E3,1)&lt;=0.08,"PAZI","vredu je")</f>
         <v>vredu je</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+    <row r="4" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="40">
+        <v>63</v>
+      </c>
+      <c r="C4" s="27">
         <v>0.80555555555555558</v>
       </c>
-      <c r="D4" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="42">
+      <c r="D4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="29">
         <v>0.50694444444444442</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="43">
+      <c r="G4" s="30">
         <f t="shared" si="0"/>
         <v>0.70138888888888884</v>
       </c>
-      <c r="H4" s="44"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="117"/>
-      <c r="L4" s="45">
+      <c r="H4" s="31"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="32">
         <v>45857</v>
       </c>
-      <c r="M4" s="39" t="str">
+      <c r="M4" s="26" t="str">
         <f>IF(MOD(C4-E3,1)&lt;=0.08,"PAZI","vredu je")</f>
         <v>vredu je</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="48">
+      <c r="C5" s="35">
         <v>0.42222222222222222</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="50">
+      <c r="E5" s="37">
         <v>0.49375000000000002</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="43">
+      <c r="G5" s="30">
         <f>MOD(E5 - C5, 1)</f>
         <v>7.1527777777777801E-2</v>
       </c>
-      <c r="H5" s="51">
+      <c r="H5" s="38">
         <v>49</v>
       </c>
-      <c r="I5" s="46">
+      <c r="I5" s="33">
         <f t="shared" ref="I5:I6" si="1">H5*0.13225</f>
         <v>6.4802500000000007</v>
       </c>
-      <c r="J5" s="52" t="b">
+      <c r="J5" s="39" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L5" s="45">
+      <c r="L5" s="32">
         <v>45859</v>
       </c>
-      <c r="M5" s="39" t="str">
-        <f t="shared" ref="M5:M18" si="2">IF(MOD(C5-E4,1)&lt;=0.08,"PAZI","vredu je")</f>
+      <c r="M5" s="26" t="str">
+        <f t="shared" ref="M5:M16" si="2">IF(MOD(C5-E4,1)&lt;=0.08,"PAZI","vredu je")</f>
         <v>vredu je</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="35">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="37">
         <v>0.90208333333333335</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="43">
+      <c r="G6" s="30">
         <f>MOD(E6 - C6, 1)</f>
         <v>6.8749999999999978E-2</v>
       </c>
-      <c r="H6" s="51">
+      <c r="H6" s="38">
         <v>93</v>
       </c>
-      <c r="I6" s="46">
+      <c r="I6" s="33">
         <f t="shared" si="1"/>
         <v>12.299250000000001</v>
       </c>
-      <c r="J6" s="52" t="b">
+      <c r="J6" s="39" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L6" s="45">
+      <c r="L6" s="32">
         <v>45859</v>
       </c>
-      <c r="M6" s="39" t="str">
+      <c r="M6" s="26" t="str">
         <f t="shared" si="2"/>
         <v>vredu je</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="26" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="35">
         <v>0.55902777777777779</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="50">
+      <c r="E7" s="37">
         <v>0.76388888888888884</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="43">
+      <c r="G7" s="30">
         <f t="shared" si="0"/>
         <v>0.20486111111111105</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="46">
+      <c r="H7" s="38"/>
+      <c r="I7" s="33">
         <v>155</v>
       </c>
-      <c r="J7" s="52" t="b">
+      <c r="J7" s="39" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K7" s="47" t="s">
+      <c r="K7" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="45">
+      <c r="L7" s="32">
         <v>45861</v>
       </c>
-      <c r="M7" s="39" t="str">
+      <c r="M7" s="26" t="str">
         <f t="shared" si="2"/>
         <v>vredu je</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="35">
         <v>0.32569444444444445</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="50">
+      <c r="E8" s="37">
         <v>0.41944444444444445</v>
       </c>
-      <c r="F8" s="49" t="s">
+      <c r="F8" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="43">
+      <c r="G8" s="30">
         <f>MOD(E8 - C8, 1)</f>
         <v>9.375E-2</v>
       </c>
-      <c r="H8" s="51">
+      <c r="H8" s="38">
         <v>105</v>
       </c>
-      <c r="I8" s="46">
+      <c r="I8" s="33">
         <f t="shared" ref="I8:I18" si="3">H8*0.13225</f>
         <v>13.88625</v>
       </c>
-      <c r="J8" s="52" t="b">
+      <c r="J8" s="39" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L8" s="45">
+      <c r="L8" s="32">
         <v>45863</v>
       </c>
-      <c r="M8" s="39" t="str">
+      <c r="M8" s="26" t="str">
         <f t="shared" si="2"/>
         <v>vredu je</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C9" s="35">
         <v>0.8125</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="50">
+      <c r="E9" s="37">
         <v>0.89513888888888893</v>
       </c>
-      <c r="F9" s="49" t="s">
+      <c r="F9" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="43">
+      <c r="G9" s="30">
         <f>MOD(E9 - C9, 1)</f>
         <v>8.2638888888888928E-2</v>
       </c>
-      <c r="H9" s="51">
+      <c r="H9" s="38">
         <v>109</v>
       </c>
-      <c r="I9" s="46">
+      <c r="I9" s="33">
         <f t="shared" si="3"/>
         <v>14.41525</v>
       </c>
-      <c r="J9" s="52" t="b">
+      <c r="J9" s="39" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L9" s="45">
+      <c r="L9" s="32">
         <v>45863</v>
       </c>
-      <c r="M9" s="39" t="str">
+      <c r="M9" s="26" t="str">
         <f t="shared" si="2"/>
         <v>vredu je</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="35">
         <v>0.32916666666666666</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="37">
         <v>0.49930555555555556</v>
       </c>
-      <c r="F10" s="49" t="s">
+      <c r="F10" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="43">
+      <c r="G10" s="30">
         <f>MOD(E10 - C10, 1)</f>
         <v>0.1701388888888889</v>
       </c>
-      <c r="H10" s="51">
+      <c r="H10" s="38">
         <v>116</v>
       </c>
-      <c r="I10" s="46">
+      <c r="I10" s="33">
         <f t="shared" si="3"/>
         <v>15.341000000000001</v>
       </c>
-      <c r="J10" s="52" t="b">
+      <c r="J10" s="39" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L10" s="45">
+      <c r="L10" s="32">
         <v>45864</v>
       </c>
-      <c r="M10" s="39" t="str">
+      <c r="M10" s="26" t="str">
         <f t="shared" si="2"/>
         <v>vredu je</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="48">
+      <c r="C11" s="35">
         <v>0.78402777777777777</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="50">
+      <c r="E11" s="37">
         <v>0.91874999999999996</v>
       </c>
-      <c r="F11" s="49" t="s">
+      <c r="F11" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="43">
+      <c r="G11" s="30">
         <f>MOD(E11 - C11, 1)</f>
         <v>0.13472222222222219</v>
       </c>
-      <c r="H11" s="51">
+      <c r="H11" s="38">
         <v>190</v>
       </c>
-      <c r="I11" s="46">
+      <c r="I11" s="33">
         <f t="shared" si="3"/>
         <v>25.127500000000001</v>
       </c>
-      <c r="J11" s="52" t="b">
+      <c r="J11" s="39" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L11" s="45">
+      <c r="L11" s="32">
         <v>45864</v>
       </c>
-      <c r="M11" s="39" t="str">
+      <c r="M11" s="26" t="str">
         <f t="shared" si="2"/>
         <v>vredu je</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="48">
+        <v>58</v>
+      </c>
+      <c r="C12" s="35">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="50">
+      <c r="E12" s="37">
         <v>0.37847222222222221</v>
       </c>
-      <c r="F12" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="53">
+      <c r="F12" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="40">
         <f>MOD(E12 - C12, 1)</f>
         <v>0.54513888888888884</v>
       </c>
-      <c r="H12" s="51">
+      <c r="H12" s="38">
         <v>256</v>
       </c>
-      <c r="I12" s="46">
+      <c r="I12" s="33">
         <f t="shared" si="3"/>
         <v>33.856000000000002</v>
       </c>
-      <c r="J12" s="52" t="b">
+      <c r="J12" s="39" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K12" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="L12" s="45">
+      <c r="K12" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="L12" s="32">
         <v>45865</v>
       </c>
-      <c r="M12" s="39" t="str">
+      <c r="M12" s="26" t="str">
         <f t="shared" si="2"/>
         <v>vredu je</v>
       </c>
-      <c r="N12" s="55"/>
+      <c r="N12" s="42"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="48">
-        <v>0.58680555555555558</v>
-      </c>
-      <c r="D13" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="50">
-        <v>0.75416666666666665</v>
-      </c>
-      <c r="F13" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="C13" s="35">
+        <v>0.44930555555555557</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="E13" s="37">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="F13" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="43">
+      <c r="G13" s="30">
         <f t="shared" si="0"/>
-        <v>0.16736111111111107</v>
-      </c>
-      <c r="H13" s="51">
-        <v>38</v>
-      </c>
-      <c r="I13" s="46">
+        <v>6.9444444444444475E-2</v>
+      </c>
+      <c r="H13" s="38">
+        <v>136</v>
+      </c>
+      <c r="I13" s="33">
         <f t="shared" si="3"/>
-        <v>5.0255000000000001</v>
-      </c>
-      <c r="J13" s="52" t="b">
+        <v>17.986000000000001</v>
+      </c>
+      <c r="J13" s="39" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K13" s="56"/>
-      <c r="L13" s="45">
+      <c r="K13" s="102" t="s">
+        <v>216</v>
+      </c>
+      <c r="L13" s="32">
         <v>45866</v>
       </c>
-      <c r="M13" s="39" t="str">
+      <c r="M13" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>PAZI</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="35">
+        <v>0.20694444444444443</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="37">
+        <v>0.45208333333333334</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="30">
+        <f t="shared" si="0"/>
+        <v>0.24513888888888891</v>
+      </c>
+      <c r="H14" s="38">
+        <v>69</v>
+      </c>
+      <c r="I14" s="33">
+        <f t="shared" si="3"/>
+        <v>9.1252500000000012</v>
+      </c>
+      <c r="J14" s="39" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="32">
+        <v>45868</v>
+      </c>
+      <c r="M14" s="26" t="str">
+        <f>IF(MOD(C14-E13,1)&lt;=0.08,"PAZI","vredu je")</f>
+        <v>vredu je</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C15" s="35">
+        <v>0.37708333333333333</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="E15" s="37">
+        <v>0.51944444444444449</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="G15" s="30">
+        <f t="shared" si="0"/>
+        <v>0.14236111111111116</v>
+      </c>
+      <c r="H15" s="38">
+        <v>105</v>
+      </c>
+      <c r="I15" s="33">
+        <f t="shared" si="3"/>
+        <v>13.88625</v>
+      </c>
+      <c r="J15" s="39" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="32">
+        <v>45870</v>
+      </c>
+      <c r="M15" s="26" t="str">
         <f t="shared" si="2"/>
         <v>vredu je</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="48">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="D14" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="50">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="F14" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="43">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" s="35">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="37">
+        <v>0.8</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="30">
         <f t="shared" si="0"/>
-        <v>2.0833333333333259E-2</v>
-      </c>
-      <c r="H14" s="51">
-        <v>30</v>
-      </c>
-      <c r="I14" s="46">
+        <v>8.4722222222222254E-2</v>
+      </c>
+      <c r="H16" s="38">
+        <v>97</v>
+      </c>
+      <c r="I16" s="33">
         <f t="shared" si="3"/>
-        <v>3.9675000000000002</v>
-      </c>
-      <c r="J14" s="52" t="b">
+        <v>12.828250000000001</v>
+      </c>
+      <c r="J16" s="39" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K14" s="47" t="s">
+      <c r="L16" s="32">
+        <v>45870</v>
+      </c>
+      <c r="M16" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>vredu je</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C17" s="35">
+        <v>0.80625000000000002</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="E17" s="37">
+        <v>0.24583333333333332</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="40">
+        <f t="shared" si="0"/>
+        <v>0.43958333333333333</v>
+      </c>
+      <c r="H17" s="38">
+        <v>285</v>
+      </c>
+      <c r="I17" s="33">
+        <f t="shared" si="3"/>
+        <v>37.691250000000004</v>
+      </c>
+      <c r="J17" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17" s="32">
+        <v>45871</v>
+      </c>
+      <c r="M17" s="26" t="str">
+        <f>IF(MOD(C17-E16,1)&lt;=0.08,"PAZI","vredu je")</f>
+        <v>PAZI</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="L14" s="45">
-        <v>45866</v>
-      </c>
-      <c r="M14" s="39" t="str">
-        <f t="shared" si="2"/>
-        <v>PAZI</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="48">
-        <v>0.20694444444444443</v>
-      </c>
-      <c r="D15" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="50">
-        <v>0.45208333333333334</v>
-      </c>
-      <c r="F15" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="43">
+      <c r="C18" s="35">
+        <v>0.80486111111111114</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="37">
+        <v>0.29444444444444445</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="40">
         <f t="shared" si="0"/>
-        <v>0.24513888888888891</v>
-      </c>
-      <c r="H15" s="51">
-        <v>69</v>
-      </c>
-      <c r="I15" s="46">
+        <v>0.48958333333333326</v>
+      </c>
+      <c r="H18" s="38">
+        <v>350</v>
+      </c>
+      <c r="I18" s="33">
         <f t="shared" si="3"/>
-        <v>9.1252500000000012</v>
-      </c>
-      <c r="J15" s="52" t="b">
+        <v>46.287500000000001</v>
+      </c>
+      <c r="J18" s="39" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L15" s="45">
-        <v>45868</v>
-      </c>
-      <c r="M15" s="39" t="str">
-        <f t="shared" si="2"/>
+      <c r="K18" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="L18" s="32">
+        <v>45873</v>
+      </c>
+      <c r="M18" s="26" t="str">
+        <f>IF(MOD(C18-E17,1)&lt;=0.08,"PAZI","vredu je")</f>
         <v>vredu je</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="48">
-        <v>0.87916666666666665</v>
-      </c>
-      <c r="D16" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="50">
-        <v>0.96527777777777779</v>
-      </c>
-      <c r="F16" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="43">
-        <f t="shared" si="0"/>
-        <v>8.6111111111111138E-2</v>
-      </c>
-      <c r="H16" s="51">
-        <v>98</v>
-      </c>
-      <c r="I16" s="46">
-        <f t="shared" si="3"/>
-        <v>12.960500000000001</v>
-      </c>
-      <c r="J16" s="52" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="45">
-        <v>45869</v>
-      </c>
-      <c r="M16" s="39" t="str">
-        <f t="shared" si="2"/>
-        <v>vredu je</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="48">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="D17" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="50">
-        <v>0.15277777777777779</v>
-      </c>
-      <c r="F17" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="43">
-        <f t="shared" si="0"/>
-        <v>0.14027777777777778</v>
-      </c>
-      <c r="H17" s="51">
-        <v>79</v>
-      </c>
-      <c r="I17" s="46">
-        <f t="shared" si="3"/>
-        <v>10.447750000000001</v>
-      </c>
-      <c r="J17" s="52" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="45">
-        <v>45872</v>
-      </c>
-      <c r="M17" s="39" t="str">
-        <f t="shared" si="2"/>
-        <v>PAZI</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="48">
-        <v>0.80486111111111114</v>
-      </c>
-      <c r="D18" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="50">
-        <v>0.29444444444444445</v>
-      </c>
-      <c r="F18" s="49" t="s">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C19" s="35"/>
+      <c r="E19" s="37"/>
+      <c r="G19" s="30"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="39"/>
+      <c r="L19" s="32"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C20" s="35"/>
+      <c r="E20" s="37"/>
+      <c r="G20" s="30"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="39"/>
+      <c r="L20" s="32"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C21" s="35"/>
+      <c r="E21" s="37"/>
+      <c r="G21" s="30"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="39"/>
+      <c r="L21" s="32"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="35">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D22" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="53">
-        <f t="shared" si="0"/>
-        <v>0.48958333333333326</v>
-      </c>
-      <c r="H18" s="51">
-        <v>350</v>
-      </c>
-      <c r="I18" s="46">
-        <f t="shared" si="3"/>
-        <v>46.287500000000001</v>
-      </c>
-      <c r="J18" s="52" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="L18" s="45">
-        <v>45873</v>
-      </c>
-      <c r="M18" s="39" t="str">
-        <f t="shared" si="2"/>
-        <v>vredu je</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C19" s="48"/>
-      <c r="E19" s="50"/>
-      <c r="G19" s="43"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="52"/>
-      <c r="L19" s="45"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C20" s="48"/>
-      <c r="E20" s="50"/>
-      <c r="G20" s="43"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="52"/>
-      <c r="L20" s="45"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C21" s="48"/>
-      <c r="E21" s="50"/>
-      <c r="G21" s="43"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="52"/>
-      <c r="L21" s="45"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="48">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D22" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="50">
+      <c r="E22" s="37">
         <v>0.2638888888888889</v>
       </c>
-      <c r="F22" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="G22" s="43">
+      <c r="F22" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="30">
         <f t="shared" si="0"/>
         <v>0.18055555555555558</v>
       </c>
-      <c r="I22" s="123">
+      <c r="I22" s="116">
         <v>337.1</v>
       </c>
-      <c r="J22" s="125" t="b">
+      <c r="J22" s="118" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="K22" s="117" t="s">
+      <c r="K22" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="L22" s="45">
+      <c r="L22" s="32">
         <v>45877</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="26" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="48">
+        <v>65</v>
+      </c>
+      <c r="C23" s="35">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D23" s="49" t="s">
+      <c r="D23" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="50">
+      <c r="E23" s="37">
         <v>0.37152777777777779</v>
       </c>
-      <c r="F23" s="49" t="s">
+      <c r="F23" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="43">
+      <c r="G23" s="30">
         <f t="shared" si="0"/>
         <v>3.8194444444444475E-2</v>
       </c>
-      <c r="I23" s="123"/>
-      <c r="J23" s="125"/>
-      <c r="K23" s="117"/>
-      <c r="L23" s="45">
+      <c r="I23" s="116"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="115"/>
+      <c r="L23" s="32">
         <v>45877</v>
       </c>
     </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="26" t="s">
+        <v>210</v>
+      </c>
+    </row>
     <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G28" s="42"/>
-    </row>
-    <row r="29" spans="1:13" s="62" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="61"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="65">
-        <f>SUM(G3:G23)</f>
-        <v>3.5</v>
-      </c>
-      <c r="H29" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="I29" s="67">
+      <c r="G28" s="29"/>
+    </row>
+    <row r="29" spans="1:13" s="49" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="48"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="I29" s="54">
         <f>SUM(I3:I28)</f>
-        <v>1038.4195000000002</v>
-      </c>
-      <c r="J29" s="67">
-        <f>SUM(IF(J3,0,I3),IF(J5,0,I5),IF(J6,0,I6),IF(J7,0,I7),IF(J8,0,I8),IF(J9,0,I9),IF(J10,0,I10),IF(J11,0,I11),IF(J12,0,I12),IF(J13,0,I13),IF(J14,0,I14),IF(J15,0,I15),IF(J16,0,I16),IF(J17,0,I17),IF(J18,0,I18),IF(J19,0,I19),IF(J20,0,I20),IF(J21,0,I21),IF(J22,0,I22),IF(J23,0,I23),IF(J24,0,I24))</f>
-        <v>364.21950000000004</v>
-      </c>
-      <c r="K29" s="68"/>
-      <c r="L29" s="61"/>
+        <v>1088.4100000000003</v>
+      </c>
+      <c r="J29" s="54">
+        <f>SUM(IF(J3,0,I3),IF(J5,0,I5),IF(J6,0,I6),IF(J7,0,I7),IF(J8,0,I8),IF(J9,0,I9),IF(J10,0,I10),IF(J11,0,I11),IF(J12,0,I12),IF(J13,0,I13),IF(J14,0,I14),IF(J17,0,I17),IF(J18,0,I18),IF(J19,0,I19),IF(J20,0,I20),IF(J21,0,I21),IF(J22,0,I22),IF(J23,0,I23),IF(J24,0,I24))</f>
+        <v>387.49550000000005</v>
+      </c>
+      <c r="K29" s="55"/>
+      <c r="L29" s="48"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J30" s="52" t="s">
-        <v>75</v>
+      <c r="J30" s="39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="99" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="110" t="s">
+        <v>217</v>
+      </c>
+      <c r="B33" s="111"/>
+      <c r="C33" s="112" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="111"/>
+      <c r="E33" s="112" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="111"/>
+      <c r="G33" s="99" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="113" t="s">
+        <v>3</v>
+      </c>
+      <c r="I33" s="111"/>
+      <c r="J33" s="100" t="s">
+        <v>218</v>
+      </c>
+      <c r="K33" s="101"/>
+      <c r="L33" s="98"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="35">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="37">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F35" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="G35" s="37">
+        <f>MOD(E35 - C35, 1)</f>
+        <v>3.4722222222222265E-2</v>
+      </c>
+      <c r="H35" s="103">
+        <f>G35</f>
+        <v>3.4722222222222265E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K22:K23"/>
+  <mergeCells count="14">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="I3:I4"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K22:K23"/>
     <mergeCell ref="I22:I23"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="J22:J23"/>
@@ -4431,7 +5161,7 @@
       <formula>NOT(ISERROR(SEARCH("taxi",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B1048576">
+  <conditionalFormatting sqref="A1:B32 A33 A34:B1048576">
     <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="Avto">
       <formula>NOT(ISERROR(SEARCH("Avto",A1)))</formula>
     </cfRule>
@@ -4442,13 +5172,13 @@
       <formula>NOT(ISERROR(SEARCH("Letalo",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1 D5:D11 D13 D16:D1048576">
+  <conditionalFormatting sqref="D1 D5:D11 D13 D17:D32 D34:D1048576">
     <cfRule type="expression" dxfId="2" priority="7">
       <formula>"AND(B1&lt;&gt;"" "" , B1&lt;TIME(6,0,0))"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G28">
-    <cfRule type="iconSet" priority="28">
+  <conditionalFormatting sqref="G3:G40">
+    <cfRule type="iconSet" priority="59">
       <iconSet iconSet="5Quarters">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0"/>
@@ -4459,7 +5189,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I28">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4489,8 +5219,8 @@
   </sheetPr>
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView zoomScale="61" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4509,263 +5239,263 @@
     <col min="13" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="47" t="s">
+    <row r="1" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="34" t="s">
         <v>23</v>
       </c>
       <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70">
+      <c r="A2" s="56"/>
+      <c r="B2" s="57">
         <v>45852</v>
       </c>
-      <c r="C2" s="70">
+      <c r="C2" s="57">
         <v>45853</v>
       </c>
-      <c r="D2" s="70">
+      <c r="D2" s="57">
         <v>45854</v>
       </c>
-      <c r="E2" s="70">
+      <c r="E2" s="57">
         <v>45855</v>
       </c>
-      <c r="F2" s="70">
+      <c r="F2" s="57">
         <v>45856</v>
       </c>
-      <c r="G2" s="71">
+      <c r="G2" s="58">
         <v>45857</v>
       </c>
-      <c r="H2" s="72">
+      <c r="H2" s="59">
         <v>45858</v>
       </c>
-      <c r="J2" s="73" t="s">
+      <c r="J2" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
     </row>
     <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73" t="s">
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="73" t="s">
+      <c r="H3" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="74" t="s">
-        <v>84</v>
-      </c>
-      <c r="L3" s="75" t="s">
-        <v>59</v>
+      <c r="J3" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" s="62" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="73"/>
-      <c r="J4" s="77"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="60"/>
+      <c r="J4" s="64"/>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="78"/>
-      <c r="B5" s="79">
+      <c r="A5" s="65"/>
+      <c r="B5" s="66">
         <v>45859</v>
       </c>
-      <c r="C5" s="79">
+      <c r="C5" s="66">
         <v>45860</v>
       </c>
-      <c r="D5" s="80">
+      <c r="D5" s="67">
         <v>45861</v>
       </c>
-      <c r="E5" s="81">
+      <c r="E5" s="68">
         <v>45862</v>
       </c>
-      <c r="F5" s="81">
+      <c r="F5" s="68">
         <v>45863</v>
       </c>
-      <c r="G5" s="81">
+      <c r="G5" s="68">
         <v>45864</v>
       </c>
-      <c r="H5" s="82">
+      <c r="H5" s="69">
         <v>45865</v>
       </c>
-      <c r="I5" s="78"/>
-      <c r="J5" s="83" t="s">
-        <v>58</v>
+      <c r="I5" s="65"/>
+      <c r="J5" s="70" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="73" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="73" t="s">
+      <c r="C6" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="73" t="s">
+      <c r="E6" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="73" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="73" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="73" t="s">
+      <c r="H6" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="84"/>
+      <c r="J6" s="71"/>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="78"/>
-      <c r="B8" s="85">
+      <c r="A8" s="65"/>
+      <c r="B8" s="72">
         <v>45866</v>
       </c>
-      <c r="C8" s="85">
+      <c r="C8" s="72">
         <v>45867</v>
       </c>
-      <c r="D8" s="85">
+      <c r="D8" s="72">
         <v>45868</v>
       </c>
-      <c r="E8" s="85">
+      <c r="E8" s="72">
         <v>45869</v>
       </c>
-      <c r="F8" s="85">
+      <c r="F8" s="72">
         <v>45870</v>
       </c>
-      <c r="G8" s="85">
+      <c r="G8" s="75">
         <v>45871</v>
       </c>
-      <c r="H8" s="85">
+      <c r="H8" s="72">
         <v>45872</v>
       </c>
-      <c r="I8" s="86"/>
+      <c r="I8" s="73"/>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="87" t="s">
+      <c r="C9" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="87" t="s">
+      <c r="D9" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="87" t="s">
+      <c r="E9" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="87" t="s">
+      <c r="F9" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="87" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="87" t="s">
+      <c r="G9" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="74" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="78"/>
-      <c r="B11" s="88">
+      <c r="A11" s="65"/>
+      <c r="B11" s="75">
         <v>45873</v>
       </c>
-      <c r="C11" s="89">
+      <c r="C11" s="76">
         <v>45874</v>
       </c>
-      <c r="D11" s="85">
+      <c r="D11" s="72">
         <v>45875</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="75">
         <v>45876</v>
       </c>
-      <c r="F11" s="90">
+      <c r="F11" s="77">
         <v>45877</v>
       </c>
-      <c r="G11" s="90">
+      <c r="G11" s="77">
         <v>45878</v>
       </c>
-      <c r="H11" s="91">
+      <c r="H11" s="78">
         <v>45879</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="87" t="s">
+      <c r="B12" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="87" t="s">
+      <c r="C12" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="87" t="s">
+      <c r="D12" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="87" t="s">
+      <c r="E12" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="87" t="s">
+      <c r="F12" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
     </row>
     <row r="14" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="92"/>
-      <c r="B14" s="93">
+      <c r="A14" s="79"/>
+      <c r="B14" s="80">
         <v>45880</v>
       </c>
-      <c r="C14" s="93">
+      <c r="C14" s="80">
         <v>45881</v>
       </c>
-      <c r="D14" s="94">
+      <c r="D14" s="81">
         <v>45882</v>
       </c>
     </row>
